--- a/v12/LOG/ACLCrossCheckTask/20251129-同平台N9K ACL检查.xlsx
+++ b/v12/LOG/ACLCrossCheckTask/20251129-同平台N9K ACL检查.xlsx
@@ -24,16 +24,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -56,9 +53,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -424,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A684"/>
+  <dimension ref="A1:B627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,12 +429,18 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="120" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t># 设备: 20251129-HX00-CS01-N9K-TWIDC.log</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>20251129-HX00-CS01-N9K-TWIDC.log</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>20251129-HX00-OOB-DS01-C3850-TWIDC.log</t>
         </is>
       </c>
     </row>
@@ -448,6 +450,11 @@
           <t>ip access-list VLAN100-ACL</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN15-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -455,6 +462,11 @@
           <t>162 permit tcp 10.10.100.31/32 eq 55888 10.10.108.63/32</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>permit tcp 10.10.15.0 0.0.0.255 eq www 443 5480 5900 10.10.62.32 0.0.0.1 log</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -462,6 +474,11 @@
           <t>164 permit tcp 10.10.100.32/30 eq 55888 10.10.108.63/32</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permit tcp 10.10.150.0 0.0.0.255 eq www 443 5900 10.10.62.32 0.0.0.1 log</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -469,6 +486,11 @@
           <t>166 permit tcp 10.10.100.31/32 eq 50051 10.10.106.21/28</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>permit udp 10.10.15.0 0.0.0.255 eq snmp 10.10.62.8 0.0.0.7 log</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -476,6 +498,11 @@
           <t>168 permit tcp 10.10.100.32/30 eq 50051 10.10.106.21/28</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>permit udp 10.10.150.0 0.0.0.255 eq snmp 10.10.62.8 0.0.0.7 log</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -483,6 +510,11 @@
           <t>170 permit tcp 10.10.100.31/32 10.10.26.41/32 eq 8080</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>permit tcp 10.10.150.0 0.0.0.255 eq www 443 host 10.10.15.231 log</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -490,6 +522,11 @@
           <t>172 permit tcp 10.10.100.32/30 10.10.26.41/32 eq 8080</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>permit tcp host 10.10.15.231 10.10.150.0 0.0.0.255 eq www 443 log</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -497,6 +534,11 @@
           <t>176 permit tcp 10.10.100.31/32 10.10.62.104/30 eq 9092</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>permit tcp host 10.10.15.231 10.10.151.0 0.0.0.255 eq www 443 log</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -504,6 +546,18 @@
           <t>178 permit tcp 10.10.100.32/30 10.10.62.104/30 eq 9092</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>permit tcp host 10.10.15.231 10.10.152.0 0.0.0.255 eq www 443 log</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>permit tcp host 10.10.15.231 10.10.153.0 0.0.0.255 eq www 443 log</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -511,6 +565,11 @@
           <t>ip access-list VLAN106-ACL</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>permit tcp host 10.10.15.231 10.10.86.0 0.0.0.255 eq www 443 log</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -518,6 +577,11 @@
           <t>60 permit tcp 10.10.106.0/24 eq 55888 10.10.108.63/32</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>permit tcp host 10.10.15.230 eq 3389 host 10.10.80.1 log</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -525,6 +589,11 @@
           <t>98 permit tcp 10.10.106.48/28 10.10.62.104/30 eq 9092</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>permit tcp host 10.10.15.233 eq 22 host 10.10.108.60 log</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -532,6 +601,11 @@
           <t>100 permit tcp 10.10.106.48/28 10.10.62.104/32 eq 9092</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>permit tcp host 10.10.15.234 eq 22 host 10.10.108.60 log</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -546,6 +620,11 @@
           <t>158 permit ip 10.10.106.0/27 10.10.26.0/30</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN151-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -553,6 +632,11 @@
           <t>160 permit tcp 10.10.106.40/27 10.10.26.70/31 eq 30080</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>permit tcp 10.10.151.0 0.0.0.255 eq www 443 5900 10.10.62.32 0.0.0.1</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -560,6 +644,11 @@
           <t>162 permit tcp 10.10.106.40/27 10.10.26.70/31 eq 30443</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>permit udp 10.10.151.0 0.0.0.255 eq snmp 10.10.62.8 0.0.0.7</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -567,6 +656,11 @@
           <t>164 permit tcp 10.10.106.51/28 eq www 10.10.26.1/30</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>permit tcp 10.10.151.0 0.0.0.255 eq www 443 host 10.10.15.231 log</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -581,6 +675,11 @@
           <t>168 permit tcp 10.10.106.1/29 eq 13080 10.10.26.1/30</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN152-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -588,6 +687,11 @@
           <t>170 permit tcp 10.10.106.1/29 eq 33080 10.10.26.1/30</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>permit tcp 10.10.152.0 0.0.0.255 eq www 443 5900 10.10.62.32 0.0.0.1 log</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -595,6 +699,11 @@
           <t>172 permit ip 10.10.106.14/31 10.10.26.1/30</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>permit udp 10.10.152.0 0.0.0.255 eq snmp 10.10.62.8 0.0.0.7 log</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -602,6 +711,11 @@
           <t>176 permit tcp 10.10.106.32/30 eq 8070 10.10.62.88/31</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>permit tcp 10.10.152.0 0.0.0.255 eq www 443 host 10.10.15.231 log</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -616,6 +730,11 @@
           <t>184 permit ip 10.10.106.0/27 10.10.26.0/30</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN153-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -623,6 +742,11 @@
           <t>186 permit ip 10.10.106.51/28 10.10.26.0/30</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>permit tcp 10.10.153.0 0.0.0.255 eq www 443 5900 10.10.62.32 0.0.0.1 log</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -630,6 +754,11 @@
           <t>188 permit tcp 10.10.106.16/30 eq www 10.10.26.0/30</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>permit udp 10.10.153.0 0.0.0.255 eq snmp 10.10.62.8 0.0.0.7 log</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -637,6 +766,11 @@
           <t>190 permit tcp 10.10.106.16/30 eq www 10.10.26.60/32</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>permit tcp 10.10.153.0 0.0.0.255 eq www 443 host 10.10.15.231 log</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -651,6 +785,11 @@
           <t>206 permit tcp 10.10.106.32/30 eq 8080 10.10.26.1/30</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN80-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -658,6 +797,11 @@
           <t>208 permit tcp 10.10.106.21/28 10.10.100.31/32 eq 50051</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>permit ip host 10.10.80.26 10.10.88.0 0.0.0.255 log</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -665,6 +809,11 @@
           <t>210 permit tcp 10.10.106.21/28 10.10.100.32/30 eq 50051</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>permit tcp host 10.10.80.1 10.10.88.0 0.0.0.255 eq 22 log</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -672,6 +821,11 @@
           <t>212 permit tcp 10.10.106.40/32 eq 5000 10.10.62.88/31</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>permit tcp host 10.10.80.11 10.10.88.0 0.0.0.255 eq 22 log</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -679,6 +833,11 @@
           <t>218 permit tcp 10.10.106.14/31 10.10.128.6/28 eq 30080</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>permit udp host 10.10.80.2 10.10.88.0 0.0.0.255 eq snmp log</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -686,6 +845,11 @@
           <t>220 permit tcp 10.10.106.14/31 10.10.128.56/29 eq 30080</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>permit tcp host 10.10.80.1 host 10.10.15.230 eq 3389 log</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -693,6 +857,11 @@
           <t>222 permit tcp 10.10.106.44/30 10.10.128.0/28 eq 30080</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>permit ip host 10.10.80.28 10.10.88.0 0.0.0.255 log</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -707,6 +876,11 @@
           <t>226 permit tcp 10.10.106.44/30 10.10.128.56/28 eq 30080</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN86-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -714,6 +888,11 @@
           <t>228 permit tcp 10.10.106.48/32 10.10.128.56/28 eq 30080</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>permit tcp 10.10.86.0 0.0.0.255 eq www 443 host 10.10.15.231 log</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -721,6 +900,11 @@
           <t>230 permit tcp 10.10.106.48/28 10.10.62.104/30 eq 9092</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>permit tcp 10.10.86.0 0.0.0.255 eq 22 host 10.10.80.1 log</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -728,6 +912,11 @@
           <t>232 permit tcp 10.10.106.14/31 10.10.62.104/30 eq 9092</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>permit ip host 10.10.86.101 10.10.88.0 0.0.0.255 log</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -735,6 +924,11 @@
           <t>238 permit tcp 10.10.106.12/31 10.10.26.70/31 eq 30080</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>permit ip host 10.10.86.101 host 10.10.88.247 log</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -742,6 +936,11 @@
           <t>256 permit tcp 10.10.106.43/32 eq 9080 10.10.170.1/30</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>permit ip host 10.10.86.102 10.10.88.0 0.0.0.255 log</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -756,6 +955,11 @@
           <t>260 permit tcp 10.10.106.43/32 eq 9080 10.10.128.16/28</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN88-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -763,6 +967,11 @@
           <t>262 permit tcp 10.10.106.43/32 eq 9080 10.10.128.64/28</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>permit ip 10.10.88.0 0.0.0.255 host 10.10.80.26 log</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -770,6 +979,11 @@
           <t>264 permit tcp 10.10.106.43/32 eq 9080 10.10.62.32/32</t>
         </is>
       </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>permit tcp 10.10.88.0 0.0.0.255 eq 22 host 10.10.80.1 log</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -777,6 +991,11 @@
           <t>266 permit tcp 10.10.106.43/32 eq 9080 10.10.62.32/31</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>permit tcp 10.10.88.0 0.0.0.255 eq 22 host 10.10.80.11 log</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -784,6 +1003,11 @@
           <t>284 permit tcp 10.10.106.40/32 range 8001 8002 10.10.62.33/32</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>permit ip 10.10.88.0 0.0.0.255 host 10.10.86.101 log</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -791,6 +1015,11 @@
           <t>286 permit tcp 10.10.106.1/29 10.10.26.180/32 eq 10000</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>permit ip host 10.10.88.247 host 10.10.86.101 log</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -798,6 +1027,11 @@
           <t>288 permit tcp 10.10.106.1/29 10.10.180.31/32 eq 10000</t>
         </is>
       </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>permit udp 10.10.88.0 0.0.0.255 eq snmp host 10.10.80.2 log</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -805,6 +1039,11 @@
           <t>290 permit tcp 10.10.106.1/29 10.10.180.32/32 eq 10000</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>permit ip 10.10.88.0 0.0.0.255 host 10.10.86.102 log</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -812,6 +1051,11 @@
           <t>292 permit tcp 10.10.106.21/32 eq 10000 10.10.128.14/27</t>
         </is>
       </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>permit ip 10.10.88.0 0.0.0.255 host 10.10.80.28 log</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4716,349 +4960,6 @@
       <c r="A627" t="inlineStr">
         <is>
           <t>62 permit tcp 10.10.7.0/24 eq 5480 10.10.62.32/31</t>
-        </is>
-      </c>
-    </row>
-    <row r="630">
-      <c r="A630" s="1" t="inlineStr">
-        <is>
-          <t># 设备: 20251129-HX00-OOB-DS01-C3850-TWIDC.log</t>
-        </is>
-      </c>
-    </row>
-    <row r="631">
-      <c r="A631" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN15-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="632">
-      <c r="A632" t="inlineStr">
-        <is>
-          <t>permit tcp 10.10.15.0 0.0.0.255 eq www 443 5480 5900 10.10.62.32 0.0.0.1 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="633">
-      <c r="A633" t="inlineStr">
-        <is>
-          <t>permit tcp 10.10.150.0 0.0.0.255 eq www 443 5900 10.10.62.32 0.0.0.1 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="634">
-      <c r="A634" t="inlineStr">
-        <is>
-          <t>permit udp 10.10.15.0 0.0.0.255 eq snmp 10.10.62.8 0.0.0.7 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="635">
-      <c r="A635" t="inlineStr">
-        <is>
-          <t>permit udp 10.10.150.0 0.0.0.255 eq snmp 10.10.62.8 0.0.0.7 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" t="inlineStr">
-        <is>
-          <t>permit tcp 10.10.150.0 0.0.0.255 eq www 443 host 10.10.15.231 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="637">
-      <c r="A637" t="inlineStr">
-        <is>
-          <t>permit tcp host 10.10.15.231 10.10.150.0 0.0.0.255 eq www 443 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="638">
-      <c r="A638" t="inlineStr">
-        <is>
-          <t>permit tcp host 10.10.15.231 10.10.151.0 0.0.0.255 eq www 443 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="639">
-      <c r="A639" t="inlineStr">
-        <is>
-          <t>permit tcp host 10.10.15.231 10.10.152.0 0.0.0.255 eq www 443 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="640">
-      <c r="A640" t="inlineStr">
-        <is>
-          <t>permit tcp host 10.10.15.231 10.10.153.0 0.0.0.255 eq www 443 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="641">
-      <c r="A641" t="inlineStr">
-        <is>
-          <t>permit tcp host 10.10.15.231 10.10.86.0 0.0.0.255 eq www 443 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="642">
-      <c r="A642" t="inlineStr">
-        <is>
-          <t>permit tcp host 10.10.15.230 eq 3389 host 10.10.80.1 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="643">
-      <c r="A643" t="inlineStr">
-        <is>
-          <t>permit tcp host 10.10.15.233 eq 22 host 10.10.108.60 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="644">
-      <c r="A644" t="inlineStr">
-        <is>
-          <t>permit tcp host 10.10.15.234 eq 22 host 10.10.108.60 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="646">
-      <c r="A646" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN151-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="647">
-      <c r="A647" t="inlineStr">
-        <is>
-          <t>permit tcp 10.10.151.0 0.0.0.255 eq www 443 5900 10.10.62.32 0.0.0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="648">
-      <c r="A648" t="inlineStr">
-        <is>
-          <t>permit udp 10.10.151.0 0.0.0.255 eq snmp 10.10.62.8 0.0.0.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="649">
-      <c r="A649" t="inlineStr">
-        <is>
-          <t>permit tcp 10.10.151.0 0.0.0.255 eq www 443 host 10.10.15.231 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="651">
-      <c r="A651" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN152-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="652">
-      <c r="A652" t="inlineStr">
-        <is>
-          <t>permit tcp 10.10.152.0 0.0.0.255 eq www 443 5900 10.10.62.32 0.0.0.1 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="653">
-      <c r="A653" t="inlineStr">
-        <is>
-          <t>permit udp 10.10.152.0 0.0.0.255 eq snmp 10.10.62.8 0.0.0.7 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="654">
-      <c r="A654" t="inlineStr">
-        <is>
-          <t>permit tcp 10.10.152.0 0.0.0.255 eq www 443 host 10.10.15.231 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="656">
-      <c r="A656" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN153-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="657">
-      <c r="A657" t="inlineStr">
-        <is>
-          <t>permit tcp 10.10.153.0 0.0.0.255 eq www 443 5900 10.10.62.32 0.0.0.1 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" t="inlineStr">
-        <is>
-          <t>permit udp 10.10.153.0 0.0.0.255 eq snmp 10.10.62.8 0.0.0.7 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" t="inlineStr">
-        <is>
-          <t>permit tcp 10.10.153.0 0.0.0.255 eq www 443 host 10.10.15.231 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="661">
-      <c r="A661" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN80-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" t="inlineStr">
-        <is>
-          <t>permit ip host 10.10.80.26 10.10.88.0 0.0.0.255 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" t="inlineStr">
-        <is>
-          <t>permit tcp host 10.10.80.1 10.10.88.0 0.0.0.255 eq 22 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" t="inlineStr">
-        <is>
-          <t>permit tcp host 10.10.80.11 10.10.88.0 0.0.0.255 eq 22 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" t="inlineStr">
-        <is>
-          <t>permit udp host 10.10.80.2 10.10.88.0 0.0.0.255 eq snmp log</t>
-        </is>
-      </c>
-    </row>
-    <row r="666">
-      <c r="A666" t="inlineStr">
-        <is>
-          <t>permit tcp host 10.10.80.1 host 10.10.15.230 eq 3389 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="667">
-      <c r="A667" t="inlineStr">
-        <is>
-          <t>permit ip host 10.10.80.28 10.10.88.0 0.0.0.255 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN86-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" t="inlineStr">
-        <is>
-          <t>permit tcp 10.10.86.0 0.0.0.255 eq www 443 host 10.10.15.231 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" t="inlineStr">
-        <is>
-          <t>permit tcp 10.10.86.0 0.0.0.255 eq 22 host 10.10.80.1 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>permit ip host 10.10.86.101 10.10.88.0 0.0.0.255 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="inlineStr">
-        <is>
-          <t>permit ip host 10.10.86.101 host 10.10.88.247 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="inlineStr">
-        <is>
-          <t>permit ip host 10.10.86.102 10.10.88.0 0.0.0.255 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN88-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>permit ip 10.10.88.0 0.0.0.255 host 10.10.80.26 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="inlineStr">
-        <is>
-          <t>permit tcp 10.10.88.0 0.0.0.255 eq 22 host 10.10.80.1 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="inlineStr">
-        <is>
-          <t>permit tcp 10.10.88.0 0.0.0.255 eq 22 host 10.10.80.11 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" t="inlineStr">
-        <is>
-          <t>permit ip 10.10.88.0 0.0.0.255 host 10.10.86.101 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" t="inlineStr">
-        <is>
-          <t>permit ip host 10.10.88.247 host 10.10.86.101 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" t="inlineStr">
-        <is>
-          <t>permit udp 10.10.88.0 0.0.0.255 eq snmp host 10.10.80.2 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>permit ip 10.10.88.0 0.0.0.255 host 10.10.86.102 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" t="inlineStr">
-        <is>
-          <t>permit ip 10.10.88.0 0.0.0.255 host 10.10.80.28 log</t>
         </is>
       </c>
     </row>
@@ -5073,7 +4974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A313"/>
+  <dimension ref="A1:B282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5082,12 +4983,18 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="120" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t># 设备: 20251129-HX01-CS01-N9K-TWIDC.log</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>20251129-HX01-CS01-N9K-TWIDC.log</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>20251129-HX01-OOB-DS01-C3850-TWIDC.log</t>
         </is>
       </c>
     </row>
@@ -5097,6 +5004,11 @@
           <t>ip access-list VLAN108-ACL</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN15-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5104,6 +5016,11 @@
           <t>60 permit tcp 10.6.108.0/24 10.6.62.66/32 eq www log</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>permit udp 10.6.15.0 0.0.0.255 eq snmp 10.6.62.8 0.0.0.7 log</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5111,6 +5028,11 @@
           <t>68 permit tcp 10.6.108.0/24 10.6.62.11/32 eq 16000 log</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permit udp 10.6.150.0 0.0.0.255 eq snmp 10.6.62.8 0.0.0.7 log</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5118,6 +5040,11 @@
           <t>280 permit tcp 10.6.108.60/32 10.6.19.0/24 eq 443</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>permit tcp 10.6.15.0 0.0.0.255 eq 443 5900 10.6.62.32 0.0.0.1 log</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5125,6 +5052,11 @@
           <t>282 permit tcp 10.6.108.60/32 10.6.24.0/24 eq 443</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>permit tcp 10.6.150.0 0.0.0.255 eq 443 5900 10.6.62.32 0.0.0.1 log</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5132,6 +5064,11 @@
           <t>284 permit tcp 10.6.108.60/32 10.6.25.0/24 eq 443</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>permit tcp 10.6.15.230 0.0.0.1 10.6.150.0 0.0.0.255 eq www 443</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5139,6 +5076,11 @@
           <t>286 permit tcp 10.6.108.60/32 10.6.26.0/24 eq 443</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>permit tcp 10.6.150.0 0.0.0.255 eq www 443 10.6.15.230 0.0.0.1</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5153,6 +5095,11 @@
           <t>288 permit tcp 10.6.108.60/32 10.6.28.0/24 eq 443</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN80-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5160,6 +5107,11 @@
           <t>290 permit tcp 10.6.108.60/32 10.6.0.0/16 eq 22</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>permit tcp 10.6.80.0 0.0.0.15 10.6.86.0 0.0.0.255 eq 22 www 443 5480 5900 5601 8000 8980 log</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5167,6 +5119,11 @@
           <t>292 permit icmp 10.6.108.60/32 10.6.0.0/16 log</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>permit tcp 10.6.80.0 0.0.0.15 host 10.6.88.243 eq 443 log</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5174,6 +5131,18 @@
           <t>298 permit tcp 10.6.108.0/24 10.6.200.60/32 eq 1000</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>permit tcp 10.6.80.0 0.0.0.15 host 10.6.88.221 eq www 8888 log</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>permit tcp 10.6.80.0 0.0.0.15 10.6.88.0 0.0.0.255 eq ftp 22 telnet www 443 log</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5188,6 +5157,11 @@
           <t>16 deny ip 10.6.130.0/24 10.6.16.72/32</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN86-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5195,6 +5169,11 @@
           <t>17 deny ip 10.6.130.0/24 10.6.16.168/32</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>permit tcp 10.6.86.0 0.0.0.255 eq 22 www 443 5480 5900 5601 8000 8980 10.6.80.0 0.0.0.15 log</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5202,6 +5181,11 @@
           <t>72 permit tcp 10.6.130.0/24 10.6.62.11/32 eq 16000 log</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>permit ip host 10.6.86.32 10.6.88.0 0.0.0.255 log</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5209,6 +5193,11 @@
           <t>205 permit tcp 10.6.130.0/24 10.6.25.204/30 eq 9092</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>permit ip host 10.6.86.33 10.6.88.0 0.0.0.255 log</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5216,6 +5205,11 @@
           <t>206 permit tcp 10.6.130.0/24 10.6.25.208/32 eq 9092</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>permit ip host 10.6.86.110 10.6.88.0 0.0.0.255 log</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5223,6 +5217,11 @@
           <t>207 permit tcp 10.6.130.0/24 10.6.25.204/30 eq 9200</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>permit ip host 10.6.86.52 host 10.6.88.222</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5230,6 +5229,11 @@
           <t>208 permit tcp 10.6.130.0/24 10.6.25.208/32 eq 9200</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>permit ip host 10.6.86.62 host 10.6.88.222</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5244,6 +5248,11 @@
           <t>290 permit tcp 10.6.130.0/24 10.6.13.136/29 range 3366 3369</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN88-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5251,6 +5260,11 @@
           <t>296 permit tcp 10.6.130.0/24 10.6.11.0/27 eq 9092</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>permit udp host 10.6.88.222 host 10.6.88.254 eq snmp log</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5258,6 +5272,11 @@
           <t>298 permit tcp 10.6.130.0/24 10.6.16.0/27 range 4000 9200</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>permit ip 10.6.88.0 0.0.0.255 host 10.6.86.32 log</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5265,6 +5284,11 @@
           <t>310 permit tcp 10.6.130.0/24 10.6.13.137/32 eq 3306</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>permit ip 10.6.88.0 0.0.0.255 host 10.6.86.33 log</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5272,6 +5296,11 @@
           <t>320 permit tcp 10.6.130.0/24 10.6.27.32/28 eq 9200</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>permit tcp 10.6.88.0 0.0.0.255 eq ftp 22 telnet www 443 10.6.80.0 0.0.0.15 log</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5279,6 +5308,11 @@
           <t>322 permit tcp 10.6.130.0/24 10.6.27.80/29 eq 9200</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>permit ip 10.6.88.0 0.0.0.255 host 10.6.86.110 log</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6992,188 +7026,6 @@
       <c r="A282" t="inlineStr">
         <is>
           <t>386 permit tcp 10.6.8.0/24 10.6.200.60/32 eq 1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="inlineStr">
-        <is>
-          <t># 设备: 20251129-HX01-OOB-DS01-C3850-TWIDC.log</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN15-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>permit udp 10.6.15.0 0.0.0.255 eq snmp 10.6.62.8 0.0.0.7 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>permit udp 10.6.150.0 0.0.0.255 eq snmp 10.6.62.8 0.0.0.7 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>permit tcp 10.6.15.0 0.0.0.255 eq 443 5900 10.6.62.32 0.0.0.1 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>permit tcp 10.6.150.0 0.0.0.255 eq 443 5900 10.6.62.32 0.0.0.1 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>permit tcp 10.6.15.230 0.0.0.1 10.6.150.0 0.0.0.255 eq www 443</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>permit tcp 10.6.150.0 0.0.0.255 eq www 443 10.6.15.230 0.0.0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN80-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>permit tcp 10.6.80.0 0.0.0.15 10.6.86.0 0.0.0.255 eq 22 www 443 5480 5900 5601 8000 8980 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>permit tcp 10.6.80.0 0.0.0.15 host 10.6.88.243 eq 443 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>permit tcp 10.6.80.0 0.0.0.15 host 10.6.88.221 eq www 8888 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>permit tcp 10.6.80.0 0.0.0.15 10.6.88.0 0.0.0.255 eq ftp 22 telnet www 443 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN86-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>permit tcp 10.6.86.0 0.0.0.255 eq 22 www 443 5480 5900 5601 8000 8980 10.6.80.0 0.0.0.15 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>permit ip host 10.6.86.32 10.6.88.0 0.0.0.255 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>permit ip host 10.6.86.33 10.6.88.0 0.0.0.255 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>permit ip host 10.6.86.110 10.6.88.0 0.0.0.255 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>permit ip host 10.6.86.52 host 10.6.88.222</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>permit ip host 10.6.86.62 host 10.6.88.222</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN88-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>permit udp host 10.6.88.222 host 10.6.88.254 eq snmp log</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>permit ip 10.6.88.0 0.0.0.255 host 10.6.86.32 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>permit ip 10.6.88.0 0.0.0.255 host 10.6.86.33 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>permit tcp 10.6.88.0 0.0.0.255 eq ftp 22 telnet www 443 10.6.80.0 0.0.0.15 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>permit ip 10.6.88.0 0.0.0.255 host 10.6.86.110 log</t>
         </is>
       </c>
     </row>
@@ -7188,7 +7040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A213"/>
+  <dimension ref="A1:B191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7197,12 +7049,18 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="120" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t># 设备: 20251129-HX02-CS01-N9K-JPIDC.log</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>20251129-HX02-CS01-N9K-JPIDC.log</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>20251129-HX02-OOB-DS01-C3850-JPIDC.log</t>
         </is>
       </c>
     </row>
@@ -7212,6 +7070,11 @@
           <t>ip access-list VLAN108-ACL</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN15-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7219,6 +7082,11 @@
           <t>52 permit tcp 10.12.108.0/24 10.12.62.11/32 eq 16000 log</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>permit tcp host 10.12.150.244 eq 22 host 10.12.108.60</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7226,6 +7094,11 @@
           <t>60 permit tcp 10.12.108.0/24 10.12.62.66/32 eq www log</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permit tcp host 10.12.150.244 eq 443 host 10.12.62.32</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7233,6 +7106,11 @@
           <t>90 permit tcp 10.12.108.0/24 eq 55888 10.12.200.88/32 log</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>permit udp 10.12.15.0 0.0.0.255 eq snmp 10.12.62.8 0.0.0.7</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7240,6 +7118,11 @@
           <t>280 permit tcp 10.12.108.60/32 10.12.19.0/24 eq 443</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>permit udp 10.12.150.0 0.0.0.255 eq snmp 10.12.62.8 0.0.0.7</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7247,6 +7130,11 @@
           <t>282 permit tcp 10.12.108.60/32 10.12.12.0/24 eq 443</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>permit tcp 10.12.15.0 0.0.0.255 eq 443 5900 10.12.62.32 0.0.0.1</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7254,6 +7142,11 @@
           <t>284 permit tcp 10.12.108.60/32 10.12.100.0/24 eq 443</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>permit tcp 10.12.150.0 0.0.0.255 eq 443 5900 10.12.62.32 0.0.0.1</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7261,6 +7154,11 @@
           <t>286 permit tcp 10.12.108.60/32 10.12.0.0/16 eq 22</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>permit tcp host 10.12.15.230 eq 3389 host 10.12.88.220</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7268,6 +7166,11 @@
           <t>288 permit icmp 10.12.108.60/32 10.12.0.0/16</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>permit tcp host 10.12.15.243 eq 22 host 10.12.108.60</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7275,6 +7178,11 @@
           <t>290 permit tcp 10.12.108.60/32 10.12.76.0/24 eq 443</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>permit tcp host 10.12.15.244 eq 22 host 10.12.108.60</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7282,6 +7190,11 @@
           <t>ip access-list VLAN168-ACL</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN153-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7289,6 +7202,11 @@
           <t>52 permit tcp 10.12.168.0/24 10.12.62.11/32 eq 16000 log</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>permit tcp host 10.12.153.1 eq 3389 host 10.12.88.200</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7303,6 +7221,11 @@
           <t>222 permit tcp 10.12.168.24/30 10.12.169.0/30 range 8001 8004</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN88-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7310,6 +7233,11 @@
           <t>224 permit tcp 10.12.168.20/30 10.12.169.0/30 eq 6788</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>permit tcp host 10.12.88.220 10.12.88.0 0.0.0.255 eq 22</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7317,6 +7245,11 @@
           <t>226 permit tcp 10.12.168.24/30 10.12.169.0/30 eq 6788</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>permit udp host 10.12.88.200 host 10.12.88.254 eq snmp</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7324,6 +7257,11 @@
           <t>228 permit tcp 10.12.168.20/30 10.12.169.4/32 range 8001 8004</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>permit udp host 10.12.88.200 10.12.88.0 0.0.0.255 eq snmp</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7331,6 +7269,11 @@
           <t>230 permit tcp 10.12.168.24/30 10.12.169.4/32 range 8001 8004</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>permit udp host 10.12.88.200 10.12.89.0 0.0.0.255 eq snmp</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8477,132 +8420,6 @@
       <c r="A191" t="inlineStr">
         <is>
           <t>252 permit ip 10.12.8.43/32 10.12.17.0/24</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="inlineStr">
-        <is>
-          <t># 设备: 20251129-HX02-OOB-DS01-C3850-JPIDC.log</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN15-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>permit tcp host 10.12.150.244 eq 22 host 10.12.108.60</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>permit tcp host 10.12.150.244 eq 443 host 10.12.62.32</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>permit udp 10.12.15.0 0.0.0.255 eq snmp 10.12.62.8 0.0.0.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>permit udp 10.12.150.0 0.0.0.255 eq snmp 10.12.62.8 0.0.0.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>permit tcp 10.12.15.0 0.0.0.255 eq 443 5900 10.12.62.32 0.0.0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>permit tcp 10.12.150.0 0.0.0.255 eq 443 5900 10.12.62.32 0.0.0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>permit tcp host 10.12.15.230 eq 3389 host 10.12.88.220</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>permit tcp host 10.12.15.243 eq 22 host 10.12.108.60</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>permit tcp host 10.12.15.244 eq 22 host 10.12.108.60</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN153-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>permit tcp host 10.12.153.1 eq 3389 host 10.12.88.200</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN88-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>permit tcp host 10.12.88.220 10.12.88.0 0.0.0.255 eq 22</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>permit udp host 10.12.88.200 host 10.12.88.254 eq snmp</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>permit udp host 10.12.88.200 10.12.88.0 0.0.0.255 eq snmp</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>permit udp host 10.12.88.200 10.12.89.0 0.0.0.255 eq snmp</t>
         </is>
       </c>
     </row>
@@ -8617,7 +8434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A127"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8626,12 +8443,18 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="120" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t># 设备: 20251129-HX03-CS01-N9K-JPIDC.log</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>20251129-HX03-CS01-N9K-JPIDC.log</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>20251129-HX03-OOB-DS01-C3850-JPIDC.log</t>
         </is>
       </c>
     </row>
@@ -8641,6 +8464,11 @@
           <t>ip access-list VLAN108-ACL</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN15-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -8648,6 +8476,11 @@
           <t>46 permit tcp 10.13.108.0/24 10.13.62.11/32 eq 16000 log</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>permit udp 10.13.15.0 0.0.0.255 eq snmp 10.13.62.8 0.0.0.7</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -8655,6 +8488,11 @@
           <t>60 permit tcp 10.13.108.0/24 10.13.62.66/32 eq www log</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>permit udp 10.13.150.0 0.0.0.255 eq snmp 10.13.62.8 0.0.0.7</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -8662,6 +8500,11 @@
           <t>280 permit tcp 10.13.108.60/32 10.13.19.0/24 eq 443</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>permit tcp 10.13.15.0 0.0.0.255 eq 443 5900 10.13.62.32 0.0.0.1</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -8669,6 +8512,11 @@
           <t>282 permit tcp 10.13.108.60/32 10.13.12.0/24 eq 443</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>permit tcp 10.13.150.0 0.0.0.255 eq 443 5900 10.13.62.32 0.0.0.1</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -8676,6 +8524,11 @@
           <t>284 permit tcp 10.13.108.60/32 10.13.0.0/16 eq 22</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>permit tcp host 10.13.15.243 eq 22 443 host 10.13.108.60</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -8683,6 +8536,11 @@
           <t>286 permit icmp 10.13.108.60/32 10.13.0.0/16</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>permit tcp host 10.13.15.244 eq 22 host 10.13.108.60</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9395,62 +9253,6 @@
       <c r="A117" t="inlineStr">
         <is>
           <t>252 permit ip 10.13.8.43/32 10.13.17.0/24</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="inlineStr">
-        <is>
-          <t># 设备: 20251129-HX03-OOB-DS01-C3850-JPIDC.log</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN15-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>permit udp 10.13.15.0 0.0.0.255 eq snmp 10.13.62.8 0.0.0.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>permit udp 10.13.150.0 0.0.0.255 eq snmp 10.13.62.8 0.0.0.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>permit tcp 10.13.15.0 0.0.0.255 eq 443 5900 10.13.62.32 0.0.0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>permit tcp 10.13.150.0 0.0.0.255 eq 443 5900 10.13.62.32 0.0.0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>permit tcp host 10.13.15.243 eq 22 443 host 10.13.108.60</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>permit tcp host 10.13.15.244 eq 22 host 10.13.108.60</t>
         </is>
       </c>
     </row>
@@ -9465,7 +9267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A702"/>
+  <dimension ref="A1:B646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9474,12 +9276,18 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="120" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t># 设备: 20251129-HX04-CS01-N9K-JPIDC.log</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>20251129-HX04-CS01-N9K-JPIDC.log</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>20251129-HX04-OOB-DS01-C9300-JPIDC.log</t>
         </is>
       </c>
     </row>
@@ -9489,6 +9297,11 @@
           <t>ip access-list VLAN100-ACL</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN150-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9496,6 +9309,11 @@
           <t>64 permit tcp 10.62.100.0/24 10.62.62.14/32 eq 16000</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>40 permit udp 10.62.150.0 0.0.0.255 eq snmp 10.62.62.8 0.0.0.7 log</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -9503,6 +9321,11 @@
           <t>162 permit tcp 10.62.100.96/29 eq 10081 10.62.106.18/31</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>50 permit tcp 10.62.150.0 0.0.0.255 eq 443 5900 10.62.62.32 0.0.0.1 log</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9510,6 +9333,11 @@
           <t>163 permit tcp 10.62.100.170/31 eq 10081 10.62.106.18/31</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>60 permit icmp 10.62.150.0 0.0.0.255 10.62.62.8 0.0.0.7 log</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -9517,6 +9345,11 @@
           <t>248 permit tcp 10.62.100.0/24 10.62.110.0/24 eq 3399</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>70 permit tcp host 10.62.150.193 eq 22 host 10.62.108.60 log</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9524,6 +9357,11 @@
           <t>260 permit tcp 10.62.100.0/24 eq 55888 10.62.108.63/32</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>80 permit tcp host 10.62.150.194 eq 22 host 10.62.108.60 log</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9538,6 +9376,11 @@
           <t>272 permit tcp 10.62.100.96/28 range 19001 19002 10.62.16.0/30</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN151-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9545,6 +9388,11 @@
           <t>273 permit tcp 10.62.100.170/31 range 19001 19002 10.62.16.0/30</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>40 permit udp 10.62.151.0 0.0.0.255 eq snmp 10.62.62.8 0.0.0.7 log</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9552,6 +9400,11 @@
           <t>276 permit tcp 10.62.100.0/24 10.62.110.0/24 range 6633 6788</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>50 permit tcp 10.62.151.0 0.0.0.255 eq 443 5900 10.62.62.32 0.0.0.1 log</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9559,6 +9412,11 @@
           <t>278 permit tcp 10.62.100.0/24 10.62.110.0/24 range 9092 9200</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>60 permit icmp 10.62.151.0 0.0.0.255 10.62.62.8 0.0.0.7 log</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9573,6 +9431,11 @@
           <t>282 permit tcp 10.62.100.0/24 10.62.120.0/24 range 3366 3399</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN152-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9580,6 +9443,11 @@
           <t>284 permit tcp 10.62.100.0/24 10.62.120.0/24 eq 4000</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>40 permit udp 10.62.152.0 0.0.0.255 eq snmp 10.62.62.8 0.0.0.7 log</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9587,6 +9455,11 @@
           <t>286 permit tcp 10.62.100.0/24 10.62.120.0/24 range 6633 6788</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>50 permit tcp 10.62.152.0 0.0.0.255 eq 443 5900 10.62.62.32 0.0.0.1 log</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -9594,6 +9467,11 @@
           <t>288 permit tcp 10.62.100.0/24 10.62.120.0/24 range 9092 9200</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>60 permit icmp 10.62.152.0 0.0.0.255 10.62.62.8 0.0.0.7 log</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -9608,6 +9486,11 @@
           <t>300 permit tcp 10.62.100.0/24 10.62.16.41/32 eq 8080</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN153-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9615,6 +9498,11 @@
           <t>310 permit tcp 10.62.100.0/24 10.62.110.0/24 range 3366 3368</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>40 permit udp 10.62.153.0 0.0.0.255 eq snmp 10.62.62.8 0.0.0.7 log</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9622,6 +9510,11 @@
           <t>320 permit tcp 10.62.100.0/24 10.62.110.0/24 eq 4000</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>50 permit tcp 10.62.153.0 0.0.0.255 eq 443 5900 10.62.62.32 0.0.0.1 log</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9629,6 +9522,11 @@
           <t>330 permit tcp 10.62.100.0/24 10.62.110.0/24 range 7001 7004</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>60 permit icmp 10.62.153.0 0.0.0.255 10.62.62.8 0.0.0.7 log</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9643,6 +9541,11 @@
           <t>336 permit tcp 10.62.100.127/32 eq 50051 10.62.106.16/28</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN155-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -9650,6 +9553,11 @@
           <t>338 permit tcp 10.62.100.128/29 eq 50051 10.62.106.16/28</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>40 permit udp 10.62.155.0 0.0.0.255 eq snmp 10.62.62.8 0.0.0.7 log</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -9657,6 +9565,11 @@
           <t>340 permit tcp 10.62.100.0/24 10.62.62.96/28 eq 9092</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>50 permit tcp 10.62.155.240 0.0.0.7 eq 443 host 10.62.62.32 log</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -9664,6 +9577,11 @@
           <t>350 permit tcp 10.62.100.0/24 10.62.130.0/24 range 3366 3368</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>60 permit tcp 10.62.155.240 0.0.0.7 host 10.62.200.60 eq 1000 log</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -9671,6 +9589,11 @@
           <t>352 permit tcp 10.62.100.0/24 10.62.130.0/24 range 7001 7004</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>70 permit icmp 10.62.155.0 0.0.0.255 10.62.62.8 0.0.0.7 log</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -9685,6 +9608,11 @@
           <t>356 permit tcp 10.62.100.0/24 10.62.130.0/24 eq 6633</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN86-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -9692,6 +9620,11 @@
           <t>358 permit tcp 10.62.100.0/24 10.62.130.0/24 eq 9092</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>70 permit ip host 10.62.86.2 host 10.62.88.251 log</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -9699,6 +9632,11 @@
           <t>360 permit tcp 10.62.100.0/24 10.60.110.0/24 eq 9200</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>80 permit udp host 10.62.86.2 10.60.88.0 0.0.0.255 log</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9713,6 +9651,11 @@
           <t>370 permit tcp 10.62.100.0/26 range 17010 17040 10.62.106.32/27</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN88-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9720,6 +9663,11 @@
           <t>372 permit tcp 10.62.100.64/27 range 17010 17040 10.62.106.32/27</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>120 permit ip 10.62.88.0 0.0.0.255 10.62.86.2 0.0.0.1 log</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9741,6 +9689,11 @@
           <t>378 permit tcp 10.62.100.64/26 eq 17060 10.62.106.32/27</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>20251129-HX04-OOB-DS02-C9200L-JPIDC.log</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9748,6 +9701,11 @@
           <t>380 permit tcp 10.62.100.64/26 range 20000 20020 10.62.106.32/27</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ip access-list extended F5_Mgmt_ACL</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9755,6 +9713,11 @@
           <t>392 permit tcp 10.62.100.96/29 eq 8081 10.62.106.18/31</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>760 permit tcp 10.62.155.240 0.0.0.7 eq 443 host 10.62.62.32</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9769,6 +9732,11 @@
           <t>394 permit tcp 10.62.100.64/26 eq 20000 10.62.106.18/31</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ip access-list extended Sec_ACL</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9776,6 +9744,11 @@
           <t>398 permit tcp 10.62.100.0/24 10.62.130.233/32 eq 3366</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>280 permit tcp 10.60.15.192 0.0.0.63 eq 22 host 10.62.15.221 log</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9783,6 +9756,11 @@
           <t>400 permit ip 10.62.100.0/25 10.62.106.8/29</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>300 permit udp 10.60.15.192 0.0.0.63 eq snmp host 10.62.15.198 log</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9790,6 +9768,11 @@
           <t>422 permit tcp 10.62.100.96/29 eq 17998 10.62.106.16/30</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>720 permit tcp 10.60.150.0 0.0.0.255 eq www 443 10.62.62.32 0.0.0.7</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9797,6 +9780,11 @@
           <t>423 permit tcp 10.62.100.170/31 eq 17998 10.62.106.16/30</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>730 permit tcp 10.60.150.0 0.0.0.255 eq 10050 10.60.62.8 0.0.0.7 log</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9804,6 +9792,11 @@
           <t>428 permit tcp 10.62.100.40/29 eq 27040 10.62.106.16/31</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>740 permit tcp 10.60.150.0 0.0.0.255 10.60.62.8 0.0.0.7 eq 10051 log</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9811,6 +9804,11 @@
           <t>430 permit tcp 10.62.100.64/26 eq 17060 10.62.106.16/31</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>750 permit udp 10.60.150.0 0.0.0.255 eq snmp 10.62.62.8 0.0.0.7 log</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9818,6 +9816,11 @@
           <t>434 permit tcp 10.62.100.32/28 10.62.106.32/31 eq 9080</t>
         </is>
       </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>760 permit tcp 10.62.150.0 0.0.0.255 eq 443 5900 host 10.62.62.32</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9832,6 +9835,11 @@
           <t>442 permit tcp 10.62.100.0/24 10.60.110.0/24 eq 4000</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN88-Mgmt</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9839,6 +9847,11 @@
           <t>444 permit tcp 10.62.100.0/24 10.60.110.0/24 range 7001 7004</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>580 permit udp 10.60.88.192 0.0.0.63 host 10.62.88.221 eq syslog log</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -9846,6 +9859,11 @@
           <t>446 permit tcp 10.62.100.0/24 10.60.110.0/24 eq 9092</t>
         </is>
       </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>600 permit ip 10.60.88.0 0.0.0.255 10.62.80.96 0.0.0.31</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -9853,6 +9871,11 @@
           <t>456 permit tcp 10.62.100.0/24 10.60.110.0/24 range 6633 6788</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>640 permit ip 10.60.88.0 0.0.0.255 host 10.62.86.2 log</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -13663,9 +13686,9 @@
       </c>
     </row>
     <row r="614">
-      <c r="A614" s="1" t="inlineStr">
-        <is>
-          <t># 设备: 20251129-HX04-CS03-N9K-JPIDC.log</t>
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>20251129-HX04-CS03-N9K-JPIDC.log</t>
         </is>
       </c>
     </row>
@@ -13890,314 +13913,6 @@
       <c r="A646" t="inlineStr">
         <is>
           <t>942 permit icmp 10.60.110.0/24 10.62.108.60/30</t>
-        </is>
-      </c>
-    </row>
-    <row r="649">
-      <c r="A649" s="1" t="inlineStr">
-        <is>
-          <t># 设备: 20251129-HX04-OOB-DS01-C9300-JPIDC.log</t>
-        </is>
-      </c>
-    </row>
-    <row r="650">
-      <c r="A650" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN150-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="651">
-      <c r="A651" t="inlineStr">
-        <is>
-          <t>40 permit udp 10.62.150.0 0.0.0.255 eq snmp 10.62.62.8 0.0.0.7 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="652">
-      <c r="A652" t="inlineStr">
-        <is>
-          <t>50 permit tcp 10.62.150.0 0.0.0.255 eq 443 5900 10.62.62.32 0.0.0.1 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="653">
-      <c r="A653" t="inlineStr">
-        <is>
-          <t>60 permit icmp 10.62.150.0 0.0.0.255 10.62.62.8 0.0.0.7 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="654">
-      <c r="A654" t="inlineStr">
-        <is>
-          <t>70 permit tcp host 10.62.150.193 eq 22 host 10.62.108.60 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="655">
-      <c r="A655" t="inlineStr">
-        <is>
-          <t>80 permit tcp host 10.62.150.194 eq 22 host 10.62.108.60 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="657">
-      <c r="A657" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN151-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" t="inlineStr">
-        <is>
-          <t>40 permit udp 10.62.151.0 0.0.0.255 eq snmp 10.62.62.8 0.0.0.7 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" t="inlineStr">
-        <is>
-          <t>50 permit tcp 10.62.151.0 0.0.0.255 eq 443 5900 10.62.62.32 0.0.0.1 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="660">
-      <c r="A660" t="inlineStr">
-        <is>
-          <t>60 permit icmp 10.62.151.0 0.0.0.255 10.62.62.8 0.0.0.7 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN152-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" t="inlineStr">
-        <is>
-          <t>40 permit udp 10.62.152.0 0.0.0.255 eq snmp 10.62.62.8 0.0.0.7 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" t="inlineStr">
-        <is>
-          <t>50 permit tcp 10.62.152.0 0.0.0.255 eq 443 5900 10.62.62.32 0.0.0.1 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" t="inlineStr">
-        <is>
-          <t>60 permit icmp 10.62.152.0 0.0.0.255 10.62.62.8 0.0.0.7 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="667">
-      <c r="A667" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN153-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="668">
-      <c r="A668" t="inlineStr">
-        <is>
-          <t>40 permit udp 10.62.153.0 0.0.0.255 eq snmp 10.62.62.8 0.0.0.7 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" t="inlineStr">
-        <is>
-          <t>50 permit tcp 10.62.153.0 0.0.0.255 eq 443 5900 10.62.62.32 0.0.0.1 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" t="inlineStr">
-        <is>
-          <t>60 permit icmp 10.62.153.0 0.0.0.255 10.62.62.8 0.0.0.7 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN155-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="inlineStr">
-        <is>
-          <t>40 permit udp 10.62.155.0 0.0.0.255 eq snmp 10.62.62.8 0.0.0.7 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="inlineStr">
-        <is>
-          <t>50 permit tcp 10.62.155.240 0.0.0.7 eq 443 host 10.62.62.32 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>60 permit tcp 10.62.155.240 0.0.0.7 host 10.62.200.60 eq 1000 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>70 permit icmp 10.62.155.0 0.0.0.255 10.62.62.8 0.0.0.7 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN86-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="inlineStr">
-        <is>
-          <t>70 permit ip host 10.62.86.2 host 10.62.88.251 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" t="inlineStr">
-        <is>
-          <t>80 permit udp host 10.62.86.2 10.60.88.0 0.0.0.255 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN88-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>120 permit ip 10.62.88.0 0.0.0.255 10.62.86.2 0.0.0.1 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" s="1" t="inlineStr">
-        <is>
-          <t># 设备: 20251129-HX04-OOB-DS02-C9200L-JPIDC.log</t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="inlineStr">
-        <is>
-          <t>ip access-list extended F5_Mgmt_ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" t="inlineStr">
-        <is>
-          <t>760 permit tcp 10.62.155.240 0.0.0.7 eq 443 host 10.62.62.32</t>
-        </is>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="inlineStr">
-        <is>
-          <t>ip access-list extended Sec_ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="inlineStr">
-        <is>
-          <t>280 permit tcp 10.60.15.192 0.0.0.63 eq 22 host 10.62.15.221 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="inlineStr">
-        <is>
-          <t>300 permit udp 10.60.15.192 0.0.0.63 eq snmp host 10.62.15.198 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="inlineStr">
-        <is>
-          <t>720 permit tcp 10.60.150.0 0.0.0.255 eq www 443 10.62.62.32 0.0.0.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="inlineStr">
-        <is>
-          <t>730 permit tcp 10.60.150.0 0.0.0.255 eq 10050 10.60.62.8 0.0.0.7 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="inlineStr">
-        <is>
-          <t>740 permit tcp 10.60.150.0 0.0.0.255 10.60.62.8 0.0.0.7 eq 10051 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="inlineStr">
-        <is>
-          <t>750 permit udp 10.60.150.0 0.0.0.255 eq snmp 10.62.62.8 0.0.0.7 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="inlineStr">
-        <is>
-          <t>760 permit tcp 10.62.150.0 0.0.0.255 eq 443 5900 host 10.62.62.32</t>
-        </is>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN88-Mgmt</t>
-        </is>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" t="inlineStr">
-        <is>
-          <t>580 permit udp 10.60.88.192 0.0.0.63 host 10.62.88.221 eq syslog log</t>
-        </is>
-      </c>
-    </row>
-    <row r="701">
-      <c r="A701" t="inlineStr">
-        <is>
-          <t>600 permit ip 10.60.88.0 0.0.0.255 10.62.80.96 0.0.0.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="702">
-      <c r="A702" t="inlineStr">
-        <is>
-          <t>640 permit ip 10.60.88.0 0.0.0.255 host 10.62.86.2 log</t>
         </is>
       </c>
     </row>
@@ -14212,7 +13927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A616"/>
+  <dimension ref="A1:B591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14221,12 +13936,18 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="120" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t># 设备: 20251129-HX05-CS01-N9K-JPIDC.log</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>20251129-HX05-CS01-N9K-JPIDC.log</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>20251129-HX05-OOB-DS01-C9300-JPIDC.log</t>
         </is>
       </c>
     </row>
@@ -14236,6 +13957,11 @@
           <t>ip access-list VLAN100-ACL</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN150-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -14243,6 +13969,11 @@
           <t>2 permit tcp 10.65.100.196/30 eq 6443 10.65.170.8/32</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>40 permit udp 10.65.150.0 0.0.0.255 eq snmp 10.65.62.8 0.0.0.7 log</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -14250,6 +13981,11 @@
           <t>68 permit tcp 10.65.100.0/24 10.65.62.11/32 eq 16000</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>50 permit tcp 10.65.150.0 0.0.0.255 eq 443 5900 10.65.62.32 0.0.0.1 log</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -14257,6 +13993,11 @@
           <t>162 permit ip 10.65.100.192/25 10.65.170.0/24</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>60 permit udp 10.65.15.0 0.0.0.255 eq snmp 10.65.62.8 0.0.0.7 log</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -14264,6 +14005,11 @@
           <t>258 permit tcp 10.65.100.0/24 10.65.120.0/24 eq 9201</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>70 permit tcp 10.65.15.0 0.0.0.255 eq 443 5900 10.65.62.32 0.0.0.1 log</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -14278,6 +14024,11 @@
           <t>264 permit tcp 10.65.100.0/24 10.65.110.0/24 range 3366 9200</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN151-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -14285,6 +14036,11 @@
           <t>266 permit tcp 10.65.100.0/24 10.65.120.0/24 range 3366 9200</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>40 permit udp 10.65.151.0 0.0.0.255 eq snmp 10.65.62.8 0.0.0.7 log</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -14292,6 +14048,11 @@
           <t>268 permit tcp 10.65.100.0/24 10.65.16.53/32 eq domain</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>50 permit tcp 10.65.151.0 0.0.0.255 eq 443 5900 10.65.62.32 0.0.0.1 log</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -14306,6 +14067,11 @@
           <t>272 permit tcp 10.65.100.0/24 10.65.106.32/30 eq 8080</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN152-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -14313,6 +14079,11 @@
           <t>284 permit tcp 10.65.100.0/24 10.65.62.60/32 eq 1000</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>40 permit udp 10.65.152.0 0.0.0.255 eq snmp 10.65.62.8 0.0.0.7 log</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -14320,6 +14091,11 @@
           <t>286 permit tcp 10.65.100.0/24 10.65.130.0/24 eq 6633</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>50 permit tcp 10.65.152.0 0.0.0.255 eq 443 5900 10.65.62.32 0.0.0.1 log</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -14334,6 +14110,11 @@
           <t>290 permit tcp 10.65.100.0/24 10.65.130.0/24 eq 3399</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN153-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14341,6 +14122,11 @@
           <t>292 permit tcp 10.65.100.0/24 10.65.130.0/24 eq 4000</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>40 permit udp 10.65.153.0 0.0.0.255 eq snmp 10.65.62.8 0.0.0.7 log</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14348,6 +14134,11 @@
           <t>294 permit tcp 10.65.100.0/24 10.65.130.0/24 eq 9200</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>50 permit tcp 10.65.153.0 0.0.0.255 eq 443 5900 10.65.62.32 0.0.0.1 log</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14362,6 +14153,11 @@
           <t>298 permit tcp 10.65.100.0/24 10.65.130.0/24 eq 9092</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN155-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14369,6 +14165,11 @@
           <t>300 permit tcp 10.65.100.0/24 range 8081 20020 10.65.106.0/24</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>40 permit udp 10.65.155.0 0.0.0.255 eq snmp 10.65.62.8 0.0.0.7 log</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14376,6 +14177,11 @@
           <t>302 permit tcp 10.65.100.128/28 10.65.16.30/32 range 4000 4001</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>50 permit tcp 10.65.155.0 0.0.0.255 eq 22 host 10.65.108.60 log</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14383,6 +14189,11 @@
           <t>310 permit tcp 10.65.100.0/24 eq 50051 10.65.106.0/24</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>60 permit tcp 10.65.155.0 0.0.0.255 eq 443 10.65.62.32 0.0.0.1 log</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18266,139 +18077,6 @@
       <c r="A591" t="inlineStr">
         <is>
           <t>264 permit tcp 10.65.7.0/24 10.65.62.60/32 eq 1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" s="1" t="inlineStr">
-        <is>
-          <t># 设备: 20251129-HX05-OOB-DS01-C9300-JPIDC.log</t>
-        </is>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN150-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="inlineStr">
-        <is>
-          <t>40 permit udp 10.65.150.0 0.0.0.255 eq snmp 10.65.62.8 0.0.0.7 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="inlineStr">
-        <is>
-          <t>50 permit tcp 10.65.150.0 0.0.0.255 eq 443 5900 10.65.62.32 0.0.0.1 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="inlineStr">
-        <is>
-          <t>60 permit udp 10.65.15.0 0.0.0.255 eq snmp 10.65.62.8 0.0.0.7 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="inlineStr">
-        <is>
-          <t>70 permit tcp 10.65.15.0 0.0.0.255 eq 443 5900 10.65.62.32 0.0.0.1 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN151-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" t="inlineStr">
-        <is>
-          <t>40 permit udp 10.65.151.0 0.0.0.255 eq snmp 10.65.62.8 0.0.0.7 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" t="inlineStr">
-        <is>
-          <t>50 permit tcp 10.65.151.0 0.0.0.255 eq 443 5900 10.65.62.32 0.0.0.1 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN152-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="inlineStr">
-        <is>
-          <t>40 permit udp 10.65.152.0 0.0.0.255 eq snmp 10.65.62.8 0.0.0.7 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" t="inlineStr">
-        <is>
-          <t>50 permit tcp 10.65.152.0 0.0.0.255 eq 443 5900 10.65.62.32 0.0.0.1 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN153-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" t="inlineStr">
-        <is>
-          <t>40 permit udp 10.65.153.0 0.0.0.255 eq snmp 10.65.62.8 0.0.0.7 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" t="inlineStr">
-        <is>
-          <t>50 permit tcp 10.65.153.0 0.0.0.255 eq 443 5900 10.65.62.32 0.0.0.1 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN155-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" t="inlineStr">
-        <is>
-          <t>40 permit udp 10.65.155.0 0.0.0.255 eq snmp 10.65.62.8 0.0.0.7 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" t="inlineStr">
-        <is>
-          <t>50 permit tcp 10.65.155.0 0.0.0.255 eq 22 host 10.65.108.60 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" t="inlineStr">
-        <is>
-          <t>60 permit tcp 10.65.155.0 0.0.0.255 eq 443 10.65.62.32 0.0.0.1 log</t>
         </is>
       </c>
     </row>
@@ -18413,7 +18091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1502"/>
+  <dimension ref="A1:B1455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18422,12 +18100,18 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="120" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t># 设备: 20251129-HX06-CS01-N9K-JPIDC.log</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>20251129-HX06-CS01-N9K-JPIDC.log</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>20251129-HX06-OOB-DS01-C9300-JPIDC.log</t>
         </is>
       </c>
     </row>
@@ -18437,6 +18121,11 @@
           <t>ip access-list VLAN100-ACL</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN150-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -18444,6 +18133,11 @@
           <t>10 permit tcp 10.66.100.200/27 10.66.106.21/32 eq 10000</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>40 permit udp 10.66.150.0 0.0.0.255 eq snmp 10.66.62.8 0.0.0.7 log</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -18451,6 +18145,11 @@
           <t>48 permit tcp 10.66.100.0/24 eq 22 10.66.108.60/32</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>50 permit tcp 10.66.150.0 0.0.0.255 eq 443 5900 10.66.62.32 0.0.0.1 log</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -18465,6 +18164,11 @@
           <t>66 permit tcp 10.66.100.0/24 eq 55888 10.66.108.65/32</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN151-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -18472,6 +18176,11 @@
           <t>124 permit tcp 10.66.100.0/24 10.66.62.11/32 eq 16000</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>40 permit udp 10.66.151.0 0.0.0.255 eq snmp 10.66.62.8 0.0.0.7 log</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -18479,6 +18188,11 @@
           <t>162 permit ip 10.66.100.0/24 10.66.108.63/32</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>50 permit tcp 10.66.151.0 0.0.0.255 eq 443 5900 10.66.62.32 0.0.0.1 log</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -18493,6 +18207,11 @@
           <t>166 permit ip 10.66.100.0/24 10.66.16.0/24</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN152-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -18500,6 +18219,11 @@
           <t>168 permit tcp 10.66.100.215/32 eq www 10.66.62.88/31</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>40 permit udp 10.66.152.0 0.0.0.255 eq snmp 10.66.62.8 0.0.0.7 log</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -18507,6 +18231,11 @@
           <t>170 permit tcp 10.66.100.215/32 eq 443 10.66.62.88/31</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>50 permit tcp 10.66.152.0 0.0.0.255 eq 443 5900 10.66.62.32 0.0.0.1 log</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -18521,6 +18250,11 @@
           <t>174 permit tcp 10.66.100.215/32 eq 443 10.66.62.88/32</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN153-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -18528,6 +18262,11 @@
           <t>176 permit tcp 10.66.100.215/32 eq www 10.66.62.89/32</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>40 permit udp 10.66.153.0 0.0.0.255 eq snmp 10.66.62.8 0.0.0.7 log</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -18535,6 +18274,11 @@
           <t>178 permit tcp 10.66.100.215/32 eq 443 10.66.62.89/32</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>50 permit tcp 10.66.153.0 0.0.0.255 eq 443 5900 10.66.62.32 0.0.0.1 log</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -18549,6 +18293,11 @@
           <t>182 permit tcp 10.66.100.208/31 10.66.62.96/28 eq 9092</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN155-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -18556,6 +18305,11 @@
           <t>184 permit tcp 10.66.100.220/30 10.66.62.96/28 eq 9092</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>40 permit udp 10.66.155.0 0.0.0.255 eq snmp 10.66.62.8 0.0.0.7 log</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -18563,6 +18317,11 @@
           <t>186 permit tcp 10.66.100.224/32 10.66.62.96/28 eq 9092</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>50 permit tcp 10.66.155.0 0.0.0.255 eq 443 10.66.62.32 0.0.0.1 log</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18570,6 +18329,11 @@
           <t>188 permit tcp 10.66.100.0/24 10.66.106.49/30 eq 5432</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>60 permit tcp 10.66.155.0 0.0.0.255 eq 22 host 10.66.108.60 log</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -18584,6 +18348,11 @@
           <t>200 permit tcp 10.66.100.192/27 10.66.16.41/32 eq 8080</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN156-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18591,6 +18360,11 @@
           <t>202 permit tcp 10.66.100.224/32 10.66.16.41/32 eq 8080</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>40 permit udp 10.66.156.0 0.0.0.255 eq snmp 10.66.62.8 0.0.0.7 log</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18598,6 +18372,11 @@
           <t>228 permit tcp 10.66.100.192/27 10.66.120.0/24 eq 9201</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>50 permit tcp 10.66.156.0 0.0.0.255 eq 443 5900 10.66.62.32 0.0.0.1 log</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18605,6 +18384,11 @@
           <t>230 permit tcp 10.66.100.192/27 10.66.110.0/24 range 6633 6788</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>60 permit tcp 10.66.156.0 0.0.0.255 eq 443 5900 host 10.66.221.33 log</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18619,6 +18403,11 @@
           <t>234 permit tcp 10.66.100.192/27 10.66.110.0/24 range 9091 9200</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN157-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18626,6 +18415,11 @@
           <t>236 permit tcp 10.66.100.224/32 10.66.110.0/24 range 9091 9200</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>40 permit udp 10.66.157.0 0.0.0.255 eq snmp 10.66.62.8 0.0.0.7 log</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -18633,6 +18427,11 @@
           <t>238 permit tcp 10.66.100.192/27 10.66.110.0/24 range 7001 7004</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>50 permit tcp 10.66.157.0 0.0.0.255 eq 443 5900 10.66.62.32 0.0.0.1 log</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -18640,6 +18439,11 @@
           <t>240 permit tcp 10.66.100.224/32 10.66.110.0/24 range 7001 7004</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>60 permit tcp 10.66.157.0 0.0.0.255 eq 443 5900 host 10.66.221.33 log</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -18654,6 +18458,11 @@
           <t>244 permit tcp 10.66.100.224/32 10.66.110.0/24 range 3366 3399</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN158-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -18661,6 +18470,11 @@
           <t>246 permit tcp 10.66.100.192/27 10.66.110.0/24 eq 4000</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>40 permit udp 10.66.158.0 0.0.0.255 eq snmp 10.66.62.8 0.0.0.7 log</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -18668,6 +18482,11 @@
           <t>248 permit tcp 10.66.100.224/32 10.66.110.0/24 eq 4000</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>50 permit tcp 10.66.158.0 0.0.0.255 eq 443 5900 10.66.62.32 0.0.0.1 log</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -18675,6 +18494,11 @@
           <t>250 permit tcp 10.66.100.192/27 10.66.120.0/24 range 6633 6788</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>60 permit tcp 10.66.158.0 0.0.0.255 eq 443 5900 host 10.66.221.33 log</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -18689,6 +18513,11 @@
           <t>254 permit tcp 10.66.100.192/27 10.66.120.0/24 range 9091 9200</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN159-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -18696,6 +18525,11 @@
           <t>256 permit tcp 10.66.100.224/32 10.66.120.0/24 range 9091 9200</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>40 permit udp 10.66.159.0 0.0.0.255 eq snmp 10.66.62.8 0.0.0.7 log</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -18703,6 +18537,11 @@
           <t>258 permit tcp 10.66.100.192/27 10.66.120.0/24 range 7001 7004</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>50 permit tcp 10.66.159.0 0.0.0.255 eq 443 5900 10.66.62.32 0.0.0.1 log</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -18710,6 +18549,11 @@
           <t>260 permit tcp 10.66.100.224/32 10.66.120.0/24 range 7001 7004</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>60 permit tcp 10.66.159.0 0.0.0.255 eq 443 5900 host 10.66.221.33 log</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -18724,6 +18568,11 @@
           <t>264 permit tcp 10.66.100.224/32 10.66.120.0/24 range 3366 3399</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ip access-list extended VLAN88-ACL</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -18731,6 +18580,11 @@
           <t>266 permit tcp 10.66.100.192/27 10.66.120.0/24 eq 4000</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>120 permit ip host 10.66.88.211 host 10.66.62.33 log</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -18738,6 +18592,11 @@
           <t>268 permit tcp 10.66.100.224/32 10.66.120.0/24 eq 4000</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>130 permit ip host 10.66.88.212 host 10.66.62.33 log</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -25026,9 +24885,9 @@
       </c>
     </row>
     <row r="963">
-      <c r="A963" s="1" t="inlineStr">
-        <is>
-          <t># 设备: 20251129-HX06-CS03-N9K-JPIDC.log</t>
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>20251129-HX06-CS03-N9K-JPIDC.log</t>
         </is>
       </c>
     </row>
@@ -28417,258 +28276,6 @@
       <c r="A1455" t="inlineStr">
         <is>
           <t>168 permit tcp 10.66.243.0/29 eq 4000 10.66.242.141/32</t>
-        </is>
-      </c>
-    </row>
-    <row r="1458">
-      <c r="A1458" s="1" t="inlineStr">
-        <is>
-          <t># 设备: 20251129-HX06-OOB-DS01-C9300-JPIDC.log</t>
-        </is>
-      </c>
-    </row>
-    <row r="1459">
-      <c r="A1459" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN150-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="1460">
-      <c r="A1460" t="inlineStr">
-        <is>
-          <t>40 permit udp 10.66.150.0 0.0.0.255 eq snmp 10.66.62.8 0.0.0.7 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="1461">
-      <c r="A1461" t="inlineStr">
-        <is>
-          <t>50 permit tcp 10.66.150.0 0.0.0.255 eq 443 5900 10.66.62.32 0.0.0.1 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="1463">
-      <c r="A1463" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN151-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="1464">
-      <c r="A1464" t="inlineStr">
-        <is>
-          <t>40 permit udp 10.66.151.0 0.0.0.255 eq snmp 10.66.62.8 0.0.0.7 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="1465">
-      <c r="A1465" t="inlineStr">
-        <is>
-          <t>50 permit tcp 10.66.151.0 0.0.0.255 eq 443 5900 10.66.62.32 0.0.0.1 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="1467">
-      <c r="A1467" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN152-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="1468">
-      <c r="A1468" t="inlineStr">
-        <is>
-          <t>40 permit udp 10.66.152.0 0.0.0.255 eq snmp 10.66.62.8 0.0.0.7 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="1469">
-      <c r="A1469" t="inlineStr">
-        <is>
-          <t>50 permit tcp 10.66.152.0 0.0.0.255 eq 443 5900 10.66.62.32 0.0.0.1 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="1471">
-      <c r="A1471" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN153-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="1472">
-      <c r="A1472" t="inlineStr">
-        <is>
-          <t>40 permit udp 10.66.153.0 0.0.0.255 eq snmp 10.66.62.8 0.0.0.7 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="1473">
-      <c r="A1473" t="inlineStr">
-        <is>
-          <t>50 permit tcp 10.66.153.0 0.0.0.255 eq 443 5900 10.66.62.32 0.0.0.1 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="1475">
-      <c r="A1475" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN155-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="1476">
-      <c r="A1476" t="inlineStr">
-        <is>
-          <t>40 permit udp 10.66.155.0 0.0.0.255 eq snmp 10.66.62.8 0.0.0.7 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="1477">
-      <c r="A1477" t="inlineStr">
-        <is>
-          <t>50 permit tcp 10.66.155.0 0.0.0.255 eq 443 10.66.62.32 0.0.0.1 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="1478">
-      <c r="A1478" t="inlineStr">
-        <is>
-          <t>60 permit tcp 10.66.155.0 0.0.0.255 eq 22 host 10.66.108.60 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="1480">
-      <c r="A1480" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN156-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="1481">
-      <c r="A1481" t="inlineStr">
-        <is>
-          <t>40 permit udp 10.66.156.0 0.0.0.255 eq snmp 10.66.62.8 0.0.0.7 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="1482">
-      <c r="A1482" t="inlineStr">
-        <is>
-          <t>50 permit tcp 10.66.156.0 0.0.0.255 eq 443 5900 10.66.62.32 0.0.0.1 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="1483">
-      <c r="A1483" t="inlineStr">
-        <is>
-          <t>60 permit tcp 10.66.156.0 0.0.0.255 eq 443 5900 host 10.66.221.33 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="1485">
-      <c r="A1485" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN157-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="1486">
-      <c r="A1486" t="inlineStr">
-        <is>
-          <t>40 permit udp 10.66.157.0 0.0.0.255 eq snmp 10.66.62.8 0.0.0.7 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="1487">
-      <c r="A1487" t="inlineStr">
-        <is>
-          <t>50 permit tcp 10.66.157.0 0.0.0.255 eq 443 5900 10.66.62.32 0.0.0.1 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="1488">
-      <c r="A1488" t="inlineStr">
-        <is>
-          <t>60 permit tcp 10.66.157.0 0.0.0.255 eq 443 5900 host 10.66.221.33 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="1490">
-      <c r="A1490" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN158-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="1491">
-      <c r="A1491" t="inlineStr">
-        <is>
-          <t>40 permit udp 10.66.158.0 0.0.0.255 eq snmp 10.66.62.8 0.0.0.7 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="1492">
-      <c r="A1492" t="inlineStr">
-        <is>
-          <t>50 permit tcp 10.66.158.0 0.0.0.255 eq 443 5900 10.66.62.32 0.0.0.1 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="1493">
-      <c r="A1493" t="inlineStr">
-        <is>
-          <t>60 permit tcp 10.66.158.0 0.0.0.255 eq 443 5900 host 10.66.221.33 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="1495">
-      <c r="A1495" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN159-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="1496">
-      <c r="A1496" t="inlineStr">
-        <is>
-          <t>40 permit udp 10.66.159.0 0.0.0.255 eq snmp 10.66.62.8 0.0.0.7 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="1497">
-      <c r="A1497" t="inlineStr">
-        <is>
-          <t>50 permit tcp 10.66.159.0 0.0.0.255 eq 443 5900 10.66.62.32 0.0.0.1 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="1498">
-      <c r="A1498" t="inlineStr">
-        <is>
-          <t>60 permit tcp 10.66.159.0 0.0.0.255 eq 443 5900 host 10.66.221.33 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="1500">
-      <c r="A1500" t="inlineStr">
-        <is>
-          <t>ip access-list extended VLAN88-ACL</t>
-        </is>
-      </c>
-    </row>
-    <row r="1501">
-      <c r="A1501" t="inlineStr">
-        <is>
-          <t>120 permit ip host 10.66.88.211 host 10.66.62.33 log</t>
-        </is>
-      </c>
-    </row>
-    <row r="1502">
-      <c r="A1502" t="inlineStr">
-        <is>
-          <t>130 permit ip host 10.66.88.212 host 10.66.62.33 log</t>
         </is>
       </c>
     </row>
@@ -28692,12 +28299,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="120" customWidth="1" min="1" max="1"/>
+    <col width="120" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t># 设备: 20251129-HX11-CS01-N9K-JPIDC.log</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>20251129-HX11-CS01-N9K-JPIDC.log</t>
         </is>
       </c>
     </row>

--- a/v12/LOG/ACLCrossCheckTask/20251129-同平台N9K ACL检查.xlsx
+++ b/v12/LOG/ACLCrossCheckTask/20251129-同平台N9K ACL检查.xlsx
@@ -24,7 +24,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -35,6 +35,11 @@
     <font>
       <name val="Calibri"/>
       <color rgb="FF00FF00"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="00FFA500"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -58,9 +63,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -511,7 +517,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>170 permit tcp 10.10.100.31/32 10.10.26.41/32 eq 8080</t>
         </is>
@@ -523,7 +529,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>172 permit tcp 10.10.100.32/30 10.10.26.41/32 eq 8080</t>
         </is>
@@ -614,14 +620,14 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>156 permit ip 10.10.106.51/28 10.10.26.0/30</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>158 permit ip 10.10.106.0/27 10.10.26.0/30</t>
         </is>
@@ -633,7 +639,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>160 permit tcp 10.10.106.40/27 10.10.26.70/31 eq 30080</t>
         </is>
@@ -645,7 +651,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>162 permit tcp 10.10.106.40/27 10.10.26.70/31 eq 30443</t>
         </is>
@@ -657,7 +663,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>164 permit tcp 10.10.106.51/28 eq www 10.10.26.1/30</t>
         </is>
@@ -669,14 +675,14 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>166 permit tcp 10.10.106.12/30 eq www 10.10.26.1/30</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>168 permit tcp 10.10.106.1/29 eq 13080 10.10.26.1/30</t>
         </is>
@@ -688,7 +694,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>170 permit tcp 10.10.106.1/29 eq 33080 10.10.26.1/30</t>
         </is>
@@ -700,7 +706,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>172 permit ip 10.10.106.14/31 10.10.26.1/30</t>
         </is>
@@ -731,7 +737,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="2" t="inlineStr">
         <is>
           <t>184 permit ip 10.10.106.0/27 10.10.26.0/30</t>
         </is>
@@ -743,7 +749,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>186 permit ip 10.10.106.51/28 10.10.26.0/30</t>
         </is>
@@ -755,7 +761,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>188 permit tcp 10.10.106.16/30 eq www 10.10.26.0/30</t>
         </is>
@@ -767,7 +773,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>190 permit tcp 10.10.106.16/30 eq www 10.10.26.60/32</t>
         </is>
@@ -779,14 +785,14 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>204 permit icmp 10.10.106.32/30 10.10.26.1/30</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>206 permit tcp 10.10.106.32/30 eq 8080 10.10.26.1/30</t>
         </is>
@@ -925,7 +931,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="2" t="inlineStr">
         <is>
           <t>238 permit tcp 10.10.106.12/31 10.10.26.70/31 eq 30080</t>
         </is>
@@ -1016,7 +1022,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="2" t="inlineStr">
         <is>
           <t>286 permit tcp 10.10.106.1/29 10.10.26.180/32 eq 10000</t>
         </is>
@@ -1071,7 +1077,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="2" t="inlineStr">
         <is>
           <t>44 permit tcp 10.10.108.60/32 10.10.5.0/24 eq 443</t>
         </is>
@@ -1127,7 +1133,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="2" t="inlineStr">
         <is>
           <t>162 permit tcp 10.10.108.63/32 10.10.26.70/31 eq 6443</t>
         </is>
@@ -2226,14 +2232,14 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr">
+      <c r="A225" s="2" t="inlineStr">
         <is>
           <t>226 permit tcp 10.10.120.117/32 10.10.26.59/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="inlineStr">
+      <c r="A226" s="2" t="inlineStr">
         <is>
           <t>228 permit tcp 10.10.120.118/32 10.10.26.59/32 eq 13080</t>
         </is>
@@ -2464,21 +2470,21 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="inlineStr">
+      <c r="A259" s="2" t="inlineStr">
         <is>
           <t>306 permit tcp 10.10.120.111/32 10.10.26.59/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="inlineStr">
+      <c r="A260" s="2" t="inlineStr">
         <is>
           <t>308 permit tcp 10.10.120.112/32 10.10.26.59/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="inlineStr">
+      <c r="A261" s="2" t="inlineStr">
         <is>
           <t>310 permit tcp 10.10.120.21/32 10.10.26.59/32 eq 13080</t>
         </is>
@@ -2884,14 +2890,14 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="inlineStr">
+      <c r="A320" s="2" t="inlineStr">
         <is>
           <t>18 permit ip 10.10.128.0/24 10.10.26.0/24</t>
         </is>
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="inlineStr">
+      <c r="A321" s="2" t="inlineStr">
         <is>
           <t>20 permit ip 10.10.128.11/29 10.10.26.1/30</t>
         </is>
@@ -2905,84 +2911,84 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="inlineStr">
+      <c r="A323" s="2" t="inlineStr">
         <is>
           <t>164 permit tcp 10.10.128.11/29 eq 6443 10.10.26.70/32</t>
         </is>
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="inlineStr">
+      <c r="A324" s="2" t="inlineStr">
         <is>
           <t>166 permit tcp 10.10.128.6/31 eq 30080 10.10.26.1/30</t>
         </is>
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="inlineStr">
+      <c r="A325" s="2" t="inlineStr">
         <is>
           <t>168 permit tcp 10.10.128.6/31 eq 30080 10.10.26.70/32</t>
         </is>
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="inlineStr">
+      <c r="A326" s="2" t="inlineStr">
         <is>
           <t>170 permit tcp 10.10.128.8/30 eq 30080 10.10.26.1/30</t>
         </is>
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="inlineStr">
+      <c r="A327" s="2" t="inlineStr">
         <is>
           <t>172 permit tcp 10.10.128.8/30 eq 30080 10.10.26.70/32</t>
         </is>
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="inlineStr">
+      <c r="A328" s="2" t="inlineStr">
         <is>
           <t>174 permit tcp 10.10.128.6/31 eq 30443 10.10.26.1/30</t>
         </is>
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="inlineStr">
+      <c r="A329" s="2" t="inlineStr">
         <is>
           <t>176 permit tcp 10.10.128.6/31 eq 30443 10.10.26.70/32</t>
         </is>
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="inlineStr">
+      <c r="A330" s="2" t="inlineStr">
         <is>
           <t>178 permit tcp 10.10.128.8/30 eq 30443 10.10.26.1/30</t>
         </is>
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="inlineStr">
+      <c r="A331" s="2" t="inlineStr">
         <is>
           <t>180 permit tcp 10.10.128.8/30 eq 30443 10.10.26.70/32</t>
         </is>
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="inlineStr">
+      <c r="A332" s="2" t="inlineStr">
         <is>
           <t>182 permit tcp 10.10.128.61/30 eq 6443 10.10.26.1/30</t>
         </is>
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="inlineStr">
+      <c r="A333" s="2" t="inlineStr">
         <is>
           <t>184 permit tcp 10.10.128.61/30 eq 6443 10.10.26.71/32</t>
         </is>
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="inlineStr">
+      <c r="A334" s="2" t="inlineStr">
         <is>
           <t>186 permit ip 10.10.128.56/29 10.10.26.1/30</t>
         </is>
@@ -3031,7 +3037,7 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="inlineStr">
+      <c r="A341" s="2" t="inlineStr">
         <is>
           <t>210 permit ip 10.10.128.0/24 10.10.26.0/24</t>
         </is>
@@ -3451,42 +3457,42 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" t="inlineStr">
+      <c r="A401" s="2" t="inlineStr">
         <is>
           <t>364 permit tcp 10.10.128.14/31 10.10.14.102/31 eq 9092</t>
         </is>
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="inlineStr">
+      <c r="A402" s="2" t="inlineStr">
         <is>
           <t>366 permit tcp 10.10.128.16/28 10.10.14.102/31 eq 9092</t>
         </is>
       </c>
     </row>
     <row r="403">
-      <c r="A403" t="inlineStr">
+      <c r="A403" s="2" t="inlineStr">
         <is>
           <t>368 permit tcp 10.10.128.14/31 10.10.14.104/32 eq 9092</t>
         </is>
       </c>
     </row>
     <row r="404">
-      <c r="A404" t="inlineStr">
+      <c r="A404" s="2" t="inlineStr">
         <is>
           <t>370 permit tcp 10.10.128.16/28 10.10.14.104/32 eq 9092</t>
         </is>
       </c>
     </row>
     <row r="405">
-      <c r="A405" t="inlineStr">
+      <c r="A405" s="2" t="inlineStr">
         <is>
           <t>372 permit tcp 10.10.128.64/28 10.10.14.104/32 eq 9092</t>
         </is>
       </c>
     </row>
     <row r="406">
-      <c r="A406" t="inlineStr">
+      <c r="A406" s="2" t="inlineStr">
         <is>
           <t>374 permit tcp 10.10.128.64/28 10.10.14.102/31 eq 9092</t>
         </is>
@@ -3640,7 +3646,7 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" t="inlineStr">
+      <c r="A430" s="2" t="inlineStr">
         <is>
           <t>60 permit tcp 10.10.170.10/31 eq www 10.10.26.1/30</t>
         </is>
@@ -3773,14 +3779,14 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" t="inlineStr">
+      <c r="A449" s="2" t="inlineStr">
         <is>
           <t>202 permit tcp 10.10.170.0/29 10.10.26.59/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="450">
-      <c r="A450" t="inlineStr">
+      <c r="A450" s="2" t="inlineStr">
         <is>
           <t>204 permit tcp 10.10.170.8/32 10.10.26.59/32 eq 13080</t>
         </is>
@@ -3815,14 +3821,14 @@
       </c>
     </row>
     <row r="455">
-      <c r="A455" t="inlineStr">
+      <c r="A455" s="2" t="inlineStr">
         <is>
           <t>220 permit tcp 10.10.170.1/30 10.10.26.180/32 eq 10000</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="inlineStr">
+      <c r="A456" s="2" t="inlineStr">
         <is>
           <t>222 permit tcp 10.10.170.1/30 10.10.26.180/32 eq www</t>
         </is>
@@ -3843,7 +3849,7 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="inlineStr">
+      <c r="A459" s="2" t="inlineStr">
         <is>
           <t>920 permit icmp 10.10.170.10/31 10.10.26.1/30</t>
         </is>
@@ -3983,14 +3989,14 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" t="inlineStr">
+      <c r="A481" s="2" t="inlineStr">
         <is>
           <t>158 permit ip 10.10.180.0/24 10.10.26.0/24</t>
         </is>
       </c>
     </row>
     <row r="482">
-      <c r="A482" t="inlineStr">
+      <c r="A482" s="2" t="inlineStr">
         <is>
           <t>168 permit tcp 10.10.180.36/30 eq 5895 10.10.26.1/30</t>
         </is>
@@ -4011,14 +4017,14 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" t="inlineStr">
+      <c r="A485" s="2" t="inlineStr">
         <is>
           <t>344 permit tcp 10.10.180.36/30 eq 5893 10.10.26.0/24</t>
         </is>
       </c>
     </row>
     <row r="486">
-      <c r="A486" t="inlineStr">
+      <c r="A486" s="2" t="inlineStr">
         <is>
           <t>346 permit tcp 10.10.180.36/32 eq 5895 10.10.26.0/24</t>
         </is>
@@ -4053,7 +4059,7 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" t="inlineStr">
+      <c r="A492" s="2" t="inlineStr">
         <is>
           <t>160 permit ip 10.10.181.24/30 10.10.26.0/24</t>
         </is>
@@ -4067,7 +4073,7 @@
       </c>
     </row>
     <row r="494">
-      <c r="A494" t="inlineStr">
+      <c r="A494" s="2" t="inlineStr">
         <is>
           <t>310 permit udp 10.10.181.21/32 eq domain 10.10.17.0/24</t>
         </is>
@@ -4186,21 +4192,21 @@
       </c>
     </row>
     <row r="513">
-      <c r="A513" t="inlineStr">
+      <c r="A513" s="2" t="inlineStr">
         <is>
           <t>200 permit ip 10.10.217.86/32 10.10.26.0/24</t>
         </is>
       </c>
     </row>
     <row r="514">
-      <c r="A514" t="inlineStr">
+      <c r="A514" s="2" t="inlineStr">
         <is>
           <t>202 permit ip 10.10.217.87/32 10.10.26.0/24</t>
         </is>
       </c>
     </row>
     <row r="515">
-      <c r="A515" t="inlineStr">
+      <c r="A515" s="2" t="inlineStr">
         <is>
           <t>204 permit ip 10.10.217.88/32 10.10.26.0/24</t>
         </is>
@@ -4214,7 +4220,7 @@
       </c>
     </row>
     <row r="517">
-      <c r="A517" t="inlineStr">
+      <c r="A517" s="2" t="inlineStr">
         <is>
           <t>412 permit udp 10.10.217.86/30 10.10.11.121/29 eq domain</t>
         </is>
@@ -4235,7 +4241,7 @@
       </c>
     </row>
     <row r="521">
-      <c r="A521" t="inlineStr">
+      <c r="A521" s="2" t="inlineStr">
         <is>
           <t>10 permit ip 10.10.62.88/31 10.10.26.1/30</t>
         </is>
@@ -4305,7 +4311,7 @@
       </c>
     </row>
     <row r="531">
-      <c r="A531" t="inlineStr">
+      <c r="A531" s="2" t="inlineStr">
         <is>
           <t>162 permit ip 10.10.62.24/30 10.10.26.0/30</t>
         </is>
@@ -4354,21 +4360,21 @@
       </c>
     </row>
     <row r="538">
-      <c r="A538" t="inlineStr">
+      <c r="A538" s="2" t="inlineStr">
         <is>
           <t>176 permit tcp 10.10.62.32/31 10.10.5.0/24 eq www</t>
         </is>
       </c>
     </row>
     <row r="539">
-      <c r="A539" t="inlineStr">
+      <c r="A539" s="2" t="inlineStr">
         <is>
           <t>178 permit tcp 10.10.62.32/31 10.10.5.0/24 eq 443</t>
         </is>
       </c>
     </row>
     <row r="540">
-      <c r="A540" t="inlineStr">
+      <c r="A540" s="2" t="inlineStr">
         <is>
           <t>180 permit tcp 10.10.62.32/31 10.10.5.0/24 eq 5480</t>
         </is>
@@ -4438,14 +4444,14 @@
       </c>
     </row>
     <row r="550">
-      <c r="A550" t="inlineStr">
+      <c r="A550" s="2" t="inlineStr">
         <is>
           <t>202 permit tcp 10.10.62.101/32 10.10.26.59/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="551">
-      <c r="A551" t="inlineStr">
+      <c r="A551" s="2" t="inlineStr">
         <is>
           <t>204 permit tcp 10.10.62.101/32 10.10.26.59/32 eq 33080</t>
         </is>
@@ -4466,7 +4472,7 @@
       </c>
     </row>
     <row r="554">
-      <c r="A554" t="inlineStr">
+      <c r="A554" s="2" t="inlineStr">
         <is>
           <t>402 permit tcp 10.10.62.88/31 10.10.26.70/31 eq 30080</t>
         </is>
@@ -4564,7 +4570,7 @@
       </c>
     </row>
     <row r="568">
-      <c r="A568" t="inlineStr">
+      <c r="A568" s="2" t="inlineStr">
         <is>
           <t>736 permit tcp 10.10.62.32/31 10.10.19.0/24 eq 443</t>
         </is>
@@ -4585,21 +4591,21 @@
       </c>
     </row>
     <row r="571">
-      <c r="A571" t="inlineStr">
+      <c r="A571" s="2" t="inlineStr">
         <is>
           <t>786 permit tcp 10.10.62.10/32 10.10.26.59/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="572">
-      <c r="A572" t="inlineStr">
+      <c r="A572" s="2" t="inlineStr">
         <is>
           <t>824 permit udp 10.10.62.32/31 10.10.26.53/32 eq ntp</t>
         </is>
       </c>
     </row>
     <row r="573">
-      <c r="A573" t="inlineStr">
+      <c r="A573" s="2" t="inlineStr">
         <is>
           <t>826 permit tcp 10.10.62.88/31 eq www 10.10.26.1/30</t>
         </is>
@@ -4697,28 +4703,28 @@
       </c>
     </row>
     <row r="587">
-      <c r="A587" t="inlineStr">
+      <c r="A587" s="2" t="inlineStr">
         <is>
           <t>910 permit tcp 10.10.62.24/30 eq domain 10.10.26.0/30</t>
         </is>
       </c>
     </row>
     <row r="588">
-      <c r="A588" t="inlineStr">
+      <c r="A588" s="2" t="inlineStr">
         <is>
           <t>912 permit udp 10.10.62.24/30 eq domain 10.10.26.0/30</t>
         </is>
       </c>
     </row>
     <row r="589">
-      <c r="A589" t="inlineStr">
+      <c r="A589" s="2" t="inlineStr">
         <is>
           <t>914 permit udp 10.10.62.24/30 eq ntp 10.10.26.0/30</t>
         </is>
       </c>
     </row>
     <row r="590">
-      <c r="A590" t="inlineStr">
+      <c r="A590" s="2" t="inlineStr">
         <is>
           <t>916 permit ip 10.10.62.24/30 10.10.26.0/30</t>
         </is>
@@ -4795,7 +4801,7 @@
       </c>
     </row>
     <row r="602">
-      <c r="A602" t="inlineStr">
+      <c r="A602" s="2" t="inlineStr">
         <is>
           <t>418 permit udp 10.10.63.55/32 10.10.26.53/32 eq ntp</t>
         </is>
@@ -5053,7 +5059,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>282 permit tcp 10.6.108.60/32 10.6.24.0/24 eq 443</t>
         </is>
@@ -5065,7 +5071,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>284 permit tcp 10.6.108.60/32 10.6.25.0/24 eq 443</t>
         </is>
@@ -5089,7 +5095,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>287 permit tcp 10.6.108.60/32 10.6.27.0/24 eq 443</t>
         </is>
@@ -5132,7 +5138,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>298 permit tcp 10.6.108.0/24 10.6.200.60/32 eq 1000</t>
         </is>
@@ -5158,7 +5164,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>16 deny ip 10.6.130.0/24 10.6.16.72/32</t>
         </is>
@@ -5170,7 +5176,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>17 deny ip 10.6.130.0/24 10.6.16.168/32</t>
         </is>
@@ -5194,7 +5200,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>205 permit tcp 10.6.130.0/24 10.6.25.204/30 eq 9092</t>
         </is>
@@ -5206,7 +5212,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>206 permit tcp 10.6.130.0/24 10.6.25.208/32 eq 9092</t>
         </is>
@@ -5218,7 +5224,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>207 permit tcp 10.6.130.0/24 10.6.25.204/30 eq 9200</t>
         </is>
@@ -5230,7 +5236,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>208 permit tcp 10.6.130.0/24 10.6.25.208/32 eq 9200</t>
         </is>
@@ -5242,14 +5248,14 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>209 permit tcp 10.6.130.0/24 10.6.25.208/29 eq 4000</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>290 permit tcp 10.6.130.0/24 10.6.13.136/29 range 3366 3369</t>
         </is>
@@ -5261,7 +5267,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t>296 permit tcp 10.6.130.0/24 10.6.11.0/27 eq 9092</t>
         </is>
@@ -5273,7 +5279,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>298 permit tcp 10.6.130.0/24 10.6.16.0/27 range 4000 9200</t>
         </is>
@@ -5285,7 +5291,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="2" t="inlineStr">
         <is>
           <t>310 permit tcp 10.6.130.0/24 10.6.13.137/32 eq 3306</t>
         </is>
@@ -5297,7 +5303,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>320 permit tcp 10.6.130.0/24 10.6.27.32/28 eq 9200</t>
         </is>
@@ -5309,7 +5315,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>322 permit tcp 10.6.130.0/24 10.6.27.80/29 eq 9200</t>
         </is>
@@ -5321,21 +5327,21 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>350 permit tcp 10.6.130.0/27 10.6.25.205/32 eq 3366</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>480 permit tcp 10.6.130.0/24 10.6.13.96/27 eq 4000</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>538 permit tcp 10.6.130.0/24 10.6.27.184/29 eq 9092</t>
         </is>
@@ -5412,161 +5418,161 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="2" t="inlineStr">
         <is>
           <t>622 permit tcp 10.6.130.0/24 10.6.200.60/32 eq 1000</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="2" t="inlineStr">
         <is>
           <t>660 permit tcp 10.6.130.0/24 10.6.11.78/31 eq 4000</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="2" t="inlineStr">
         <is>
           <t>662 permit tcp 10.6.130.0/24 10.6.11.80/32 eq 4000</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="2" t="inlineStr">
         <is>
           <t>678 permit tcp 10.6.130.0/24 10.6.12.111/32 eq 3366</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="2" t="inlineStr">
         <is>
           <t>694 permit tcp 10.6.130.0/24 10.6.11.128/29 eq 9092</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="2" t="inlineStr">
         <is>
           <t>714 permit tcp 10.6.130.0/24 10.6.25.52/30 eq 9092</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="2" t="inlineStr">
         <is>
           <t>730 permit tcp 10.6.130.0/24 10.6.11.71/32 eq 6633</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="2" t="inlineStr">
         <is>
           <t>732 permit tcp 10.6.130.0/24 10.6.11.71/32 range 3366 3369</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="2" t="inlineStr">
         <is>
           <t>734 permit tcp 10.6.130.0/24 10.6.11.72/32 eq 6633</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="2" t="inlineStr">
         <is>
           <t>736 permit tcp 10.6.130.0/24 10.6.11.72/32 range 3366 3369</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="2" t="inlineStr">
         <is>
           <t>746 permit tcp 10.6.130.0/24 10.6.13.233/32 range 6446 6447</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="2" t="inlineStr">
         <is>
           <t>804 permit tcp 10.6.130.0/28 10.6.27.48/32 eq 9200</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="2" t="inlineStr">
         <is>
           <t>806 permit tcp 10.6.130.0/28 10.6.27.73/29 eq 9200</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="2" t="inlineStr">
         <is>
           <t>810 permit tcp 10.6.130.16/31 10.6.27.48/32 eq 9200</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="2" t="inlineStr">
         <is>
           <t>812 permit tcp 10.6.130.16/31 10.6.27.73/29 eq 9200</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="2" t="inlineStr">
         <is>
           <t>816 permit tcp 10.6.130.24/29 10.6.27.48/32 eq 9200</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="2" t="inlineStr">
         <is>
           <t>818 permit tcp 10.6.130.24/29 10.6.27.73/29 eq 9200</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="2" t="inlineStr">
         <is>
           <t>820 permit tcp 10.6.130.11/27 10.6.11.151/32 eq 4000</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="2" t="inlineStr">
         <is>
           <t>822 permit tcp 10.6.130.11/27 10.6.11.152/31 eq 4000</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="2" t="inlineStr">
         <is>
           <t>902 permit tcp 10.6.130.11/27 10.6.11.91/29 eq 9200</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="2" t="inlineStr">
         <is>
           <t>904 permit tcp 10.6.130.11/27 10.6.11.96/32 eq 9200</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="2" t="inlineStr">
         <is>
           <t>906 permit tcp 10.6.130.8/29 10.6.13.233/32 eq 3366</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="2" t="inlineStr">
         <is>
           <t>908 permit tcp 10.6.130.16/28 10.6.13.233/32 eq 3366</t>
         </is>
@@ -5678,7 +5684,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82" s="2" t="inlineStr">
         <is>
           <t>402 permit tcp 10.6.168.0/24 10.6.200.60/32 eq 1000</t>
         </is>
@@ -5699,14 +5705,14 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86" s="2" t="inlineStr">
         <is>
           <t>90 permit ip 10.6.169.0/30 10.6.27.72/32</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" s="2" t="inlineStr">
         <is>
           <t>162 permit tcp 10.6.169.4/32 eq 9100 10.6.27.70/32</t>
         </is>
@@ -5783,7 +5789,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="A98" s="2" t="inlineStr">
         <is>
           <t>380 permit tcp 10.6.169.1/32 eq 6788 10.6.21.16/28</t>
         </is>
@@ -5804,28 +5810,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="A101" s="2" t="inlineStr">
         <is>
           <t>392 permit tcp 10.6.169.0/24 10.6.200.60/32 eq 1000</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="A102" s="2" t="inlineStr">
         <is>
           <t>398 permit tcp 10.6.169.1/30 eq 6788 10.6.27.70/32</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="A103" s="2" t="inlineStr">
         <is>
           <t>400 permit tcp 10.6.169.1/30 eq 9100 10.6.27.70/32</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="A104" s="2" t="inlineStr">
         <is>
           <t>402 permit tcp 10.6.169.1/32 eq 9121 10.6.27.70/32</t>
         </is>
@@ -5895,21 +5901,21 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="A115" s="2" t="inlineStr">
         <is>
           <t>338 permit tcp 10.6.19.0/24 10.6.200.60/32 eq 1000</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="A116" s="2" t="inlineStr">
         <is>
           <t>910 permit udp 10.6.19.0/24 10.6.16.27/32 eq ntp</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="A117" s="2" t="inlineStr">
         <is>
           <t>920 permit udp 10.6.19.0/24 10.6.16.20/32 eq domain</t>
         </is>
@@ -5923,21 +5929,21 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="A120" s="2" t="inlineStr">
         <is>
           <t>67 permit tcp 10.6.26.60/32 eq 8088 10.6.25.46/32</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
+      <c r="A121" s="2" t="inlineStr">
         <is>
           <t>68 permit tcp 10.6.26.60/32 eq www 10.6.25.46/32</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
+      <c r="A122" s="2" t="inlineStr">
         <is>
           <t>69 permit tcp 10.6.26.60/32 eq 443 10.6.25.46/32</t>
         </is>
@@ -5958,14 +5964,14 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="A125" s="2" t="inlineStr">
         <is>
           <t>100 permit tcp 10.6.26.180/32 10.6.25.27/32 portgroup SSH-PORT</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="A126" s="2" t="inlineStr">
         <is>
           <t>101 permit tcp 10.6.26.180/32 10.6.25.28/32 portgroup SSH-PORT</t>
         </is>
@@ -5986,7 +5992,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="A129" s="2" t="inlineStr">
         <is>
           <t>260 permit tcp 10.6.26.136/29 eq 9100 10.6.27.70/32</t>
         </is>
@@ -6014,7 +6020,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="A133" s="2" t="inlineStr">
         <is>
           <t>442 permit tcp 10.6.26.0/24 10.6.200.60/32 eq 1000</t>
         </is>
@@ -6070,7 +6076,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="A142" s="2" t="inlineStr">
         <is>
           <t>394 permit tcp 10.6.28.0/24 10.6.200.60/32 eq 1000</t>
         </is>
@@ -6091,7 +6097,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
+      <c r="A146" s="2" t="inlineStr">
         <is>
           <t>5 permit ip 10.6.62.32/31 10.6.13.114/31</t>
         </is>
@@ -6119,7 +6125,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
+      <c r="A150" s="2" t="inlineStr">
         <is>
           <t>62 permit tcp 10.6.62.12/32 eq 17000 10.6.0.0/16</t>
         </is>
@@ -6147,7 +6153,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
+      <c r="A154" s="2" t="inlineStr">
         <is>
           <t>630 permit tcp 10.6.62.8/29 10.6.16.25/32 eq 13080</t>
         </is>
@@ -6231,28 +6237,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
+      <c r="A166" s="2" t="inlineStr">
         <is>
           <t>714 permit tcp 10.6.62.0/24 10.6.200.60/32 eq 1000</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
+      <c r="A167" s="2" t="inlineStr">
         <is>
           <t>718 permit tcp 10.6.62.15/32 10.6.24.40/29 eq 9200</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
+      <c r="A168" s="2" t="inlineStr">
         <is>
           <t>724 permit ip 10.6.62.33/32 10.6.25.40/32</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
+      <c r="A169" s="2" t="inlineStr">
         <is>
           <t>726 permit ip 10.6.62.33/32 10.6.24.52/32</t>
         </is>
@@ -6266,21 +6272,21 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
+      <c r="A171" s="2" t="inlineStr">
         <is>
           <t>736 permit tcp 10.6.62.32/32 10.6.24.52/32 range 8001 8002</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
+      <c r="A172" s="2" t="inlineStr">
         <is>
           <t>744 permit tcp 10.6.62.98/32 eq www 10.6.24.23/32</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
+      <c r="A173" s="2" t="inlineStr">
         <is>
           <t>746 permit tcp 10.6.62.98/32 eq 443 10.6.24.23/32</t>
         </is>
@@ -6301,7 +6307,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
+      <c r="A176" s="2" t="inlineStr">
         <is>
           <t>762 permit tcp 10.6.62.32/31 10.6.27.0/24 eq 443</t>
         </is>
@@ -6315,21 +6321,21 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
+      <c r="A179" s="2" t="inlineStr">
         <is>
           <t>74 permit tcp 10.6.63.63/32 10.6.11.0/24 eq 55888</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
+      <c r="A180" s="2" t="inlineStr">
         <is>
           <t>76 permit tcp 10.6.63.63/32 10.6.25.0/24 eq 55888</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
+      <c r="A181" s="2" t="inlineStr">
         <is>
           <t>78 permit tcp 10.6.63.63/32 10.6.27.0/24 eq 55888</t>
         </is>
@@ -6343,28 +6349,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
+      <c r="A183" s="2" t="inlineStr">
         <is>
           <t>270 permit tcp 10.6.63.55/32 10.6.13.100/30 eq 8080</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
+      <c r="A184" s="2" t="inlineStr">
         <is>
           <t>272 permit tcp 10.6.63.55/32 10.6.20.224/32 eq 8080</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
+      <c r="A185" s="2" t="inlineStr">
         <is>
           <t>274 permit tcp 10.6.63.55/32 10.6.13.128/28 eq 7180</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
+      <c r="A186" s="2" t="inlineStr">
         <is>
           <t>275 permit tcp 10.6.63.55/32 10.6.13.128/28 eq 8081</t>
         </is>
@@ -6378,14 +6384,14 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
+      <c r="A188" s="2" t="inlineStr">
         <is>
           <t>286 permit tcp 10.6.63.55/32 10.6.13.137/32 eq 3306</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
+      <c r="A189" s="2" t="inlineStr">
         <is>
           <t>288 permit tcp 10.6.63.55/32 10.6.13.102/32 eq 4000</t>
         </is>
@@ -6427,42 +6433,42 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
+      <c r="A195" s="2" t="inlineStr">
         <is>
           <t>350 permit tcp 10.6.63.44/32 10.6.25.209/32 eq 8111</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
+      <c r="A196" s="2" t="inlineStr">
         <is>
           <t>352 permit tcp 10.6.63.44/32 10.6.25.210/32 eq 8111</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
+      <c r="A197" s="2" t="inlineStr">
         <is>
           <t>360 permit tcp 10.6.63.44/32 10.6.27.151/32 eq 8111</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
+      <c r="A198" s="2" t="inlineStr">
         <is>
           <t>362 permit tcp 10.6.63.44/32 10.6.27.152/32 eq 8111</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
+      <c r="A199" s="2" t="inlineStr">
         <is>
           <t>370 permit tcp 10.6.63.44/32 10.6.27.44/32 eq 35601</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
+      <c r="A200" s="2" t="inlineStr">
         <is>
           <t>372 permit tcp 10.6.63.44/32 10.6.27.70/32 eq 3000</t>
         </is>
@@ -6497,154 +6503,154 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
+      <c r="A205" s="2" t="inlineStr">
         <is>
           <t>420 permit tcp 10.6.63.55/32 10.6.24.64/29 eq 7180</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
+      <c r="A206" s="2" t="inlineStr">
         <is>
           <t>422 permit tcp 10.6.63.55/32 10.6.24.64/29 eq 8001</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
+      <c r="A207" s="2" t="inlineStr">
         <is>
           <t>424 permit tcp 10.6.63.55/32 10.6.24.64/29 eq 8020</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr">
+      <c r="A208" s="2" t="inlineStr">
         <is>
           <t>426 permit tcp 10.6.63.55/32 10.6.24.64/29 eq 8022</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
+      <c r="A209" s="2" t="inlineStr">
         <is>
           <t>428 permit tcp 10.6.63.55/32 10.6.24.64/29 eq 8042</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
+      <c r="A210" s="2" t="inlineStr">
         <is>
           <t>430 permit tcp 10.6.63.55/32 10.6.24.64/29 eq 8044</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
+      <c r="A211" s="2" t="inlineStr">
         <is>
           <t>432 permit tcp 10.6.63.55/32 10.6.24.64/29 eq 8048</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr">
+      <c r="A212" s="2" t="inlineStr">
         <is>
           <t>434 permit tcp 10.6.63.55/32 10.6.24.64/29 eq 8080</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr">
+      <c r="A213" s="2" t="inlineStr">
         <is>
           <t>436 permit tcp 10.6.63.55/32 10.6.24.64/29 eq 8081</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr">
+      <c r="A214" s="2" t="inlineStr">
         <is>
           <t>438 permit tcp 10.6.63.55/32 10.6.24.64/29 eq 8088</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
+      <c r="A215" s="2" t="inlineStr">
         <is>
           <t>440 permit tcp 10.6.63.55/32 10.6.24.64/29 eq 8888</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr">
+      <c r="A216" s="2" t="inlineStr">
         <is>
           <t>442 permit tcp 10.6.63.55/32 10.6.24.64/29 eq 9870</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr">
+      <c r="A217" s="2" t="inlineStr">
         <is>
           <t>446 permit tcp 10.6.63.55/32 10.6.24.64/29 eq 10000</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr">
+      <c r="A218" s="2" t="inlineStr">
         <is>
           <t>448 permit tcp 10.6.63.55/32 10.6.24.64/29 eq 19888</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr">
+      <c r="A219" s="2" t="inlineStr">
         <is>
           <t>450 permit tcp 10.6.63.55/32 10.6.24.64/29 eq 19890</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr">
+      <c r="A220" s="2" t="inlineStr">
         <is>
           <t>452 permit tcp 10.6.63.55/32 10.6.24.64/29 eq 20000</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr">
+      <c r="A221" s="2" t="inlineStr">
         <is>
           <t>464 permit tcp 10.6.63.0/24 10.6.200.60/32 eq 1000</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr">
+      <c r="A222" s="2" t="inlineStr">
         <is>
           <t>492 permit tcp 10.6.63.55/32 10.6.24.64/29 eq 4000</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="inlineStr">
+      <c r="A223" s="2" t="inlineStr">
         <is>
           <t>494 permit tcp 10.6.63.44/32 10.6.27.155/32 eq 7080</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr">
+      <c r="A224" s="2" t="inlineStr">
         <is>
           <t>500 permit tcp 10.6.63.44/32 10.6.11.151/32 eq 3000</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr">
+      <c r="A225" s="2" t="inlineStr">
         <is>
           <t>502 permit tcp 10.6.63.44/32 10.6.11.151/32 eq 2379</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="inlineStr">
+      <c r="A226" s="2" t="inlineStr">
         <is>
           <t>504 permit tcp 10.6.63.44/32 10.6.25.206/32 eq 5601</t>
         </is>
@@ -6658,7 +6664,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="inlineStr">
+      <c r="A228" s="2" t="inlineStr">
         <is>
           <t>526 permit tcp 10.6.63.63/32 10.6.16.25/32 eq 13080</t>
         </is>
@@ -6672,259 +6678,259 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr">
+      <c r="A230" s="2" t="inlineStr">
         <is>
           <t>536 permit tcp 10.6.63.44/32 10.6.27.70/32 range 9090 9093</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr">
+      <c r="A231" s="2" t="inlineStr">
         <is>
           <t>548 permit tcp 10.6.63.44/32 10.6.27.144/32 eq 5601</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="inlineStr">
+      <c r="A232" s="2" t="inlineStr">
         <is>
           <t>552 permit tcp 10.6.63.44/32 10.6.11.80/32 eq 3000</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr">
+      <c r="A233" s="2" t="inlineStr">
         <is>
           <t>578 permit tcp 10.6.63.44/32 10.6.11.80/32 eq 2379</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="inlineStr">
+      <c r="A234" s="2" t="inlineStr">
         <is>
           <t>584 permit tcp 10.6.63.55/32 10.6.13.112/29 eq 2379</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr">
+      <c r="A235" s="2" t="inlineStr">
         <is>
           <t>586 permit tcp 10.6.63.55/32 10.6.13.112/29 eq 3000</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr">
+      <c r="A236" s="2" t="inlineStr">
         <is>
           <t>588 permit tcp 10.6.63.55/32 10.6.13.160/28 eq 7180</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr">
+      <c r="A237" s="2" t="inlineStr">
         <is>
           <t>590 permit tcp 10.6.63.55/32 10.6.13.160/28 eq 8001</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr">
+      <c r="A238" s="2" t="inlineStr">
         <is>
           <t>592 permit tcp 10.6.63.55/32 10.6.13.160/28 range 8020 8048</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="inlineStr">
+      <c r="A239" s="2" t="inlineStr">
         <is>
           <t>594 permit tcp 10.6.63.55/32 10.6.13.160/28 range 8080 8088</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="inlineStr">
+      <c r="A240" s="2" t="inlineStr">
         <is>
           <t>596 permit tcp 10.6.63.55/32 10.6.13.160/28 eq 8888</t>
         </is>
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr">
+      <c r="A241" s="2" t="inlineStr">
         <is>
           <t>600 permit tcp 10.6.63.55/32 10.6.13.160/28 eq 9870</t>
         </is>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="inlineStr">
+      <c r="A242" s="2" t="inlineStr">
         <is>
           <t>602 permit tcp 10.6.63.55/32 10.6.13.160/28 eq 10000</t>
         </is>
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr">
+      <c r="A243" s="2" t="inlineStr">
         <is>
           <t>604 permit tcp 10.6.63.55/32 10.6.13.160/28 eq 20000</t>
         </is>
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="inlineStr">
+      <c r="A244" s="2" t="inlineStr">
         <is>
           <t>606 permit tcp 10.6.63.55/32 10.6.13.160/28 range 19888 19890</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="inlineStr">
+      <c r="A245" s="2" t="inlineStr">
         <is>
           <t>608 permit tcp 10.6.63.55/32 10.6.13.176/30 eq 7180</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="inlineStr">
+      <c r="A246" s="2" t="inlineStr">
         <is>
           <t>610 permit tcp 10.6.63.55/32 10.6.13.176/30 eq 8001</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="inlineStr">
+      <c r="A247" s="2" t="inlineStr">
         <is>
           <t>612 permit tcp 10.6.63.55/32 10.6.13.176/30 range 8020 8048</t>
         </is>
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="inlineStr">
+      <c r="A248" s="2" t="inlineStr">
         <is>
           <t>614 permit tcp 10.6.63.55/32 10.6.13.176/30 range 8080 8088</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="inlineStr">
+      <c r="A249" s="2" t="inlineStr">
         <is>
           <t>616 permit tcp 10.6.63.55/32 10.6.13.176/30 eq 8888</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="inlineStr">
+      <c r="A250" s="2" t="inlineStr">
         <is>
           <t>620 permit tcp 10.6.63.55/32 10.6.13.176/30 eq 9870</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="inlineStr">
+      <c r="A251" s="2" t="inlineStr">
         <is>
           <t>622 permit tcp 10.6.63.55/32 10.6.13.176/30 eq 10000</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="inlineStr">
+      <c r="A252" s="2" t="inlineStr">
         <is>
           <t>624 permit tcp 10.6.63.55/32 10.6.13.176/30 eq 20000</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="inlineStr">
+      <c r="A253" s="2" t="inlineStr">
         <is>
           <t>626 permit tcp 10.6.63.55/32 10.6.13.176/30 range 19888 19890</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="inlineStr">
+      <c r="A254" s="2" t="inlineStr">
         <is>
           <t>628 permit tcp 10.6.63.55/32 10.6.13.176/30 eq 9010</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="inlineStr">
+      <c r="A255" s="2" t="inlineStr">
         <is>
           <t>630 permit tcp 10.6.63.55/32 10.6.13.160/28 eq 9010</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="inlineStr">
+      <c r="A256" s="2" t="inlineStr">
         <is>
           <t>632 permit tcp 10.6.63.55/32 10.6.13.160/28 range 9020 9030</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr">
+      <c r="A257" s="2" t="inlineStr">
         <is>
           <t>634 permit tcp 10.6.63.55/32 10.6.13.176/30 range 9020 9030</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="inlineStr">
+      <c r="A258" s="2" t="inlineStr">
         <is>
           <t>636 permit tcp 10.6.63.44/32 10.6.11.151/32 range 9090 9093</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="inlineStr">
+      <c r="A259" s="2" t="inlineStr">
         <is>
           <t>638 permit tcp 10.6.63.44/32 10.6.11.80/32 range 9090 9093</t>
         </is>
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="inlineStr">
+      <c r="A260" s="2" t="inlineStr">
         <is>
           <t>640 permit tcp 10.6.63.44/32 10.6.13.113/32 range 9090 9093</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="inlineStr">
+      <c r="A261" s="2" t="inlineStr">
         <is>
           <t>642 permit tcp 10.6.63.44/32 10.6.27.70/32 eq 8004</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="inlineStr">
+      <c r="A262" s="2" t="inlineStr">
         <is>
           <t>644 permit tcp 10.6.63.44/32 10.6.13.112/29 eq 3000</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="inlineStr">
+      <c r="A263" s="2" t="inlineStr">
         <is>
           <t>646 permit tcp 10.6.63.44/32 10.6.13.112/29 eq 2379</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="inlineStr">
+      <c r="A264" s="2" t="inlineStr">
         <is>
           <t>648 permit tcp 10.6.63.44/32 10.6.11.121/32 eq 5601</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="inlineStr">
+      <c r="A265" s="2" t="inlineStr">
         <is>
           <t>650 permit tcp 10.6.63.44/32 10.6.11.91/32 eq 5601</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="inlineStr">
+      <c r="A266" s="2" t="inlineStr">
         <is>
           <t>652 permit tcp 10.6.63.44/32 10.6.27.34/32 eq 25601</t>
         </is>
@@ -6945,21 +6951,21 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="inlineStr">
+      <c r="A270" s="2" t="inlineStr">
         <is>
           <t>74 permit ip 10.6.8.43/32 10.6.24.0/24</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="inlineStr">
+      <c r="A271" s="2" t="inlineStr">
         <is>
           <t>75 permit tcp 10.6.8.43/32 eq 28800 10.6.24.23/32</t>
         </is>
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="inlineStr">
+      <c r="A272" s="2" t="inlineStr">
         <is>
           <t>210 permit tcp 10.6.8.43/32 10.6.25.0/24 eq 55888</t>
         </is>
@@ -6980,35 +6986,35 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="inlineStr">
+      <c r="A275" s="2" t="inlineStr">
         <is>
           <t>213 permit tcp 10.6.8.43/32 10.6.24.0/24 eq 55888</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="inlineStr">
+      <c r="A276" s="2" t="inlineStr">
         <is>
           <t>215 permit tcp 10.6.8.43/32 10.6.21.0/24 eq 55888</t>
         </is>
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="inlineStr">
+      <c r="A277" s="2" t="inlineStr">
         <is>
           <t>216 permit tcp 10.6.8.43/32 10.6.20.0/24 eq 55888</t>
         </is>
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="inlineStr">
+      <c r="A278" s="2" t="inlineStr">
         <is>
           <t>217 permit tcp 10.6.8.43/32 10.6.22.0/24 eq 55888</t>
         </is>
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="inlineStr">
+      <c r="A279" s="2" t="inlineStr">
         <is>
           <t>256 permit ip 10.6.8.43/32 10.6.24.0/24</t>
         </is>
@@ -7029,7 +7035,7 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="inlineStr">
+      <c r="A282" s="2" t="inlineStr">
         <is>
           <t>386 permit tcp 10.6.8.0/24 10.6.200.60/32 eq 1000</t>
         </is>
@@ -7107,7 +7113,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>90 permit tcp 10.12.108.0/24 eq 55888 10.12.200.88/32 log</t>
         </is>
@@ -7131,7 +7137,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>282 permit tcp 10.12.108.60/32 10.12.12.0/24 eq 443</t>
         </is>
@@ -7143,7 +7149,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>284 permit tcp 10.12.108.60/32 10.12.100.0/24 eq 443</t>
         </is>
@@ -7179,7 +7185,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>290 permit tcp 10.12.108.60/32 10.12.76.0/24 eq 443</t>
         </is>
@@ -7331,7 +7337,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>95 permit ip 10.12.169.0/30 10.12.11.6/32</t>
         </is>
@@ -7408,35 +7414,35 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>350 permit tcp 10.12.169.1/32 eq 6788 10.12.21.16/28 log</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>358 permit tcp 10.12.169.1/30 eq 6788 10.12.12.34/32</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>360 permit tcp 10.12.169.1/30 eq 9104 10.12.12.34/32</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="2" t="inlineStr">
         <is>
           <t>362 permit tcp 10.12.169.1/30 eq 9100 10.12.12.34/32</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="2" t="inlineStr">
         <is>
           <t>364 permit tcp 10.12.169.1/32 range 9100 9121 10.12.12.34/32</t>
         </is>
@@ -7464,7 +7470,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="2" t="inlineStr">
         <is>
           <t>86 permit tcp 10.12.17.0/28 eq 3389 10.12.200.88/32</t>
         </is>
@@ -7485,77 +7491,77 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="2" t="inlineStr">
         <is>
           <t>258 permit tcp 10.12.17.63/32 10.12.22.206/32 eq 17998</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="2" t="inlineStr">
         <is>
           <t>260 permit tcp 10.12.17.63/32 10.12.22.206/32 eq 20000</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="2" t="inlineStr">
         <is>
           <t>262 permit tcp 10.12.17.63/32 10.12.22.206/32 eq 20020</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="2" t="inlineStr">
         <is>
           <t>264 permit tcp 10.12.17.64/28 10.12.22.206/32 eq 17998</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="2" t="inlineStr">
         <is>
           <t>268 permit tcp 10.12.17.64/28 10.12.22.206/32 eq 20000</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="2" t="inlineStr">
         <is>
           <t>270 permit tcp 10.12.17.64/28 10.12.22.206/32 eq 20020</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="2" t="inlineStr">
         <is>
           <t>272 permit tcp 10.12.17.63/32 10.12.22.208/32 eq 17998</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="2" t="inlineStr">
         <is>
           <t>274 permit tcp 10.12.17.63/32 10.12.22.208/32 eq 20000</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="2" t="inlineStr">
         <is>
           <t>278 permit tcp 10.12.17.64/28 10.12.22.208/32 eq 17998</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="2" t="inlineStr">
         <is>
           <t>280 permit tcp 10.12.17.64/28 10.12.22.208/32 eq 20000</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="2" t="inlineStr">
         <is>
           <t>282 permit tcp 10.12.17.64/28 10.12.22.208/32 eq 20020</t>
         </is>
@@ -7590,7 +7596,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="2" t="inlineStr">
         <is>
           <t>424 permit udp 10.12.17.86/30 10.12.11.1/30 eq domain</t>
         </is>
@@ -7604,28 +7610,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="2" t="inlineStr">
         <is>
           <t>544 permit tcp 10.12.17.241/32 10.12.11.171/32 eq 6633</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="2" t="inlineStr">
         <is>
           <t>546 permit tcp 10.12.17.241/32 10.12.11.171/32 range 3366 3369</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="2" t="inlineStr">
         <is>
           <t>548 permit tcp 10.12.17.241/32 10.12.11.172/32 eq 6633</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" s="2" t="inlineStr">
         <is>
           <t>550 permit tcp 10.12.17.241/32 10.12.11.172/32 range 3366 3369</t>
         </is>
@@ -7681,91 +7687,91 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82" s="2" t="inlineStr">
         <is>
           <t>204 permit ip 10.12.38.6/32 10.12.16.0/24</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83" s="2" t="inlineStr">
         <is>
           <t>206 permit tcp 10.12.38.0/29 eq 8080 10.12.17.95/32</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="A84" s="2" t="inlineStr">
         <is>
           <t>208 permit tcp 10.12.38.6/32 eq www 10.12.17.95/32</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85" s="2" t="inlineStr">
         <is>
           <t>210 permit tcp 10.12.38.6/32 eq 443 10.12.17.95/32</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86" s="2" t="inlineStr">
         <is>
           <t>278 permit tcp 10.12.38.0/29 10.12.11.35/32 eq 3000</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" s="2" t="inlineStr">
         <is>
           <t>280 permit tcp 10.12.38.0/29 10.12.11.34/32 eq 8004</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88" s="2" t="inlineStr">
         <is>
           <t>282 permit tcp 10.12.38.0/29 10.12.11.151/32 eq 3000</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="A89" s="2" t="inlineStr">
         <is>
           <t>284 permit tcp 10.12.38.0/29 10.12.17.83/32 eq www</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" s="2" t="inlineStr">
         <is>
           <t>286 permit tcp 10.12.38.0/29 10.12.17.83/32 eq 443</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="A91" s="2" t="inlineStr">
         <is>
           <t>288 permit tcp 10.12.38.0/29 10.12.17.177/32 eq www</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="A92" s="2" t="inlineStr">
         <is>
           <t>290 permit tcp 10.12.38.0/29 10.12.17.177/32 eq 443</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="A93" s="2" t="inlineStr">
         <is>
           <t>292 permit tcp 10.12.38.0/29 10.12.18.206/32 eq 5601</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="A94" s="2" t="inlineStr">
         <is>
           <t>294 permit tcp 10.12.38.0/29 10.12.18.41/32 eq 28800</t>
         </is>
@@ -7800,49 +7806,49 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="A99" s="2" t="inlineStr">
         <is>
           <t>326 permit tcp 10.12.38.0/29 10.12.17.95/32 eq www</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="A100" s="2" t="inlineStr">
         <is>
           <t>328 permit tcp 10.12.38.0/29 10.12.17.95/32 eq 443</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="A101" s="2" t="inlineStr">
         <is>
           <t>334 permit tcp 10.12.38.0/29 10.12.12.34/32 eq 8004</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="A102" s="2" t="inlineStr">
         <is>
           <t>348 permit tcp 10.12.38.0/29 eq 3306 10.12.16.1/30</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="A103" s="2" t="inlineStr">
         <is>
           <t>358 permit tcp 10.12.38.0/29 10.12.12.205/32 eq 5601</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="A104" s="2" t="inlineStr">
         <is>
           <t>384 permit tcp 10.12.38.0/29 10.12.12.34/32 eq 5601</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="A105" s="2" t="inlineStr">
         <is>
           <t>400 permit tcp 10.12.38.0/29 10.12.12.34/32 eq 3000</t>
         </is>
@@ -7898,21 +7904,21 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="A114" s="2" t="inlineStr">
         <is>
           <t>162 permit tcp 10.12.62.32/31 10.12.12.0/24 eq 443</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="A115" s="2" t="inlineStr">
         <is>
           <t>300 permit tcp 10.12.62.33/32 eq 3389 10.12.200.88/32</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="A116" s="2" t="inlineStr">
         <is>
           <t>308 permit tcp 10.12.62.33/32 10.12.12.20/32 eq 443</t>
         </is>
@@ -7926,7 +7932,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="A118" s="2" t="inlineStr">
         <is>
           <t>320 permit tcp 10.12.62.32/32 eq 5900 10.12.200.88/32</t>
         </is>
@@ -7961,7 +7967,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
+      <c r="A123" s="2" t="inlineStr">
         <is>
           <t>610 permit tcp 10.12.62.8/29 10.12.16.42/32 eq 13080</t>
         </is>
@@ -7996,14 +8002,14 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="A128" s="2" t="inlineStr">
         <is>
           <t>656 permit tcp 10.12.62.32/31 10.12.12.20/32 eq 5480</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="A129" s="2" t="inlineStr">
         <is>
           <t>658 permit tcp 10.12.62.32/32 eq 3389 10.12.200.88/32</t>
         </is>
@@ -8038,7 +8044,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="A134" s="2" t="inlineStr">
         <is>
           <t>668 permit tcp 10.12.62.32/32 10.12.16.1/32 eq 443</t>
         </is>
@@ -8066,14 +8072,14 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="A138" s="2" t="inlineStr">
         <is>
           <t>678 permit tcp 10.12.62.32/31 10.12.76.0/24 eq 5480</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
+      <c r="A139" s="2" t="inlineStr">
         <is>
           <t>680 permit tcp 10.12.62.32/31 10.12.76.0/24 eq 443</t>
         </is>
@@ -8108,7 +8114,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
+      <c r="A144" s="2" t="inlineStr">
         <is>
           <t>754 permit ip 10.12.62.33/32 10.12.17.122/32</t>
         </is>
@@ -8143,35 +8149,35 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
+      <c r="A149" s="2" t="inlineStr">
         <is>
           <t>780 permit tcp 10.12.62.32/31 10.12.100.1/29 eq 443</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
+      <c r="A150" s="2" t="inlineStr">
         <is>
           <t>784 permit tcp 10.12.62.32/31 10.12.12.0/24 eq 443</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
+      <c r="A151" s="2" t="inlineStr">
         <is>
           <t>788 permit tcp 10.12.62.32/31 10.12.100.120/32 eq 5480</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
+      <c r="A152" s="2" t="inlineStr">
         <is>
           <t>790 permit tcp 10.12.62.32/31 10.12.100.120/32 eq www</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
+      <c r="A153" s="2" t="inlineStr">
         <is>
           <t>792 permit tcp 10.12.62.32/31 10.12.100.120/32 eq 443</t>
         </is>
@@ -8185,14 +8191,14 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
+      <c r="A156" s="2" t="inlineStr">
         <is>
           <t>10 permit tcp 10.12.63.44/32 10.12.18.206/32 eq 5601</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
+      <c r="A157" s="2" t="inlineStr">
         <is>
           <t>40 permit tcp 10.12.63.44/32 10.12.11.0/24 eq 2379</t>
         </is>
@@ -8206,7 +8212,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
+      <c r="A159" s="2" t="inlineStr">
         <is>
           <t>68 permit tcp 10.12.63.0/24 eq 55888 10.12.200.88/32</t>
         </is>
@@ -8220,21 +8226,21 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
+      <c r="A161" s="2" t="inlineStr">
         <is>
           <t>260 permit tcp 10.12.63.44/32 eq 3389 10.12.200.88/32</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
+      <c r="A162" s="2" t="inlineStr">
         <is>
           <t>262 permit tcp 10.12.63.55/32 eq 3389 10.12.200.88/32</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
+      <c r="A163" s="2" t="inlineStr">
         <is>
           <t>264 permit tcp 10.12.63.44/32 10.12.11.130/32 eq 56010</t>
         </is>
@@ -8248,63 +8254,63 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
+      <c r="A165" s="2" t="inlineStr">
         <is>
           <t>346 permit tcp 10.12.63.44/32 10.12.12.151/32 eq 8111</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
+      <c r="A166" s="2" t="inlineStr">
         <is>
           <t>348 permit tcp 10.12.63.44/32 10.12.12.152/32 eq 8111</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
+      <c r="A167" s="2" t="inlineStr">
         <is>
           <t>360 permit tcp 10.12.63.44/32 10.12.12.54/32 eq 56010</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
+      <c r="A168" s="2" t="inlineStr">
         <is>
           <t>362 permit tcp 10.12.63.44/32 10.12.12.64/32 eq 56020</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
+      <c r="A169" s="2" t="inlineStr">
         <is>
           <t>364 permit tcp 10.12.63.44/32 10.12.18.209/32 eq 8111</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
+      <c r="A170" s="2" t="inlineStr">
         <is>
           <t>366 permit tcp 10.12.63.44/32 10.12.18.210/32 eq 8111</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
+      <c r="A171" s="2" t="inlineStr">
         <is>
           <t>380 permit tcp 10.12.63.44/32 10.12.11.91/32 eq 5601</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
+      <c r="A172" s="2" t="inlineStr">
         <is>
           <t>394 permit tcp 10.12.63.44/32 10.12.12.155/32 eq 7080</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
+      <c r="A173" s="2" t="inlineStr">
         <is>
           <t>398 permit tcp 10.12.63.44/32 10.12.11.151/32 eq 3000</t>
         </is>
@@ -8318,56 +8324,56 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
+      <c r="A175" s="2" t="inlineStr">
         <is>
           <t>404 permit tcp 10.12.63.63/32 10.12.16.42/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
+      <c r="A176" s="2" t="inlineStr">
         <is>
           <t>406 permit tcp 10.12.63.44/32 10.12.12.34/32 range 9090 9093</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
+      <c r="A177" s="2" t="inlineStr">
         <is>
           <t>408 permit tcp 10.12.63.44/32 10.12.12.34/32 eq 3000</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
+      <c r="A178" s="2" t="inlineStr">
         <is>
           <t>414 permit tcp 10.12.63.44/32 10.12.11.35/32 eq 3000</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
+      <c r="A179" s="2" t="inlineStr">
         <is>
           <t>454 permit tcp 10.12.63.44/32 10.12.12.205/32 eq 5601</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
+      <c r="A180" s="2" t="inlineStr">
         <is>
           <t>456 permit tcp 10.12.63.44/32 10.12.11.151/32 range 9090 9093</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
+      <c r="A181" s="2" t="inlineStr">
         <is>
           <t>458 permit tcp 10.12.63.44/32 10.12.11.35/32 range 9090 9093</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
+      <c r="A182" s="2" t="inlineStr">
         <is>
           <t>460 permit tcp 10.12.63.44/32 10.12.12.34/32 eq 8004</t>
         </is>
@@ -8381,21 +8387,21 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
+      <c r="A185" s="2" t="inlineStr">
         <is>
           <t>4 deny tcp 10.12.8.43/32 10.12.11.0/24 eq 55888</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
+      <c r="A186" s="2" t="inlineStr">
         <is>
           <t>5 deny tcp 10.12.8.43/32 10.12.12.0/23 eq 55888</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
+      <c r="A187" s="2" t="inlineStr">
         <is>
           <t>6 deny tcp 10.12.8.43/32 10.12.14.0/24 eq 55888</t>
         </is>
@@ -8416,7 +8422,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
+      <c r="A190" s="2" t="inlineStr">
         <is>
           <t>94 permit tcp 10.12.8.43/32 eq 28800 10.12.17.80 0.0.0.7</t>
         </is>
@@ -8501,7 +8507,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>280 permit tcp 10.13.108.60/32 10.13.19.0/24 eq 443</t>
         </is>
@@ -8513,7 +8519,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>282 permit tcp 10.13.108.60/32 10.13.12.0/24 eq 443</t>
         </is>
@@ -8537,7 +8543,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>286 permit icmp 10.13.108.60/32 10.13.0.0/16</t>
         </is>
@@ -8654,7 +8660,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>95 permit ip 10.13.169.0/30 10.13.11.38/32</t>
         </is>
@@ -8731,42 +8737,42 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="2" t="inlineStr">
         <is>
           <t>242 permit tcp 10.13.169.0/29 eq 9121 10.13.12.91/32 log</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="2" t="inlineStr">
         <is>
           <t>310 permit tcp 10.13.169.2/32 eq 6788 10.13.21.16/28</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr">
         <is>
           <t>348 permit tcp 10.13.169.1/30 eq 6788 10.13.12.91/32</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>350 permit tcp 10.13.169.1/29 eq 9100 10.13.12.91/32</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>352 permit tcp 10.13.169.1/29 eq 9104 10.13.12.91/32</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>354 permit tcp 10.13.169.1/29 eq 9200 10.13.12.91/32</t>
         </is>
@@ -8787,42 +8793,42 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="2" t="inlineStr">
         <is>
           <t>258 permit tcp 10.13.17.63/32 10.13.22.214/31 eq 17998</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="2" t="inlineStr">
         <is>
           <t>260 permit tcp 10.13.17.63/32 10.13.22.214/31 eq 20000</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="2" t="inlineStr">
         <is>
           <t>262 permit tcp 10.13.17.63/32 10.13.22.214/31 eq 20020</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="2" t="inlineStr">
         <is>
           <t>264 permit tcp 10.13.17.64/28 10.13.22.214/31 eq 17998</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="2" t="inlineStr">
         <is>
           <t>268 permit tcp 10.13.17.64/28 10.13.22.214/31 eq 20000</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="2" t="inlineStr">
         <is>
           <t>270 permit tcp 10.13.17.64/28 10.13.22.214/31 eq 20020</t>
         </is>
@@ -8843,28 +8849,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="2" t="inlineStr">
         <is>
           <t>396 permit udp 10.13.17.86/30 10.13.11.33/29 eq domain</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="2" t="inlineStr">
         <is>
           <t>402 permit tcp 10.13.17.241/32 10.13.11.24/30 eq 6633</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="2" t="inlineStr">
         <is>
           <t>404 permit tcp 10.13.17.241/32 10.13.11.24/30 range 3366 3369</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="2" t="inlineStr">
         <is>
           <t>496 permit tcp 10.13.17.241/32 eq 13080 10.13.12.131/32</t>
         </is>
@@ -8899,7 +8905,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="2" t="inlineStr">
         <is>
           <t>70 permit tcp 10.13.62.12/32 eq 17000 10.13.0.0/16</t>
         </is>
@@ -8920,7 +8926,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="2" t="inlineStr">
         <is>
           <t>580 permit tcp 10.13.62.8/29 10.13.16.42/32 eq 13080</t>
         </is>
@@ -8941,28 +8947,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="2" t="inlineStr">
         <is>
           <t>612 permit tcp 10.13.62.32/31 10.13.19.0/24 eq 443</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="2" t="inlineStr">
         <is>
           <t>614 permit tcp 10.13.62.32/31 10.13.19.30/32 eq 5480</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="2" t="inlineStr">
         <is>
           <t>616 permit tcp 10.13.62.32/31 10.13.12.20/32 eq 443</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" s="2" t="inlineStr">
         <is>
           <t>618 permit tcp 10.13.62.32/31 10.13.12.20/32 eq 5480</t>
         </is>
@@ -8997,7 +9003,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" s="2" t="inlineStr">
         <is>
           <t>628 permit tcp 10.13.62.32/32 10.13.16.1/32 eq 443</t>
         </is>
@@ -9060,91 +9066,91 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" s="2" t="inlineStr">
         <is>
           <t>62 permit tcp 10.13.63.0/24 10.13.200.60/32 eq 1000</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88" s="2" t="inlineStr">
         <is>
           <t>264 permit tcp 10.13.63.44/32 10.13.11.111/32 eq 56010</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="A89" s="2" t="inlineStr">
         <is>
           <t>344 permit tcp 10.13.63.44/32 10.13.12.91/32 eq 3000</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" s="2" t="inlineStr">
         <is>
           <t>348 permit tcp 10.13.63.44/32 10.13.12.151/32 eq 8111</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="A91" s="2" t="inlineStr">
         <is>
           <t>350 permit tcp 10.13.63.44/32 10.13.12.152/32 eq 8111</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="A92" s="2" t="inlineStr">
         <is>
           <t>354 permit tcp 10.13.63.44/32 10.13.12.59/32 eq 56010</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="A93" s="2" t="inlineStr">
         <is>
           <t>356 permit tcp 10.13.63.44/32 10.13.12.74/32 eq 56010</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="A94" s="2" t="inlineStr">
         <is>
           <t>360 permit tcp 10.13.63.44/32 10.13.18.209/32 eq 8111</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="A95" s="2" t="inlineStr">
         <is>
           <t>362 permit tcp 10.13.63.44/32 10.13.18.210/32 eq 8111</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="A96" s="2" t="inlineStr">
         <is>
           <t>384 permit tcp 10.13.63.44/32 10.13.11.86/32 eq 5601</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="A97" s="2" t="inlineStr">
         <is>
           <t>406 permit tcp 10.13.63.44/32 10.13.12.155/32 eq 7080</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="A98" s="2" t="inlineStr">
         <is>
           <t>410 permit tcp 10.13.63.44/32 10.13.11.131/32 eq 3000</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="A99" s="2" t="inlineStr">
         <is>
           <t>412 permit tcp 10.13.63.44/32 10.13.11.0/24 eq 2379</t>
         </is>
@@ -9158,56 +9164,56 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="A101" s="2" t="inlineStr">
         <is>
           <t>416 permit tcp 10.13.63.63/32 10.13.16.42/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="A102" s="2" t="inlineStr">
         <is>
           <t>418 permit tcp 10.13.63.44/32 10.13.12.91/32 range 9090 9093</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="A103" s="2" t="inlineStr">
         <is>
           <t>428 permit tcp 10.13.63.44/32 10.13.11.56/32 eq 3000</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="A104" s="2" t="inlineStr">
         <is>
           <t>464 permit tcp 10.13.63.44/32 10.13.18.206/32 eq 5601</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="A105" s="2" t="inlineStr">
         <is>
           <t>466 permit tcp 10.13.63.44/32 10.13.12.205/32 eq 5601</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="A106" s="2" t="inlineStr">
         <is>
           <t>468 permit tcp 10.13.63.44/32 10.13.11.131/32 range 9090 9093</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="A107" s="2" t="inlineStr">
         <is>
           <t>470 permit tcp 10.13.63.44/32 10.13.11.56/32 range 9090 9093</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="A108" s="2" t="inlineStr">
         <is>
           <t>472 permit tcp 10.13.63.44/32 10.13.12.91/32 eq 8004</t>
         </is>
@@ -9235,7 +9241,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="A114" s="2" t="inlineStr">
         <is>
           <t>4 deny tcp 10.13.8.43/32 10.13.11.0/24 eq 55888</t>
         </is>
@@ -9370,14 +9376,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>270 permit tcp 10.62.100.0/24 10.62.16.55/32 range 19001 19002</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>272 permit tcp 10.62.100.96/28 range 19001 19002 10.62.16.0/30</t>
         </is>
@@ -9389,7 +9395,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>273 permit tcp 10.62.100.170/31 range 19001 19002 10.62.16.0/30</t>
         </is>
@@ -9487,7 +9493,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>300 permit tcp 10.62.100.0/24 10.62.16.41/32 eq 8080</t>
         </is>
@@ -9961,7 +9967,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="2" t="inlineStr">
         <is>
           <t>601 permit tcp 10.62.100.128/27 range 19001 19002 10.62.16.0/30</t>
         </is>
@@ -10304,14 +10310,14 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="A116" s="2" t="inlineStr">
         <is>
           <t>280 permit tcp 10.62.106.0/24 10.62.16.55/32 range 19001 19002</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="A117" s="2" t="inlineStr">
         <is>
           <t>290 permit tcp 10.62.106.16/31 eq www 10.62.16.0/28</t>
         </is>
@@ -10374,14 +10380,14 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="A126" s="2" t="inlineStr">
         <is>
           <t>314 permit tcp 10.62.106.16/28 eq 10000 10.62.16.0/30</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="A127" s="2" t="inlineStr">
         <is>
           <t>316 permit tcp 10.62.106.16/28 eq 10000 10.62.16.106/32</t>
         </is>
@@ -11214,7 +11220,7 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="inlineStr">
+      <c r="A248" s="2" t="inlineStr">
         <is>
           <t>730 permit tcp 10.62.110.250/32 10.62.16.12/32 eq 13080</t>
         </is>
@@ -11571,7 +11577,7 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="inlineStr">
+      <c r="A300" s="2" t="inlineStr">
         <is>
           <t>612 permit tcp 10.62.120.10/32 10.62.16.12/32 eq 13080</t>
         </is>
@@ -11585,7 +11591,7 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="inlineStr">
+      <c r="A302" s="2" t="inlineStr">
         <is>
           <t>634 permit tcp 10.62.120.100/32 10.62.16.12/32 eq 13080</t>
         </is>
@@ -12313,35 +12319,35 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="inlineStr">
+      <c r="A408" s="2" t="inlineStr">
         <is>
           <t>334 permit tcp 10.62.140.5/32 10.62.16.32/32 eq 4000</t>
         </is>
       </c>
     </row>
     <row r="409">
-      <c r="A409" t="inlineStr">
+      <c r="A409" s="2" t="inlineStr">
         <is>
           <t>354 permit tcp 10.62.140.13/30 10.62.16.32/32 eq 4000</t>
         </is>
       </c>
     </row>
     <row r="410">
-      <c r="A410" t="inlineStr">
+      <c r="A410" s="2" t="inlineStr">
         <is>
           <t>362 permit tcp 10.62.140.16/30 10.62.16.32/32 eq 4000</t>
         </is>
       </c>
     </row>
     <row r="411">
-      <c r="A411" t="inlineStr">
+      <c r="A411" s="2" t="inlineStr">
         <is>
           <t>376 permit tcp 10.62.140.10/32 10.62.16.32/32 eq 4000</t>
         </is>
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="inlineStr">
+      <c r="A412" s="2" t="inlineStr">
         <is>
           <t>386 permit tcp 10.62.140.19/32 10.62.16.32/32 eq 4000</t>
         </is>
@@ -12397,7 +12403,7 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" t="inlineStr">
+      <c r="A421" s="2" t="inlineStr">
         <is>
           <t>186 permit tcp 10.62.170.2/32 10.62.16.32/32 eq 4000</t>
         </is>
@@ -12796,14 +12802,14 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" t="inlineStr">
+      <c r="A479" s="2" t="inlineStr">
         <is>
           <t>910 permit udp 10.62.171.0/24 10.62.16.53/32 eq domain</t>
         </is>
       </c>
     </row>
     <row r="480">
-      <c r="A480" t="inlineStr">
+      <c r="A480" s="2" t="inlineStr">
         <is>
           <t>911 permit tcp 10.62.171.0/24 10.62.16.53/32 eq domain</t>
         </is>
@@ -12852,7 +12858,7 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" t="inlineStr">
+      <c r="A488" s="2" t="inlineStr">
         <is>
           <t>52 permit tcp 10.62.200.88/32 10.62.0.0/16 eq 55888</t>
         </is>
@@ -13034,21 +13040,21 @@
       </c>
     </row>
     <row r="516">
-      <c r="A516" t="inlineStr">
+      <c r="A516" s="2" t="inlineStr">
         <is>
           <t>370 permit tcp 10.62.62.88/31 range www 443 10.62.16.0/30</t>
         </is>
       </c>
     </row>
     <row r="517">
-      <c r="A517" t="inlineStr">
+      <c r="A517" s="2" t="inlineStr">
         <is>
           <t>372 permit tcp 10.62.62.88/31 range www 443 10.62.16.110/32</t>
         </is>
       </c>
     </row>
     <row r="518">
-      <c r="A518" t="inlineStr">
+      <c r="A518" s="2" t="inlineStr">
         <is>
           <t>374 permit tcp 10.62.62.88/31 10.62.16.10/32 range www 443</t>
         </is>
@@ -13111,7 +13117,7 @@
       </c>
     </row>
     <row r="527">
-      <c r="A527" t="inlineStr">
+      <c r="A527" s="2" t="inlineStr">
         <is>
           <t>440 permit tcp 10.62.62.8/29 10.62.16.12/32 eq 13080</t>
         </is>
@@ -13244,14 +13250,14 @@
       </c>
     </row>
     <row r="546">
-      <c r="A546" t="inlineStr">
+      <c r="A546" s="2" t="inlineStr">
         <is>
           <t>910 permit udp 10.62.62.0/24 10.62.16.53/32 eq domain</t>
         </is>
       </c>
     </row>
     <row r="547">
-      <c r="A547" t="inlineStr">
+      <c r="A547" s="2" t="inlineStr">
         <is>
           <t>911 permit tcp 10.62.62.0/24 10.62.16.53/32 eq domain</t>
         </is>
@@ -14049,7 +14055,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>268 permit tcp 10.65.100.0/24 10.65.16.53/32 eq domain</t>
         </is>
@@ -14061,7 +14067,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>270 permit udp 10.65.100.0/24 10.65.16.53/32 eq domain</t>
         </is>
@@ -14178,7 +14184,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>302 permit tcp 10.65.100.128/28 10.65.16.30/32 range 4000 4001</t>
         </is>
@@ -14202,7 +14208,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>318 permit tcp 10.65.100.0/24 10.65.16.19/32 eq 17080</t>
         </is>
@@ -14601,7 +14607,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83" s="2" t="inlineStr">
         <is>
           <t>284 permit tcp 10.65.108.63/32 10.65.16.91/32 eq 6443</t>
         </is>
@@ -14622,7 +14628,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86" s="2" t="inlineStr">
         <is>
           <t>290 permit tcp 10.65.108.63/32 10.65.16.93/32 eq 6443</t>
         </is>
@@ -14650,7 +14656,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" s="2" t="inlineStr">
         <is>
           <t>302 permit tcp 10.65.108.63/32 10.65.16.31/32 eq 6443</t>
         </is>
@@ -14881,7 +14887,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
+      <c r="A124" s="2" t="inlineStr">
         <is>
           <t>390 permit tcp 10.65.110.240/30 10.65.16.12/32 eq 13080</t>
         </is>
@@ -15126,7 +15132,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
+      <c r="A160" s="2" t="inlineStr">
         <is>
           <t>162 permit tcp 10.65.120.110/32 10.65.16.12/32 eq 13080</t>
         </is>
@@ -15210,7 +15216,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
+      <c r="A172" s="2" t="inlineStr">
         <is>
           <t>272 permit tcp 10.65.120.11/32 10.65.16.12/32 eq 13080</t>
         </is>
@@ -15616,7 +15622,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr">
+      <c r="A230" s="2" t="inlineStr">
         <is>
           <t>432 permit tcp 10.65.120.91/32 10.65.16.12/32</t>
         </is>
@@ -16988,35 +16994,35 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" t="inlineStr">
+      <c r="A431" s="2" t="inlineStr">
         <is>
           <t>166 permit tcp 10.65.231.0/28 10.65.16.12/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="432">
-      <c r="A432" t="inlineStr">
+      <c r="A432" s="2" t="inlineStr">
         <is>
           <t>168 permit tcp 10.65.231.0/28 10.65.16.41/32 eq 8080</t>
         </is>
       </c>
     </row>
     <row r="433">
-      <c r="A433" t="inlineStr">
+      <c r="A433" s="2" t="inlineStr">
         <is>
           <t>174 permit tcp 10.65.231.0/24 10.65.16.31/32 eq 6443</t>
         </is>
       </c>
     </row>
     <row r="434">
-      <c r="A434" t="inlineStr">
+      <c r="A434" s="2" t="inlineStr">
         <is>
           <t>178 permit tcp 10.65.231.0/30 eq 6443 10.65.16.0/24</t>
         </is>
       </c>
     </row>
     <row r="435">
-      <c r="A435" t="inlineStr">
+      <c r="A435" s="2" t="inlineStr">
         <is>
           <t>180 permit tcp 10.65.231.4/31 eq www 10.65.16.0/24</t>
         </is>
@@ -17373,7 +17379,7 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" t="inlineStr">
+      <c r="A486" s="2" t="inlineStr">
         <is>
           <t>310 permit tcp 10.65.231.0/28 10.65.16.17/32 eq 9980</t>
         </is>
@@ -17401,14 +17407,14 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" t="inlineStr">
+      <c r="A490" s="2" t="inlineStr">
         <is>
           <t>332 permit tcp 10.65.231.1/28 10.65.16.11/32 eq www</t>
         </is>
       </c>
     </row>
     <row r="491">
-      <c r="A491" t="inlineStr">
+      <c r="A491" s="2" t="inlineStr">
         <is>
           <t>340 permit tcp 10.65.231.0/28 10.65.16.32/32 eq www</t>
         </is>
@@ -17464,7 +17470,7 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" t="inlineStr">
+      <c r="A501" s="2" t="inlineStr">
         <is>
           <t>70 permit tcp 10.65.62.12/32 eq 17000 10.65.0.0/16</t>
         </is>
@@ -17632,7 +17638,7 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" t="inlineStr">
+      <c r="A525" s="2" t="inlineStr">
         <is>
           <t>909 deny udp 10.65.62.32/31 10.65.16.53/32 eq domain</t>
         </is>
@@ -18045,7 +18051,7 @@
       </c>
     </row>
     <row r="585">
-      <c r="A585" t="inlineStr">
+      <c r="A585" s="2" t="inlineStr">
         <is>
           <t>909 deny tcp 10.65.63.55/32 10.65.16.53/32 eq domain</t>
         </is>
@@ -18208,7 +18214,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>166 permit ip 10.66.100.0/24 10.66.16.0/24</t>
         </is>
@@ -18349,7 +18355,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>200 permit tcp 10.66.100.192/27 10.66.16.41/32 eq 8080</t>
         </is>
@@ -18361,7 +18367,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>202 permit tcp 10.66.100.224/32 10.66.16.41/32 eq 8080</t>
         </is>
@@ -19046,84 +19052,84 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="A110" s="2" t="inlineStr">
         <is>
           <t>54 permit tcp 10.66.106.0/29 eq 13080 10.66.16.0/29</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="A111" s="2" t="inlineStr">
         <is>
           <t>56 permit tcp 10.66.106.0/29 eq 13080 10.66.16.112/32</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="A112" s="2" t="inlineStr">
         <is>
           <t>58 permit tcp 10.66.106.0/29 eq 33080 10.66.16.0/29</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="A113" s="2" t="inlineStr">
         <is>
           <t>60 permit tcp 10.66.106.0/29 eq 33080 10.66.16.112/32</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="A114" s="2" t="inlineStr">
         <is>
           <t>70 permit tcp 10.66.106.0/28 10.66.16.0/30</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="A115" s="2" t="inlineStr">
         <is>
           <t>72 permit tcp 10.66.106.0/28 10.66.16.111/32</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="A116" s="2" t="inlineStr">
         <is>
           <t>74 permit tcp 10.66.106.0/28 10.66.16.112/30</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="A117" s="2" t="inlineStr">
         <is>
           <t>76 permit tcp 10.66.106.48/28 10.66.16.0/30</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="A118" s="2" t="inlineStr">
         <is>
           <t>78 permit tcp 10.66.106.48/28 10.66.16.111/32</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
+      <c r="A119" s="2" t="inlineStr">
         <is>
           <t>80 permit tcp 10.66.106.48/28 10.66.16.112/30</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="A120" s="2" t="inlineStr">
         <is>
           <t>82 permit tcp 10.66.106.0/28 eq www 10.66.16.0/24</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
+      <c r="A121" s="2" t="inlineStr">
         <is>
           <t>84 permit tcp 10.66.106.48/28 eq www 10.66.16.0/24</t>
         </is>
@@ -19172,7 +19178,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="A128" s="2" t="inlineStr">
         <is>
           <t>182 permit ip 10.66.106.32/30 10.66.16.0/24</t>
         </is>
@@ -19214,7 +19220,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="A134" s="2" t="inlineStr">
         <is>
           <t>280 permit ip 10.66.106.21/28 10.66.16.0/24</t>
         </is>
@@ -19319,7 +19325,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
+      <c r="A149" s="2" t="inlineStr">
         <is>
           <t>332 permit tcp 10.66.106.12/31 10.66.16.92/32 eq www</t>
         </is>
@@ -19459,7 +19465,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
+      <c r="A170" s="2" t="inlineStr">
         <is>
           <t>60 permit tcp 10.66.108.60/32 10.66.7.0/24 eq 443</t>
         </is>
@@ -19473,7 +19479,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
+      <c r="A172" s="2" t="inlineStr">
         <is>
           <t>74 permit tcp 10.66.108.62/32 10.66.16.53/32 eq domain</t>
         </is>
@@ -19543,7 +19549,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
+      <c r="A182" s="2" t="inlineStr">
         <is>
           <t>164 permit ip 10.66.108.63/32 10.66.16.0/24</t>
         </is>
@@ -19732,14 +19738,14 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
+      <c r="A209" s="2" t="inlineStr">
         <is>
           <t>232 permit tcp 10.66.108.61/32 10.66.16.103/32 eq 6443</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
+      <c r="A210" s="2" t="inlineStr">
         <is>
           <t>234 permit tcp 10.66.108.61/32 10.66.16.104/32 eq 6443</t>
         </is>
@@ -21139,21 +21145,21 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="inlineStr">
+      <c r="A412" s="2" t="inlineStr">
         <is>
           <t>338 permit tcp 10.66.120.81/32 10.66.16.12/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="413">
-      <c r="A413" t="inlineStr">
+      <c r="A413" s="2" t="inlineStr">
         <is>
           <t>352 permit tcp 10.66.120.80/32 10.66.16.12/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="414">
-      <c r="A414" t="inlineStr">
+      <c r="A414" s="2" t="inlineStr">
         <is>
           <t>356 permit tcp 10.66.120.6/32 10.66.16.12/32 eq 13080</t>
         </is>
@@ -21363,7 +21369,7 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" t="inlineStr">
+      <c r="A444" s="2" t="inlineStr">
         <is>
           <t>448 permit tcp 10.66.120.50/31 10.66.16.12/32</t>
         </is>
@@ -21692,14 +21698,14 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" t="inlineStr">
+      <c r="A493" s="2" t="inlineStr">
         <is>
           <t>228 permit tcp 10.66.170.0/30 10.66.16.12/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" t="inlineStr">
+      <c r="A494" s="2" t="inlineStr">
         <is>
           <t>230 permit tcp 10.66.170.0/30 10.66.16.17/32 eq 8880</t>
         </is>
@@ -21720,7 +21726,7 @@
       </c>
     </row>
     <row r="497">
-      <c r="A497" t="inlineStr">
+      <c r="A497" s="2" t="inlineStr">
         <is>
           <t>238 permit tcp 10.66.170.0/30 10.66.16.17/32 eq 9980</t>
         </is>
@@ -21965,7 +21971,7 @@
       </c>
     </row>
     <row r="534">
-      <c r="A534" t="inlineStr">
+      <c r="A534" s="2" t="inlineStr">
         <is>
           <t>60 permit tcp 10.66.201.0/26 10.66.16.53/32 eq domain</t>
         </is>
@@ -22182,7 +22188,7 @@
       </c>
     </row>
     <row r="565">
-      <c r="A565" t="inlineStr">
+      <c r="A565" s="2" t="inlineStr">
         <is>
           <t>224 permit tcp 10.66.201.0/24 10.66.16.141/32 eq 8080</t>
         </is>
@@ -22245,7 +22251,7 @@
       </c>
     </row>
     <row r="574">
-      <c r="A574" t="inlineStr">
+      <c r="A574" s="2" t="inlineStr">
         <is>
           <t>242 permit tcp 10.66.201.0/26 10.66.16.92/32 eq www</t>
         </is>
@@ -22266,21 +22272,21 @@
       </c>
     </row>
     <row r="577">
-      <c r="A577" t="inlineStr">
+      <c r="A577" s="2" t="inlineStr">
         <is>
           <t>248 permit tcp 10.66.201.0/26 10.66.16.12/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="578">
-      <c r="A578" t="inlineStr">
+      <c r="A578" s="2" t="inlineStr">
         <is>
           <t>250 permit tcp 10.66.201.0/26 10.66.16.12/32 eq 33080</t>
         </is>
       </c>
     </row>
     <row r="579">
-      <c r="A579" t="inlineStr">
+      <c r="A579" s="2" t="inlineStr">
         <is>
           <t>252 permit tcp 10.66.201.0/26 10.66.16.6/32 eq 10000</t>
         </is>
@@ -22308,14 +22314,14 @@
       </c>
     </row>
     <row r="583">
-      <c r="A583" t="inlineStr">
+      <c r="A583" s="2" t="inlineStr">
         <is>
           <t>274 permit tcp 10.66.201.0/26 10.66.16.13/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="584">
-      <c r="A584" t="inlineStr">
+      <c r="A584" s="2" t="inlineStr">
         <is>
           <t>276 permit tcp 10.66.201.0/26 10.66.16.13/32 eq 33080</t>
         </is>
@@ -22357,14 +22363,14 @@
       </c>
     </row>
     <row r="590">
-      <c r="A590" t="inlineStr">
+      <c r="A590" s="2" t="inlineStr">
         <is>
           <t>302 permit tcp 10.66.201.19/29 eq www 10.66.16.1/30</t>
         </is>
       </c>
     </row>
     <row r="591">
-      <c r="A591" t="inlineStr">
+      <c r="A591" s="2" t="inlineStr">
         <is>
           <t>304 permit tcp 10.66.201.19/29 eq 443 10.66.16.1/30</t>
         </is>
@@ -22637,7 +22643,7 @@
       </c>
     </row>
     <row r="631">
-      <c r="A631" t="inlineStr">
+      <c r="A631" s="2" t="inlineStr">
         <is>
           <t>200 permit tcp 10.66.203.5/32 eq www 10.66.16.1/30</t>
         </is>
@@ -22651,21 +22657,21 @@
       </c>
     </row>
     <row r="633">
-      <c r="A633" t="inlineStr">
+      <c r="A633" s="2" t="inlineStr">
         <is>
           <t>204 permit tcp 10.66.203.1/32 10.66.16.12/31 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="634">
-      <c r="A634" t="inlineStr">
+      <c r="A634" s="2" t="inlineStr">
         <is>
           <t>206 permit tcp 10.66.203.2/32 10.66.16.12/31 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="635">
-      <c r="A635" t="inlineStr">
+      <c r="A635" s="2" t="inlineStr">
         <is>
           <t>208 permit tcp 10.66.203.2/30 10.66.16.6/32 eq 10000</t>
         </is>
@@ -22714,21 +22720,21 @@
       </c>
     </row>
     <row r="643">
-      <c r="A643" t="inlineStr">
+      <c r="A643" s="2" t="inlineStr">
         <is>
           <t>166 permit ip 10.66.204.5/30 10.66.16.0/24</t>
         </is>
       </c>
     </row>
     <row r="644">
-      <c r="A644" t="inlineStr">
+      <c r="A644" s="2" t="inlineStr">
         <is>
           <t>168 permit tcp 10.66.204.1/30 eq www 10.66.16.1/30</t>
         </is>
       </c>
     </row>
     <row r="645">
-      <c r="A645" t="inlineStr">
+      <c r="A645" s="2" t="inlineStr">
         <is>
           <t>170 permit tcp 10.66.204.21/28 eq www 10.66.16.1/30</t>
         </is>
@@ -22896,49 +22902,49 @@
       </c>
     </row>
     <row r="670">
-      <c r="A670" t="inlineStr">
+      <c r="A670" s="2" t="inlineStr">
         <is>
           <t>174 permit tcp 10.66.231.6/31 eq 6443 10.66.16.1/30</t>
         </is>
       </c>
     </row>
     <row r="671">
-      <c r="A671" t="inlineStr">
+      <c r="A671" s="2" t="inlineStr">
         <is>
           <t>176 permit tcp 10.66.231.8/32 eq 6443 10.66.16.1/30</t>
         </is>
       </c>
     </row>
     <row r="672">
-      <c r="A672" t="inlineStr">
+      <c r="A672" s="2" t="inlineStr">
         <is>
           <t>178 permit tcp 10.66.231.31/32 eq 6443 10.66.16.1/30</t>
         </is>
       </c>
     </row>
     <row r="673">
-      <c r="A673" t="inlineStr">
+      <c r="A673" s="2" t="inlineStr">
         <is>
           <t>180 permit tcp 10.66.231.32/31 eq 6443 10.66.16.1/30</t>
         </is>
       </c>
     </row>
     <row r="674">
-      <c r="A674" t="inlineStr">
+      <c r="A674" s="2" t="inlineStr">
         <is>
           <t>182 permit tcp 10.66.231.19/29 eq 30080 10.66.16.1/30</t>
         </is>
       </c>
     </row>
     <row r="675">
-      <c r="A675" t="inlineStr">
+      <c r="A675" s="2" t="inlineStr">
         <is>
           <t>184 permit tcp 10.66.231.39/32 eq 30080 10.66.16.1/30</t>
         </is>
       </c>
     </row>
     <row r="676">
-      <c r="A676" t="inlineStr">
+      <c r="A676" s="2" t="inlineStr">
         <is>
           <t>186 permit tcp 10.66.231.40/32 eq 30080 10.66.16.1/30</t>
         </is>
@@ -23071,14 +23077,14 @@
       </c>
     </row>
     <row r="695">
-      <c r="A695" t="inlineStr">
+      <c r="A695" s="2" t="inlineStr">
         <is>
           <t>240 permit tcp 10.66.231.6/27 10.66.16.101/32 eq 8080</t>
         </is>
       </c>
     </row>
     <row r="696">
-      <c r="A696" t="inlineStr">
+      <c r="A696" s="2" t="inlineStr">
         <is>
           <t>242 permit tcp 10.66.231.32/29 10.66.16.101/32 eq 8080</t>
         </is>
@@ -23267,14 +23273,14 @@
       </c>
     </row>
     <row r="723">
-      <c r="A723" t="inlineStr">
+      <c r="A723" s="2" t="inlineStr">
         <is>
           <t>300 permit tcp 10.66.231.9/27 10.66.16.12/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="724">
-      <c r="A724" t="inlineStr">
+      <c r="A724" s="2" t="inlineStr">
         <is>
           <t>302 permit tcp 10.66.231.32/29 10.66.16.12/32 eq 13080</t>
         </is>
@@ -23295,7 +23301,7 @@
       </c>
     </row>
     <row r="727">
-      <c r="A727" t="inlineStr">
+      <c r="A727" s="2" t="inlineStr">
         <is>
           <t>316 permit tcp 10.66.231.0/26 10.66.16.6/32 eq 10000</t>
         </is>
@@ -23309,7 +23315,7 @@
       </c>
     </row>
     <row r="729">
-      <c r="A729" t="inlineStr">
+      <c r="A729" s="2" t="inlineStr">
         <is>
           <t>322 permit tcp 10.66.231.0/26 10.66.16.92/32 eq www</t>
         </is>
@@ -23358,35 +23364,35 @@
       </c>
     </row>
     <row r="737">
-      <c r="A737" t="inlineStr">
+      <c r="A737" s="2" t="inlineStr">
         <is>
           <t>166 permit tcp 10.66.234.3/32 eq 8070 10.66.16.1/30</t>
         </is>
       </c>
     </row>
     <row r="738">
-      <c r="A738" t="inlineStr">
+      <c r="A738" s="2" t="inlineStr">
         <is>
           <t>168 permit tcp 10.66.234.4/31 eq 8070 10.66.16.1/30</t>
         </is>
       </c>
     </row>
     <row r="739">
-      <c r="A739" t="inlineStr">
+      <c r="A739" s="2" t="inlineStr">
         <is>
           <t>170 permit tcp 10.66.234.16/29 eq www 10.66.16.1/30</t>
         </is>
       </c>
     </row>
     <row r="740">
-      <c r="A740" t="inlineStr">
+      <c r="A740" s="2" t="inlineStr">
         <is>
           <t>172 permit tcp 10.66.234.24/31 eq www 10.66.16.1/30</t>
         </is>
       </c>
     </row>
     <row r="741">
-      <c r="A741" t="inlineStr">
+      <c r="A741" s="2" t="inlineStr">
         <is>
           <t>174 permit tcp 10.66.234.0/29 eq 8080 10.66.16.0/30</t>
         </is>
@@ -23456,7 +23462,7 @@
       </c>
     </row>
     <row r="751">
-      <c r="A751" t="inlineStr">
+      <c r="A751" s="2" t="inlineStr">
         <is>
           <t>276 permit tcp 10.66.234.1/30 eq www 10.66.16.1/30</t>
         </is>
@@ -23603,7 +23609,7 @@
       </c>
     </row>
     <row r="774">
-      <c r="A774" t="inlineStr">
+      <c r="A774" s="2" t="inlineStr">
         <is>
           <t>58 permit tcp 10.66.62.32/31 10.66.7.0/24 eq 443</t>
         </is>
@@ -23638,7 +23644,7 @@
       </c>
     </row>
     <row r="779">
-      <c r="A779" t="inlineStr">
+      <c r="A779" s="2" t="inlineStr">
         <is>
           <t>90 permit tcp 10.66.62.12/32 eq 17000 10.66.0.0/16</t>
         </is>
@@ -23673,7 +23679,7 @@
       </c>
     </row>
     <row r="784">
-      <c r="A784" t="inlineStr">
+      <c r="A784" s="2" t="inlineStr">
         <is>
           <t>102 permit tcp 10.66.62.32/31 10.66.214.0/24 eq 443</t>
         </is>
@@ -23687,14 +23693,14 @@
       </c>
     </row>
     <row r="786">
-      <c r="A786" t="inlineStr">
+      <c r="A786" s="2" t="inlineStr">
         <is>
           <t>114 permit tcp 10.66.62.32/31 10.66.244.0/24 eq www</t>
         </is>
       </c>
     </row>
     <row r="787">
-      <c r="A787" t="inlineStr">
+      <c r="A787" s="2" t="inlineStr">
         <is>
           <t>116 permit tcp 10.66.62.32/31 10.66.244.0/24 eq 443</t>
         </is>
@@ -23708,7 +23714,7 @@
       </c>
     </row>
     <row r="789">
-      <c r="A789" t="inlineStr">
+      <c r="A789" s="2" t="inlineStr">
         <is>
           <t>120 permit tcp 10.66.62.32/31 10.66.7.200/32 eq 5480</t>
         </is>
@@ -23729,21 +23735,21 @@
       </c>
     </row>
     <row r="792">
-      <c r="A792" t="inlineStr">
+      <c r="A792" s="2" t="inlineStr">
         <is>
           <t>166 permit tcp 10.66.62.10/32 10.66.16.12/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="793">
-      <c r="A793" t="inlineStr">
+      <c r="A793" s="2" t="inlineStr">
         <is>
           <t>168 permit tcp 10.66.62.10/32 10.66.16.12/32 eq 33080</t>
         </is>
       </c>
     </row>
     <row r="794">
-      <c r="A794" t="inlineStr">
+      <c r="A794" s="2" t="inlineStr">
         <is>
           <t>176 permit tcp 10.66.62.12/32 10.66.16.12/32 eq 13080</t>
         </is>
@@ -23757,7 +23763,7 @@
       </c>
     </row>
     <row r="796">
-      <c r="A796" t="inlineStr">
+      <c r="A796" s="2" t="inlineStr">
         <is>
           <t>182 permit ip 10.66.62.33/32 10.66.16.0/24</t>
         </is>
@@ -23785,35 +23791,35 @@
       </c>
     </row>
     <row r="800">
-      <c r="A800" t="inlineStr">
+      <c r="A800" s="2" t="inlineStr">
         <is>
           <t>190 permit ip 10.66.62.88/31 10.66.16.10/32</t>
         </is>
       </c>
     </row>
     <row r="801">
-      <c r="A801" t="inlineStr">
+      <c r="A801" s="2" t="inlineStr">
         <is>
           <t>192 permit tcp 10.66.62.88/31 eq www 10.66.16.0/24</t>
         </is>
       </c>
     </row>
     <row r="802">
-      <c r="A802" t="inlineStr">
+      <c r="A802" s="2" t="inlineStr">
         <is>
           <t>196 permit tcp 10.66.62.88/31 10.66.16.0/30</t>
         </is>
       </c>
     </row>
     <row r="803">
-      <c r="A803" t="inlineStr">
+      <c r="A803" s="2" t="inlineStr">
         <is>
           <t>198 permit tcp 10.66.62.88/31 10.66.16.111/32</t>
         </is>
       </c>
     </row>
     <row r="804">
-      <c r="A804" t="inlineStr">
+      <c r="A804" s="2" t="inlineStr">
         <is>
           <t>200 permit tcp 10.66.62.88/31 10.66.16.112/30</t>
         </is>
@@ -23925,21 +23931,21 @@
       </c>
     </row>
     <row r="820">
-      <c r="A820" t="inlineStr">
+      <c r="A820" s="2" t="inlineStr">
         <is>
           <t>242 permit tcp 10.66.62.32/31 10.66.16.92/32 eq www</t>
         </is>
       </c>
     </row>
     <row r="821">
-      <c r="A821" t="inlineStr">
+      <c r="A821" s="2" t="inlineStr">
         <is>
           <t>244 permit tcp 10.66.62.32/31 10.66.16.92/32 eq 443</t>
         </is>
       </c>
     </row>
     <row r="822">
-      <c r="A822" t="inlineStr">
+      <c r="A822" s="2" t="inlineStr">
         <is>
           <t>246 permit tcp 10.66.62.32/31 10.66.16.92/32 range 8001 8002</t>
         </is>
@@ -24009,14 +24015,14 @@
       </c>
     </row>
     <row r="832">
-      <c r="A832" t="inlineStr">
+      <c r="A832" s="2" t="inlineStr">
         <is>
           <t>266 permit tcp 10.66.62.32/31 10.66.16.92/32 eq 8001</t>
         </is>
       </c>
     </row>
     <row r="833">
-      <c r="A833" t="inlineStr">
+      <c r="A833" s="2" t="inlineStr">
         <is>
           <t>268 permit tcp 10.66.62.32/31 10.66.16.92/32 eq 8002</t>
         </is>
@@ -24065,14 +24071,14 @@
       </c>
     </row>
     <row r="840">
-      <c r="A840" t="inlineStr">
+      <c r="A840" s="2" t="inlineStr">
         <is>
           <t>304 permit tcp 10.66.62.101/32 10.66.16.12/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="841">
-      <c r="A841" t="inlineStr">
+      <c r="A841" s="2" t="inlineStr">
         <is>
           <t>306 permit tcp 10.66.62.101/32 10.66.16.12/32 eq 33080</t>
         </is>
@@ -24268,7 +24274,7 @@
       </c>
     </row>
     <row r="869">
-      <c r="A869" t="inlineStr">
+      <c r="A869" s="2" t="inlineStr">
         <is>
           <t>372 permit tcp 10.66.62.201/32 10.66.16.12/32 eq 13080</t>
         </is>
@@ -24492,42 +24498,42 @@
       </c>
     </row>
     <row r="901">
-      <c r="A901" t="inlineStr">
+      <c r="A901" s="2" t="inlineStr">
         <is>
           <t>912 permit udp 10.66.62.24/30 eq domain 10.66.16.0/24</t>
         </is>
       </c>
     </row>
     <row r="902">
-      <c r="A902" t="inlineStr">
+      <c r="A902" s="2" t="inlineStr">
         <is>
           <t>914 permit tcp 10.66.62.24/30 eq domain 10.66.16.0/24</t>
         </is>
       </c>
     </row>
     <row r="903">
-      <c r="A903" t="inlineStr">
+      <c r="A903" s="2" t="inlineStr">
         <is>
           <t>916 permit udp 10.66.62.24/30 eq domain 10.66.16.1/30</t>
         </is>
       </c>
     </row>
     <row r="904">
-      <c r="A904" t="inlineStr">
+      <c r="A904" s="2" t="inlineStr">
         <is>
           <t>918 permit udp 10.66.62.24/30 eq ntp 10.66.16.1/30</t>
         </is>
       </c>
     </row>
     <row r="905">
-      <c r="A905" t="inlineStr">
+      <c r="A905" s="2" t="inlineStr">
         <is>
           <t>920 permit udp 10.66.62.24/30 eq domain 10.66.16.153/32</t>
         </is>
       </c>
     </row>
     <row r="906">
-      <c r="A906" t="inlineStr">
+      <c r="A906" s="2" t="inlineStr">
         <is>
           <t>922 permit udp 10.66.62.24/30 eq ntp 10.66.16.153/32</t>
         </is>
@@ -24562,7 +24568,7 @@
       </c>
     </row>
     <row r="912">
-      <c r="A912" t="inlineStr">
+      <c r="A912" s="2" t="inlineStr">
         <is>
           <t>82 permit tcp 10.66.63.63/32 10.66.16.12/32 eq 13080</t>
         </is>
@@ -24758,7 +24764,7 @@
       </c>
     </row>
     <row r="941">
-      <c r="A941" t="inlineStr">
+      <c r="A941" s="2" t="inlineStr">
         <is>
           <t>54 permit ip 10.66.7.200/32 10.66.214.0/24</t>
         </is>
@@ -24870,14 +24876,14 @@
       </c>
     </row>
     <row r="958">
-      <c r="A958" t="inlineStr">
+      <c r="A958" s="2" t="inlineStr">
         <is>
           <t>960 permit udp 10.66.92.0/24 10.66.16.53/32 eq ntp</t>
         </is>
       </c>
     </row>
     <row r="959">
-      <c r="A959" t="inlineStr">
+      <c r="A959" s="2" t="inlineStr">
         <is>
           <t>970 permit udp 10.66.92.0/24 10.66.16.53/32 eq domain</t>
         </is>
@@ -24905,7 +24911,7 @@
       </c>
     </row>
     <row r="965">
-      <c r="A965" t="inlineStr">
+      <c r="A965" s="2" t="inlineStr">
         <is>
           <t>72 deny ip 10.66.130.0/24 10.66.16.17/32</t>
         </is>
@@ -24919,7 +24925,7 @@
       </c>
     </row>
     <row r="967">
-      <c r="A967" t="inlineStr">
+      <c r="A967" s="2" t="inlineStr">
         <is>
           <t>198 permit tcp 10.66.130.0/24 10.66.16.0/24</t>
         </is>
@@ -25689,7 +25695,7 @@
       </c>
     </row>
     <row r="1078">
-      <c r="A1078" t="inlineStr">
+      <c r="A1078" s="2" t="inlineStr">
         <is>
           <t>468 permit tcp 10.66.211.61/32 10.66.16.12/32 eq 13080</t>
         </is>
@@ -26697,14 +26703,14 @@
       </c>
     </row>
     <row r="1223">
-      <c r="A1223" t="inlineStr">
+      <c r="A1223" s="2" t="inlineStr">
         <is>
           <t>422 permit tcp 10.66.212.59/32 10.66.16.12/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="1224">
-      <c r="A1224" t="inlineStr">
+      <c r="A1224" s="2" t="inlineStr">
         <is>
           <t>424 permit tcp 10.66.212.60/32 10.66.16.12/32 eq 13080</t>
         </is>
@@ -26732,7 +26738,7 @@
       </c>
     </row>
     <row r="1228">
-      <c r="A1228" t="inlineStr">
+      <c r="A1228" s="2" t="inlineStr">
         <is>
           <t>432 permit tcp 10.66.212.84/32 10.66.16.12/32 eq 13080</t>
         </is>
@@ -26753,7 +26759,7 @@
       </c>
     </row>
     <row r="1231">
-      <c r="A1231" t="inlineStr">
+      <c r="A1231" s="2" t="inlineStr">
         <is>
           <t>438 permit tcp 10.66.212.6/32 10.66.16.12/32 eq 13080</t>
         </is>
@@ -26802,7 +26808,7 @@
       </c>
     </row>
     <row r="1238">
-      <c r="A1238" t="inlineStr">
+      <c r="A1238" s="2" t="inlineStr">
         <is>
           <t>460 permit tcp 10.66.212.83/32 10.66.16.12/32 eq 13080</t>
         </is>
@@ -26865,7 +26871,7 @@
       </c>
     </row>
     <row r="1247">
-      <c r="A1247" t="inlineStr">
+      <c r="A1247" s="2" t="inlineStr">
         <is>
           <t>490 permit tcp 10.66.212.123/32 10.66.16.12/32 eq 13080</t>
         </is>
@@ -27334,7 +27340,7 @@
       </c>
     </row>
     <row r="1316">
-      <c r="A1316" t="inlineStr">
+      <c r="A1316" s="2" t="inlineStr">
         <is>
           <t>172 permit tcp 10.66.221.0/29 10.66.16.32/32 eq 4000</t>
         </is>
@@ -27348,7 +27354,7 @@
       </c>
     </row>
     <row r="1319">
-      <c r="A1319" t="inlineStr">
+      <c r="A1319" s="2" t="inlineStr">
         <is>
           <t>5 permit ip 10.66.223.0/24 10.66.16.0/24</t>
         </is>
@@ -27747,7 +27753,7 @@
       </c>
     </row>
     <row r="1378">
-      <c r="A1378" t="inlineStr">
+      <c r="A1378" s="2" t="inlineStr">
         <is>
           <t>168 permit tcp 10.66.242.140/30 10.66.16.12/32 eq 13080</t>
         </is>
@@ -27957,7 +27963,7 @@
       </c>
     </row>
     <row r="1408">
-      <c r="A1408" t="inlineStr">
+      <c r="A1408" s="2" t="inlineStr">
         <is>
           <t>270 permit tcp 10.66.242.141/32 10.66.16.12/32 eq 13080</t>
         </is>
@@ -28111,14 +28117,14 @@
       </c>
     </row>
     <row r="1430">
-      <c r="A1430" t="inlineStr">
+      <c r="A1430" s="2" t="inlineStr">
         <is>
           <t>354 permit tcp 10.66.242.132/32 10.66.16.12/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="1431">
-      <c r="A1431" t="inlineStr">
+      <c r="A1431" s="2" t="inlineStr">
         <is>
           <t>356 permit tcp 10.66.242.11/32 10.66.16.12/32 eq 13080</t>
         </is>
@@ -28188,7 +28194,7 @@
       </c>
     </row>
     <row r="1441">
-      <c r="A1441" t="inlineStr">
+      <c r="A1441" s="2" t="inlineStr">
         <is>
           <t>384 permit tcp 10.66.242.140/30 10.66.16.12/32 eq 13080</t>
         </is>

--- a/v12/LOG/ACLCrossCheckTask/20251129-同平台N9K ACL检查.xlsx
+++ b/v12/LOG/ACLCrossCheckTask/20251129-同平台N9K ACL检查.xlsx
@@ -24,7 +24,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -40,6 +40,11 @@
     <font>
       <name val="Calibri"/>
       <color rgb="00FFA500"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="000000FF"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -63,9 +68,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -474,7 +480,7 @@
           <t>162 permit tcp 10.10.100.31/32 eq 55888 10.10.108.63/32</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>permit tcp 10.10.15.0 0.0.0.255 eq www 443 5480 5900 10.10.62.32 0.0.0.1 log</t>
         </is>
@@ -486,7 +492,7 @@
           <t>164 permit tcp 10.10.100.32/30 eq 55888 10.10.108.63/32</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>permit tcp 10.10.150.0 0.0.0.255 eq www 443 5900 10.10.62.32 0.0.0.1 log</t>
         </is>
@@ -498,7 +504,7 @@
           <t>166 permit tcp 10.10.100.31/32 eq 50051 10.10.106.21/28</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>permit udp 10.10.15.0 0.0.0.255 eq snmp 10.10.62.8 0.0.0.7 log</t>
         </is>
@@ -510,14 +516,14 @@
           <t>168 permit tcp 10.10.100.32/30 eq 50051 10.10.106.21/28</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>permit udp 10.10.150.0 0.0.0.255 eq snmp 10.10.62.8 0.0.0.7 log</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>170 permit tcp 10.10.100.31/32 10.10.26.41/32 eq 8080</t>
         </is>
@@ -529,7 +535,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>172 permit tcp 10.10.100.32/30 10.10.26.41/32 eq 8080</t>
         </is>
@@ -601,7 +607,7 @@
           <t>98 permit tcp 10.10.106.48/28 10.10.62.104/30 eq 9092</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>permit tcp host 10.10.15.233 eq 22 host 10.10.108.60 log</t>
         </is>
@@ -613,21 +619,21 @@
           <t>100 permit tcp 10.10.106.48/28 10.10.62.104/32 eq 9092</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>permit tcp host 10.10.15.234 eq 22 host 10.10.108.60 log</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>156 permit ip 10.10.106.51/28 10.10.26.0/30</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>158 permit ip 10.10.106.0/27 10.10.26.0/30</t>
         </is>
@@ -639,31 +645,31 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>160 permit tcp 10.10.106.40/27 10.10.26.70/31 eq 30080</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>permit tcp 10.10.151.0 0.0.0.255 eq www 443 5900 10.10.62.32 0.0.0.1</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>162 permit tcp 10.10.106.40/27 10.10.26.70/31 eq 30443</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>permit udp 10.10.151.0 0.0.0.255 eq snmp 10.10.62.8 0.0.0.7</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>164 permit tcp 10.10.106.51/28 eq www 10.10.26.1/30</t>
         </is>
@@ -675,14 +681,14 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>166 permit tcp 10.10.106.12/30 eq www 10.10.26.1/30</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>168 permit tcp 10.10.106.1/29 eq 13080 10.10.26.1/30</t>
         </is>
@@ -694,24 +700,24 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>170 permit tcp 10.10.106.1/29 eq 33080 10.10.26.1/30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>permit tcp 10.10.152.0 0.0.0.255 eq www 443 5900 10.10.62.32 0.0.0.1 log</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>172 permit ip 10.10.106.14/31 10.10.26.1/30</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>permit udp 10.10.152.0 0.0.0.255 eq snmp 10.10.62.8 0.0.0.7 log</t>
         </is>
@@ -737,7 +743,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
+      <c r="A27" s="3" t="inlineStr">
         <is>
           <t>184 permit ip 10.10.106.0/27 10.10.26.0/30</t>
         </is>
@@ -749,31 +755,31 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
+      <c r="A28" s="3" t="inlineStr">
         <is>
           <t>186 permit ip 10.10.106.51/28 10.10.26.0/30</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>permit tcp 10.10.153.0 0.0.0.255 eq www 443 5900 10.10.62.32 0.0.0.1 log</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
+      <c r="A29" s="3" t="inlineStr">
         <is>
           <t>188 permit tcp 10.10.106.16/30 eq www 10.10.26.0/30</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>permit udp 10.10.153.0 0.0.0.255 eq snmp 10.10.62.8 0.0.0.7 log</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
+      <c r="A30" s="3" t="inlineStr">
         <is>
           <t>190 permit tcp 10.10.106.16/30 eq www 10.10.26.60/32</t>
         </is>
@@ -785,14 +791,14 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
+      <c r="A31" s="3" t="inlineStr">
         <is>
           <t>204 permit icmp 10.10.106.32/30 10.10.26.1/30</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
+      <c r="A32" s="3" t="inlineStr">
         <is>
           <t>206 permit tcp 10.10.106.32/30 eq 8080 10.10.26.1/30</t>
         </is>
@@ -931,7 +937,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>238 permit tcp 10.10.106.12/31 10.10.26.70/31 eq 30080</t>
         </is>
@@ -1022,7 +1028,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr">
+      <c r="A52" s="3" t="inlineStr">
         <is>
           <t>286 permit tcp 10.10.106.1/29 10.10.26.180/32 eq 10000</t>
         </is>
@@ -1077,7 +1083,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="inlineStr">
+      <c r="A58" s="3" t="inlineStr">
         <is>
           <t>44 permit tcp 10.10.108.60/32 10.10.5.0/24 eq 443</t>
         </is>
@@ -1133,7 +1139,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="inlineStr">
+      <c r="A66" s="3" t="inlineStr">
         <is>
           <t>162 permit tcp 10.10.108.63/32 10.10.26.70/31 eq 6443</t>
         </is>
@@ -2232,14 +2238,14 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="inlineStr">
+      <c r="A225" s="3" t="inlineStr">
         <is>
           <t>226 permit tcp 10.10.120.117/32 10.10.26.59/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="2" t="inlineStr">
+      <c r="A226" s="3" t="inlineStr">
         <is>
           <t>228 permit tcp 10.10.120.118/32 10.10.26.59/32 eq 13080</t>
         </is>
@@ -2470,21 +2476,21 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="2" t="inlineStr">
+      <c r="A259" s="3" t="inlineStr">
         <is>
           <t>306 permit tcp 10.10.120.111/32 10.10.26.59/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="2" t="inlineStr">
+      <c r="A260" s="3" t="inlineStr">
         <is>
           <t>308 permit tcp 10.10.120.112/32 10.10.26.59/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="2" t="inlineStr">
+      <c r="A261" s="3" t="inlineStr">
         <is>
           <t>310 permit tcp 10.10.120.21/32 10.10.26.59/32 eq 13080</t>
         </is>
@@ -2890,14 +2896,14 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="2" t="inlineStr">
+      <c r="A320" s="3" t="inlineStr">
         <is>
           <t>18 permit ip 10.10.128.0/24 10.10.26.0/24</t>
         </is>
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="2" t="inlineStr">
+      <c r="A321" s="3" t="inlineStr">
         <is>
           <t>20 permit ip 10.10.128.11/29 10.10.26.1/30</t>
         </is>
@@ -2911,84 +2917,84 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="2" t="inlineStr">
+      <c r="A323" s="3" t="inlineStr">
         <is>
           <t>164 permit tcp 10.10.128.11/29 eq 6443 10.10.26.70/32</t>
         </is>
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="2" t="inlineStr">
+      <c r="A324" s="3" t="inlineStr">
         <is>
           <t>166 permit tcp 10.10.128.6/31 eq 30080 10.10.26.1/30</t>
         </is>
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="2" t="inlineStr">
+      <c r="A325" s="3" t="inlineStr">
         <is>
           <t>168 permit tcp 10.10.128.6/31 eq 30080 10.10.26.70/32</t>
         </is>
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="2" t="inlineStr">
+      <c r="A326" s="3" t="inlineStr">
         <is>
           <t>170 permit tcp 10.10.128.8/30 eq 30080 10.10.26.1/30</t>
         </is>
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="2" t="inlineStr">
+      <c r="A327" s="3" t="inlineStr">
         <is>
           <t>172 permit tcp 10.10.128.8/30 eq 30080 10.10.26.70/32</t>
         </is>
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="2" t="inlineStr">
+      <c r="A328" s="3" t="inlineStr">
         <is>
           <t>174 permit tcp 10.10.128.6/31 eq 30443 10.10.26.1/30</t>
         </is>
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="2" t="inlineStr">
+      <c r="A329" s="3" t="inlineStr">
         <is>
           <t>176 permit tcp 10.10.128.6/31 eq 30443 10.10.26.70/32</t>
         </is>
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="2" t="inlineStr">
+      <c r="A330" s="3" t="inlineStr">
         <is>
           <t>178 permit tcp 10.10.128.8/30 eq 30443 10.10.26.1/30</t>
         </is>
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="2" t="inlineStr">
+      <c r="A331" s="3" t="inlineStr">
         <is>
           <t>180 permit tcp 10.10.128.8/30 eq 30443 10.10.26.70/32</t>
         </is>
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="2" t="inlineStr">
+      <c r="A332" s="3" t="inlineStr">
         <is>
           <t>182 permit tcp 10.10.128.61/30 eq 6443 10.10.26.1/30</t>
         </is>
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="2" t="inlineStr">
+      <c r="A333" s="3" t="inlineStr">
         <is>
           <t>184 permit tcp 10.10.128.61/30 eq 6443 10.10.26.71/32</t>
         </is>
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="2" t="inlineStr">
+      <c r="A334" s="3" t="inlineStr">
         <is>
           <t>186 permit ip 10.10.128.56/29 10.10.26.1/30</t>
         </is>
@@ -3037,7 +3043,7 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="2" t="inlineStr">
+      <c r="A341" s="3" t="inlineStr">
         <is>
           <t>210 permit ip 10.10.128.0/24 10.10.26.0/24</t>
         </is>
@@ -3457,42 +3463,42 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="2" t="inlineStr">
+      <c r="A401" s="3" t="inlineStr">
         <is>
           <t>364 permit tcp 10.10.128.14/31 10.10.14.102/31 eq 9092</t>
         </is>
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="2" t="inlineStr">
+      <c r="A402" s="3" t="inlineStr">
         <is>
           <t>366 permit tcp 10.10.128.16/28 10.10.14.102/31 eq 9092</t>
         </is>
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="2" t="inlineStr">
+      <c r="A403" s="3" t="inlineStr">
         <is>
           <t>368 permit tcp 10.10.128.14/31 10.10.14.104/32 eq 9092</t>
         </is>
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="2" t="inlineStr">
+      <c r="A404" s="3" t="inlineStr">
         <is>
           <t>370 permit tcp 10.10.128.16/28 10.10.14.104/32 eq 9092</t>
         </is>
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="2" t="inlineStr">
+      <c r="A405" s="3" t="inlineStr">
         <is>
           <t>372 permit tcp 10.10.128.64/28 10.10.14.104/32 eq 9092</t>
         </is>
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="2" t="inlineStr">
+      <c r="A406" s="3" t="inlineStr">
         <is>
           <t>374 permit tcp 10.10.128.64/28 10.10.14.102/31 eq 9092</t>
         </is>
@@ -3646,7 +3652,7 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" s="2" t="inlineStr">
+      <c r="A430" s="3" t="inlineStr">
         <is>
           <t>60 permit tcp 10.10.170.10/31 eq www 10.10.26.1/30</t>
         </is>
@@ -3779,14 +3785,14 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="2" t="inlineStr">
+      <c r="A449" s="3" t="inlineStr">
         <is>
           <t>202 permit tcp 10.10.170.0/29 10.10.26.59/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="2" t="inlineStr">
+      <c r="A450" s="3" t="inlineStr">
         <is>
           <t>204 permit tcp 10.10.170.8/32 10.10.26.59/32 eq 13080</t>
         </is>
@@ -3821,14 +3827,14 @@
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="2" t="inlineStr">
+      <c r="A455" s="3" t="inlineStr">
         <is>
           <t>220 permit tcp 10.10.170.1/30 10.10.26.180/32 eq 10000</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="2" t="inlineStr">
+      <c r="A456" s="3" t="inlineStr">
         <is>
           <t>222 permit tcp 10.10.170.1/30 10.10.26.180/32 eq www</t>
         </is>
@@ -3849,7 +3855,7 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="2" t="inlineStr">
+      <c r="A459" s="3" t="inlineStr">
         <is>
           <t>920 permit icmp 10.10.170.10/31 10.10.26.1/30</t>
         </is>
@@ -3989,14 +3995,14 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" s="2" t="inlineStr">
+      <c r="A481" s="3" t="inlineStr">
         <is>
           <t>158 permit ip 10.10.180.0/24 10.10.26.0/24</t>
         </is>
       </c>
     </row>
     <row r="482">
-      <c r="A482" s="2" t="inlineStr">
+      <c r="A482" s="3" t="inlineStr">
         <is>
           <t>168 permit tcp 10.10.180.36/30 eq 5895 10.10.26.1/30</t>
         </is>
@@ -4017,14 +4023,14 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" s="2" t="inlineStr">
+      <c r="A485" s="3" t="inlineStr">
         <is>
           <t>344 permit tcp 10.10.180.36/30 eq 5893 10.10.26.0/24</t>
         </is>
       </c>
     </row>
     <row r="486">
-      <c r="A486" s="2" t="inlineStr">
+      <c r="A486" s="3" t="inlineStr">
         <is>
           <t>346 permit tcp 10.10.180.36/32 eq 5895 10.10.26.0/24</t>
         </is>
@@ -4059,7 +4065,7 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="2" t="inlineStr">
+      <c r="A492" s="3" t="inlineStr">
         <is>
           <t>160 permit ip 10.10.181.24/30 10.10.26.0/24</t>
         </is>
@@ -4073,7 +4079,7 @@
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="2" t="inlineStr">
+      <c r="A494" s="3" t="inlineStr">
         <is>
           <t>310 permit udp 10.10.181.21/32 eq domain 10.10.17.0/24</t>
         </is>
@@ -4192,21 +4198,21 @@
       </c>
     </row>
     <row r="513">
-      <c r="A513" s="2" t="inlineStr">
+      <c r="A513" s="3" t="inlineStr">
         <is>
           <t>200 permit ip 10.10.217.86/32 10.10.26.0/24</t>
         </is>
       </c>
     </row>
     <row r="514">
-      <c r="A514" s="2" t="inlineStr">
+      <c r="A514" s="3" t="inlineStr">
         <is>
           <t>202 permit ip 10.10.217.87/32 10.10.26.0/24</t>
         </is>
       </c>
     </row>
     <row r="515">
-      <c r="A515" s="2" t="inlineStr">
+      <c r="A515" s="3" t="inlineStr">
         <is>
           <t>204 permit ip 10.10.217.88/32 10.10.26.0/24</t>
         </is>
@@ -4220,7 +4226,7 @@
       </c>
     </row>
     <row r="517">
-      <c r="A517" s="2" t="inlineStr">
+      <c r="A517" s="3" t="inlineStr">
         <is>
           <t>412 permit udp 10.10.217.86/30 10.10.11.121/29 eq domain</t>
         </is>
@@ -4241,7 +4247,7 @@
       </c>
     </row>
     <row r="521">
-      <c r="A521" s="2" t="inlineStr">
+      <c r="A521" s="3" t="inlineStr">
         <is>
           <t>10 permit ip 10.10.62.88/31 10.10.26.1/30</t>
         </is>
@@ -4311,70 +4317,70 @@
       </c>
     </row>
     <row r="531">
-      <c r="A531" s="2" t="inlineStr">
+      <c r="A531" s="3" t="inlineStr">
         <is>
           <t>162 permit ip 10.10.62.24/30 10.10.26.0/30</t>
         </is>
       </c>
     </row>
     <row r="532">
-      <c r="A532" t="inlineStr">
+      <c r="A532" s="2" t="inlineStr">
         <is>
           <t>164 permit tcp 10.10.62.32/31 10.10.150.0/23 eq www</t>
         </is>
       </c>
     </row>
     <row r="533">
-      <c r="A533" t="inlineStr">
+      <c r="A533" s="2" t="inlineStr">
         <is>
           <t>166 permit tcp 10.10.62.32/31 10.10.150.0/23 eq 443</t>
         </is>
       </c>
     </row>
     <row r="534">
-      <c r="A534" t="inlineStr">
+      <c r="A534" s="2" t="inlineStr">
         <is>
           <t>168 permit tcp 10.10.62.32/31 10.10.150.0/23 eq 5900</t>
         </is>
       </c>
     </row>
     <row r="535">
-      <c r="A535" t="inlineStr">
+      <c r="A535" s="2" t="inlineStr">
         <is>
           <t>170 permit tcp 10.10.62.32/31 10.10.152.0/23 eq www</t>
         </is>
       </c>
     </row>
     <row r="536">
-      <c r="A536" t="inlineStr">
+      <c r="A536" s="2" t="inlineStr">
         <is>
           <t>172 permit tcp 10.10.62.32/31 10.10.152.0/23 eq 443</t>
         </is>
       </c>
     </row>
     <row r="537">
-      <c r="A537" t="inlineStr">
+      <c r="A537" s="2" t="inlineStr">
         <is>
           <t>174 permit tcp 10.10.62.32/31 10.10.152.0/23 eq 5900</t>
         </is>
       </c>
     </row>
     <row r="538">
-      <c r="A538" s="2" t="inlineStr">
+      <c r="A538" s="3" t="inlineStr">
         <is>
           <t>176 permit tcp 10.10.62.32/31 10.10.5.0/24 eq www</t>
         </is>
       </c>
     </row>
     <row r="539">
-      <c r="A539" s="2" t="inlineStr">
+      <c r="A539" s="3" t="inlineStr">
         <is>
           <t>178 permit tcp 10.10.62.32/31 10.10.5.0/24 eq 443</t>
         </is>
       </c>
     </row>
     <row r="540">
-      <c r="A540" s="2" t="inlineStr">
+      <c r="A540" s="3" t="inlineStr">
         <is>
           <t>180 permit tcp 10.10.62.32/31 10.10.5.0/24 eq 5480</t>
         </is>
@@ -4444,14 +4450,14 @@
       </c>
     </row>
     <row r="550">
-      <c r="A550" s="2" t="inlineStr">
+      <c r="A550" s="3" t="inlineStr">
         <is>
           <t>202 permit tcp 10.10.62.101/32 10.10.26.59/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="551">
-      <c r="A551" s="2" t="inlineStr">
+      <c r="A551" s="3" t="inlineStr">
         <is>
           <t>204 permit tcp 10.10.62.101/32 10.10.26.59/32 eq 33080</t>
         </is>
@@ -4472,7 +4478,7 @@
       </c>
     </row>
     <row r="554">
-      <c r="A554" s="2" t="inlineStr">
+      <c r="A554" s="3" t="inlineStr">
         <is>
           <t>402 permit tcp 10.10.62.88/31 10.10.26.70/31 eq 30080</t>
         </is>
@@ -4500,35 +4506,35 @@
       </c>
     </row>
     <row r="558">
-      <c r="A558" t="inlineStr">
+      <c r="A558" s="2" t="inlineStr">
         <is>
           <t>514 permit udp 10.10.62.8/29 10.10.15.0/24 eq snmp</t>
         </is>
       </c>
     </row>
     <row r="559">
-      <c r="A559" t="inlineStr">
+      <c r="A559" s="2" t="inlineStr">
         <is>
           <t>516 permit udp 10.10.62.8/29 10.10.150.0/24 eq snmp</t>
         </is>
       </c>
     </row>
     <row r="560">
-      <c r="A560" t="inlineStr">
+      <c r="A560" s="2" t="inlineStr">
         <is>
           <t>518 permit udp 10.10.62.8/29 10.10.151.0/24 eq snmp</t>
         </is>
       </c>
     </row>
     <row r="561">
-      <c r="A561" t="inlineStr">
+      <c r="A561" s="2" t="inlineStr">
         <is>
           <t>520 permit udp 10.10.62.8/29 10.10.152.0/24 eq snmp</t>
         </is>
       </c>
     </row>
     <row r="562">
-      <c r="A562" t="inlineStr">
+      <c r="A562" s="2" t="inlineStr">
         <is>
           <t>522 permit udp 10.10.62.8/29 10.10.153.0/24 eq snmp</t>
         </is>
@@ -4542,14 +4548,14 @@
       </c>
     </row>
     <row r="564">
-      <c r="A564" t="inlineStr">
+      <c r="A564" s="2" t="inlineStr">
         <is>
           <t>650 permit tcp 10.10.62.32/31 10.10.15.0/24 eq 443</t>
         </is>
       </c>
     </row>
     <row r="565">
-      <c r="A565" t="inlineStr">
+      <c r="A565" s="2" t="inlineStr">
         <is>
           <t>652 permit tcp 10.10.62.32/31 10.10.15.0/24 eq 5900</t>
         </is>
@@ -4570,7 +4576,7 @@
       </c>
     </row>
     <row r="568">
-      <c r="A568" s="2" t="inlineStr">
+      <c r="A568" s="3" t="inlineStr">
         <is>
           <t>736 permit tcp 10.10.62.32/31 10.10.19.0/24 eq 443</t>
         </is>
@@ -4591,21 +4597,21 @@
       </c>
     </row>
     <row r="571">
-      <c r="A571" s="2" t="inlineStr">
+      <c r="A571" s="3" t="inlineStr">
         <is>
           <t>786 permit tcp 10.10.62.10/32 10.10.26.59/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="572">
-      <c r="A572" s="2" t="inlineStr">
+      <c r="A572" s="3" t="inlineStr">
         <is>
           <t>824 permit udp 10.10.62.32/31 10.10.26.53/32 eq ntp</t>
         </is>
       </c>
     </row>
     <row r="573">
-      <c r="A573" s="2" t="inlineStr">
+      <c r="A573" s="3" t="inlineStr">
         <is>
           <t>826 permit tcp 10.10.62.88/31 eq www 10.10.26.1/30</t>
         </is>
@@ -4703,28 +4709,28 @@
       </c>
     </row>
     <row r="587">
-      <c r="A587" s="2" t="inlineStr">
+      <c r="A587" s="3" t="inlineStr">
         <is>
           <t>910 permit tcp 10.10.62.24/30 eq domain 10.10.26.0/30</t>
         </is>
       </c>
     </row>
     <row r="588">
-      <c r="A588" s="2" t="inlineStr">
+      <c r="A588" s="3" t="inlineStr">
         <is>
           <t>912 permit udp 10.10.62.24/30 eq domain 10.10.26.0/30</t>
         </is>
       </c>
     </row>
     <row r="589">
-      <c r="A589" s="2" t="inlineStr">
+      <c r="A589" s="3" t="inlineStr">
         <is>
           <t>914 permit udp 10.10.62.24/30 eq ntp 10.10.26.0/30</t>
         </is>
       </c>
     </row>
     <row r="590">
-      <c r="A590" s="2" t="inlineStr">
+      <c r="A590" s="3" t="inlineStr">
         <is>
           <t>916 permit ip 10.10.62.24/30 10.10.26.0/30</t>
         </is>
@@ -4801,7 +4807,7 @@
       </c>
     </row>
     <row r="602">
-      <c r="A602" s="2" t="inlineStr">
+      <c r="A602" s="3" t="inlineStr">
         <is>
           <t>418 permit udp 10.10.63.55/32 10.10.26.53/32 eq ntp</t>
         </is>
@@ -5028,7 +5034,7 @@
           <t>60 permit tcp 10.6.108.0/24 10.6.62.66/32 eq www log</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>permit udp 10.6.15.0 0.0.0.255 eq snmp 10.6.62.8 0.0.0.7 log</t>
         </is>
@@ -5040,7 +5046,7 @@
           <t>68 permit tcp 10.6.108.0/24 10.6.62.11/32 eq 16000 log</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>permit udp 10.6.150.0 0.0.0.255 eq snmp 10.6.62.8 0.0.0.7 log</t>
         </is>
@@ -5052,26 +5058,26 @@
           <t>280 permit tcp 10.6.108.60/32 10.6.19.0/24 eq 443</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>permit tcp 10.6.15.0 0.0.0.255 eq 443 5900 10.6.62.32 0.0.0.1 log</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>282 permit tcp 10.6.108.60/32 10.6.24.0/24 eq 443</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>permit tcp 10.6.150.0 0.0.0.255 eq 443 5900 10.6.62.32 0.0.0.1 log</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>284 permit tcp 10.6.108.60/32 10.6.25.0/24 eq 443</t>
         </is>
@@ -5095,7 +5101,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>287 permit tcp 10.6.108.60/32 10.6.27.0/24 eq 443</t>
         </is>
@@ -5138,7 +5144,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>298 permit tcp 10.6.108.0/24 10.6.200.60/32 eq 1000</t>
         </is>
@@ -5164,7 +5170,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>16 deny ip 10.6.130.0/24 10.6.16.72/32</t>
         </is>
@@ -5176,7 +5182,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>17 deny ip 10.6.130.0/24 10.6.16.168/32</t>
         </is>
@@ -5200,7 +5206,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>205 permit tcp 10.6.130.0/24 10.6.25.204/30 eq 9092</t>
         </is>
@@ -5212,7 +5218,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>206 permit tcp 10.6.130.0/24 10.6.25.208/32 eq 9092</t>
         </is>
@@ -5224,7 +5230,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>207 permit tcp 10.6.130.0/24 10.6.25.204/30 eq 9200</t>
         </is>
@@ -5236,7 +5242,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>208 permit tcp 10.6.130.0/24 10.6.25.208/32 eq 9200</t>
         </is>
@@ -5248,14 +5254,14 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>209 permit tcp 10.6.130.0/24 10.6.25.208/29 eq 4000</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>290 permit tcp 10.6.130.0/24 10.6.13.136/29 range 3366 3369</t>
         </is>
@@ -5267,7 +5273,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>296 permit tcp 10.6.130.0/24 10.6.11.0/27 eq 9092</t>
         </is>
@@ -5279,7 +5285,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>298 permit tcp 10.6.130.0/24 10.6.16.0/27 range 4000 9200</t>
         </is>
@@ -5291,7 +5297,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
+      <c r="A27" s="3" t="inlineStr">
         <is>
           <t>310 permit tcp 10.6.130.0/24 10.6.13.137/32 eq 3306</t>
         </is>
@@ -5303,7 +5309,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
+      <c r="A28" s="3" t="inlineStr">
         <is>
           <t>320 permit tcp 10.6.130.0/24 10.6.27.32/28 eq 9200</t>
         </is>
@@ -5315,7 +5321,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
+      <c r="A29" s="3" t="inlineStr">
         <is>
           <t>322 permit tcp 10.6.130.0/24 10.6.27.80/29 eq 9200</t>
         </is>
@@ -5327,21 +5333,21 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
+      <c r="A30" s="3" t="inlineStr">
         <is>
           <t>350 permit tcp 10.6.130.0/27 10.6.25.205/32 eq 3366</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
+      <c r="A31" s="3" t="inlineStr">
         <is>
           <t>480 permit tcp 10.6.130.0/24 10.6.13.96/27 eq 4000</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
+      <c r="A32" s="3" t="inlineStr">
         <is>
           <t>538 permit tcp 10.6.130.0/24 10.6.27.184/29 eq 9092</t>
         </is>
@@ -5418,161 +5424,161 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
+      <c r="A43" s="3" t="inlineStr">
         <is>
           <t>622 permit tcp 10.6.130.0/24 10.6.200.60/32 eq 1000</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>660 permit tcp 10.6.130.0/24 10.6.11.78/31 eq 4000</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
+      <c r="A45" s="3" t="inlineStr">
         <is>
           <t>662 permit tcp 10.6.130.0/24 10.6.11.80/32 eq 4000</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
+      <c r="A46" s="3" t="inlineStr">
         <is>
           <t>678 permit tcp 10.6.130.0/24 10.6.12.111/32 eq 3366</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr">
+      <c r="A47" s="3" t="inlineStr">
         <is>
           <t>694 permit tcp 10.6.130.0/24 10.6.11.128/29 eq 9092</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
+      <c r="A48" s="3" t="inlineStr">
         <is>
           <t>714 permit tcp 10.6.130.0/24 10.6.25.52/30 eq 9092</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
+      <c r="A49" s="3" t="inlineStr">
         <is>
           <t>730 permit tcp 10.6.130.0/24 10.6.11.71/32 eq 6633</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
+      <c r="A50" s="3" t="inlineStr">
         <is>
           <t>732 permit tcp 10.6.130.0/24 10.6.11.71/32 range 3366 3369</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="inlineStr">
+      <c r="A51" s="3" t="inlineStr">
         <is>
           <t>734 permit tcp 10.6.130.0/24 10.6.11.72/32 eq 6633</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr">
+      <c r="A52" s="3" t="inlineStr">
         <is>
           <t>736 permit tcp 10.6.130.0/24 10.6.11.72/32 range 3366 3369</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="inlineStr">
+      <c r="A53" s="3" t="inlineStr">
         <is>
           <t>746 permit tcp 10.6.130.0/24 10.6.13.233/32 range 6446 6447</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="inlineStr">
+      <c r="A54" s="3" t="inlineStr">
         <is>
           <t>804 permit tcp 10.6.130.0/28 10.6.27.48/32 eq 9200</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="inlineStr">
+      <c r="A55" s="3" t="inlineStr">
         <is>
           <t>806 permit tcp 10.6.130.0/28 10.6.27.73/29 eq 9200</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
+      <c r="A56" s="3" t="inlineStr">
         <is>
           <t>810 permit tcp 10.6.130.16/31 10.6.27.48/32 eq 9200</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
+      <c r="A57" s="3" t="inlineStr">
         <is>
           <t>812 permit tcp 10.6.130.16/31 10.6.27.73/29 eq 9200</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="inlineStr">
+      <c r="A58" s="3" t="inlineStr">
         <is>
           <t>816 permit tcp 10.6.130.24/29 10.6.27.48/32 eq 9200</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="inlineStr">
+      <c r="A59" s="3" t="inlineStr">
         <is>
           <t>818 permit tcp 10.6.130.24/29 10.6.27.73/29 eq 9200</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="inlineStr">
+      <c r="A60" s="3" t="inlineStr">
         <is>
           <t>820 permit tcp 10.6.130.11/27 10.6.11.151/32 eq 4000</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="inlineStr">
+      <c r="A61" s="3" t="inlineStr">
         <is>
           <t>822 permit tcp 10.6.130.11/27 10.6.11.152/31 eq 4000</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="inlineStr">
+      <c r="A62" s="3" t="inlineStr">
         <is>
           <t>902 permit tcp 10.6.130.11/27 10.6.11.91/29 eq 9200</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
+      <c r="A63" s="3" t="inlineStr">
         <is>
           <t>904 permit tcp 10.6.130.11/27 10.6.11.96/32 eq 9200</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="inlineStr">
+      <c r="A64" s="3" t="inlineStr">
         <is>
           <t>906 permit tcp 10.6.130.8/29 10.6.13.233/32 eq 3366</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="inlineStr">
+      <c r="A65" s="3" t="inlineStr">
         <is>
           <t>908 permit tcp 10.6.130.16/28 10.6.13.233/32 eq 3366</t>
         </is>
@@ -5684,7 +5690,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="inlineStr">
+      <c r="A82" s="3" t="inlineStr">
         <is>
           <t>402 permit tcp 10.6.168.0/24 10.6.200.60/32 eq 1000</t>
         </is>
@@ -5705,14 +5711,14 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="inlineStr">
+      <c r="A86" s="3" t="inlineStr">
         <is>
           <t>90 permit ip 10.6.169.0/30 10.6.27.72/32</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="inlineStr">
+      <c r="A87" s="3" t="inlineStr">
         <is>
           <t>162 permit tcp 10.6.169.4/32 eq 9100 10.6.27.70/32</t>
         </is>
@@ -5789,7 +5795,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="inlineStr">
+      <c r="A98" s="3" t="inlineStr">
         <is>
           <t>380 permit tcp 10.6.169.1/32 eq 6788 10.6.21.16/28</t>
         </is>
@@ -5810,28 +5816,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="inlineStr">
+      <c r="A101" s="3" t="inlineStr">
         <is>
           <t>392 permit tcp 10.6.169.0/24 10.6.200.60/32 eq 1000</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="inlineStr">
+      <c r="A102" s="3" t="inlineStr">
         <is>
           <t>398 permit tcp 10.6.169.1/30 eq 6788 10.6.27.70/32</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="inlineStr">
+      <c r="A103" s="3" t="inlineStr">
         <is>
           <t>400 permit tcp 10.6.169.1/30 eq 9100 10.6.27.70/32</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="inlineStr">
+      <c r="A104" s="3" t="inlineStr">
         <is>
           <t>402 permit tcp 10.6.169.1/32 eq 9121 10.6.27.70/32</t>
         </is>
@@ -5901,21 +5907,21 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="inlineStr">
+      <c r="A115" s="3" t="inlineStr">
         <is>
           <t>338 permit tcp 10.6.19.0/24 10.6.200.60/32 eq 1000</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="inlineStr">
+      <c r="A116" s="3" t="inlineStr">
         <is>
           <t>910 permit udp 10.6.19.0/24 10.6.16.27/32 eq ntp</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="inlineStr">
+      <c r="A117" s="3" t="inlineStr">
         <is>
           <t>920 permit udp 10.6.19.0/24 10.6.16.20/32 eq domain</t>
         </is>
@@ -5929,21 +5935,21 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="inlineStr">
+      <c r="A120" s="3" t="inlineStr">
         <is>
           <t>67 permit tcp 10.6.26.60/32 eq 8088 10.6.25.46/32</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="inlineStr">
+      <c r="A121" s="3" t="inlineStr">
         <is>
           <t>68 permit tcp 10.6.26.60/32 eq www 10.6.25.46/32</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="inlineStr">
+      <c r="A122" s="3" t="inlineStr">
         <is>
           <t>69 permit tcp 10.6.26.60/32 eq 443 10.6.25.46/32</t>
         </is>
@@ -5964,14 +5970,14 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="inlineStr">
+      <c r="A125" s="3" t="inlineStr">
         <is>
           <t>100 permit tcp 10.6.26.180/32 10.6.25.27/32 portgroup SSH-PORT</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="inlineStr">
+      <c r="A126" s="3" t="inlineStr">
         <is>
           <t>101 permit tcp 10.6.26.180/32 10.6.25.28/32 portgroup SSH-PORT</t>
         </is>
@@ -5992,7 +5998,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="inlineStr">
+      <c r="A129" s="3" t="inlineStr">
         <is>
           <t>260 permit tcp 10.6.26.136/29 eq 9100 10.6.27.70/32</t>
         </is>
@@ -6020,7 +6026,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="inlineStr">
+      <c r="A133" s="3" t="inlineStr">
         <is>
           <t>442 permit tcp 10.6.26.0/24 10.6.200.60/32 eq 1000</t>
         </is>
@@ -6076,7 +6082,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="inlineStr">
+      <c r="A142" s="3" t="inlineStr">
         <is>
           <t>394 permit tcp 10.6.28.0/24 10.6.200.60/32 eq 1000</t>
         </is>
@@ -6097,7 +6103,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="inlineStr">
+      <c r="A146" s="3" t="inlineStr">
         <is>
           <t>5 permit ip 10.6.62.32/31 10.6.13.114/31</t>
         </is>
@@ -6125,7 +6131,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="inlineStr">
+      <c r="A150" s="3" t="inlineStr">
         <is>
           <t>62 permit tcp 10.6.62.12/32 eq 17000 10.6.0.0/16</t>
         </is>
@@ -6153,21 +6159,21 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="inlineStr">
+      <c r="A154" s="3" t="inlineStr">
         <is>
           <t>630 permit tcp 10.6.62.8/29 10.6.16.25/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
+      <c r="A155" s="2" t="inlineStr">
         <is>
           <t>640 permit udp 10.6.62.8/29 10.6.15.0/24 eq snmp</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
+      <c r="A156" s="2" t="inlineStr">
         <is>
           <t>642 permit udp 10.6.62.8/29 10.6.150.0/24 eq snmp</t>
         </is>
@@ -6202,28 +6208,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
+      <c r="A161" s="2" t="inlineStr">
         <is>
           <t>660 permit tcp 10.6.62.32/31 10.6.15.0/24 eq 443</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
+      <c r="A162" s="2" t="inlineStr">
         <is>
           <t>662 permit tcp 10.6.62.32/31 10.6.15.0/24 eq 5900</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
+      <c r="A163" s="2" t="inlineStr">
         <is>
           <t>664 permit tcp 10.6.62.32/31 10.6.150.0/24 eq 443</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
+      <c r="A164" s="2" t="inlineStr">
         <is>
           <t>666 permit tcp 10.6.62.32/31 10.6.150.0/24 eq 5900</t>
         </is>
@@ -6237,28 +6243,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="inlineStr">
+      <c r="A166" s="3" t="inlineStr">
         <is>
           <t>714 permit tcp 10.6.62.0/24 10.6.200.60/32 eq 1000</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="2" t="inlineStr">
+      <c r="A167" s="3" t="inlineStr">
         <is>
           <t>718 permit tcp 10.6.62.15/32 10.6.24.40/29 eq 9200</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="2" t="inlineStr">
+      <c r="A168" s="3" t="inlineStr">
         <is>
           <t>724 permit ip 10.6.62.33/32 10.6.25.40/32</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="2" t="inlineStr">
+      <c r="A169" s="3" t="inlineStr">
         <is>
           <t>726 permit ip 10.6.62.33/32 10.6.24.52/32</t>
         </is>
@@ -6272,21 +6278,21 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="inlineStr">
+      <c r="A171" s="3" t="inlineStr">
         <is>
           <t>736 permit tcp 10.6.62.32/32 10.6.24.52/32 range 8001 8002</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="inlineStr">
+      <c r="A172" s="3" t="inlineStr">
         <is>
           <t>744 permit tcp 10.6.62.98/32 eq www 10.6.24.23/32</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="2" t="inlineStr">
+      <c r="A173" s="3" t="inlineStr">
         <is>
           <t>746 permit tcp 10.6.62.98/32 eq 443 10.6.24.23/32</t>
         </is>
@@ -6307,7 +6313,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="inlineStr">
+      <c r="A176" s="3" t="inlineStr">
         <is>
           <t>762 permit tcp 10.6.62.32/31 10.6.27.0/24 eq 443</t>
         </is>
@@ -6321,21 +6327,21 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="inlineStr">
+      <c r="A179" s="3" t="inlineStr">
         <is>
           <t>74 permit tcp 10.6.63.63/32 10.6.11.0/24 eq 55888</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="inlineStr">
+      <c r="A180" s="3" t="inlineStr">
         <is>
           <t>76 permit tcp 10.6.63.63/32 10.6.25.0/24 eq 55888</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="inlineStr">
+      <c r="A181" s="3" t="inlineStr">
         <is>
           <t>78 permit tcp 10.6.63.63/32 10.6.27.0/24 eq 55888</t>
         </is>
@@ -6349,28 +6355,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="inlineStr">
+      <c r="A183" s="3" t="inlineStr">
         <is>
           <t>270 permit tcp 10.6.63.55/32 10.6.13.100/30 eq 8080</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="inlineStr">
+      <c r="A184" s="3" t="inlineStr">
         <is>
           <t>272 permit tcp 10.6.63.55/32 10.6.20.224/32 eq 8080</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="inlineStr">
+      <c r="A185" s="3" t="inlineStr">
         <is>
           <t>274 permit tcp 10.6.63.55/32 10.6.13.128/28 eq 7180</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="inlineStr">
+      <c r="A186" s="3" t="inlineStr">
         <is>
           <t>275 permit tcp 10.6.63.55/32 10.6.13.128/28 eq 8081</t>
         </is>
@@ -6384,14 +6390,14 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="inlineStr">
+      <c r="A188" s="3" t="inlineStr">
         <is>
           <t>286 permit tcp 10.6.63.55/32 10.6.13.137/32 eq 3306</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="inlineStr">
+      <c r="A189" s="3" t="inlineStr">
         <is>
           <t>288 permit tcp 10.6.63.55/32 10.6.13.102/32 eq 4000</t>
         </is>
@@ -6433,42 +6439,42 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="2" t="inlineStr">
+      <c r="A195" s="3" t="inlineStr">
         <is>
           <t>350 permit tcp 10.6.63.44/32 10.6.25.209/32 eq 8111</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="2" t="inlineStr">
+      <c r="A196" s="3" t="inlineStr">
         <is>
           <t>352 permit tcp 10.6.63.44/32 10.6.25.210/32 eq 8111</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="inlineStr">
+      <c r="A197" s="3" t="inlineStr">
         <is>
           <t>360 permit tcp 10.6.63.44/32 10.6.27.151/32 eq 8111</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="inlineStr">
+      <c r="A198" s="3" t="inlineStr">
         <is>
           <t>362 permit tcp 10.6.63.44/32 10.6.27.152/32 eq 8111</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="inlineStr">
+      <c r="A199" s="3" t="inlineStr">
         <is>
           <t>370 permit tcp 10.6.63.44/32 10.6.27.44/32 eq 35601</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="inlineStr">
+      <c r="A200" s="3" t="inlineStr">
         <is>
           <t>372 permit tcp 10.6.63.44/32 10.6.27.70/32 eq 3000</t>
         </is>
@@ -6503,154 +6509,154 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="inlineStr">
+      <c r="A205" s="3" t="inlineStr">
         <is>
           <t>420 permit tcp 10.6.63.55/32 10.6.24.64/29 eq 7180</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="inlineStr">
+      <c r="A206" s="3" t="inlineStr">
         <is>
           <t>422 permit tcp 10.6.63.55/32 10.6.24.64/29 eq 8001</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="inlineStr">
+      <c r="A207" s="3" t="inlineStr">
         <is>
           <t>424 permit tcp 10.6.63.55/32 10.6.24.64/29 eq 8020</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="inlineStr">
+      <c r="A208" s="3" t="inlineStr">
         <is>
           <t>426 permit tcp 10.6.63.55/32 10.6.24.64/29 eq 8022</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="2" t="inlineStr">
+      <c r="A209" s="3" t="inlineStr">
         <is>
           <t>428 permit tcp 10.6.63.55/32 10.6.24.64/29 eq 8042</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="inlineStr">
+      <c r="A210" s="3" t="inlineStr">
         <is>
           <t>430 permit tcp 10.6.63.55/32 10.6.24.64/29 eq 8044</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="inlineStr">
+      <c r="A211" s="3" t="inlineStr">
         <is>
           <t>432 permit tcp 10.6.63.55/32 10.6.24.64/29 eq 8048</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="inlineStr">
+      <c r="A212" s="3" t="inlineStr">
         <is>
           <t>434 permit tcp 10.6.63.55/32 10.6.24.64/29 eq 8080</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="inlineStr">
+      <c r="A213" s="3" t="inlineStr">
         <is>
           <t>436 permit tcp 10.6.63.55/32 10.6.24.64/29 eq 8081</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="inlineStr">
+      <c r="A214" s="3" t="inlineStr">
         <is>
           <t>438 permit tcp 10.6.63.55/32 10.6.24.64/29 eq 8088</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="inlineStr">
+      <c r="A215" s="3" t="inlineStr">
         <is>
           <t>440 permit tcp 10.6.63.55/32 10.6.24.64/29 eq 8888</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="inlineStr">
+      <c r="A216" s="3" t="inlineStr">
         <is>
           <t>442 permit tcp 10.6.63.55/32 10.6.24.64/29 eq 9870</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="inlineStr">
+      <c r="A217" s="3" t="inlineStr">
         <is>
           <t>446 permit tcp 10.6.63.55/32 10.6.24.64/29 eq 10000</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="inlineStr">
+      <c r="A218" s="3" t="inlineStr">
         <is>
           <t>448 permit tcp 10.6.63.55/32 10.6.24.64/29 eq 19888</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="inlineStr">
+      <c r="A219" s="3" t="inlineStr">
         <is>
           <t>450 permit tcp 10.6.63.55/32 10.6.24.64/29 eq 19890</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="inlineStr">
+      <c r="A220" s="3" t="inlineStr">
         <is>
           <t>452 permit tcp 10.6.63.55/32 10.6.24.64/29 eq 20000</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="inlineStr">
+      <c r="A221" s="3" t="inlineStr">
         <is>
           <t>464 permit tcp 10.6.63.0/24 10.6.200.60/32 eq 1000</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="inlineStr">
+      <c r="A222" s="3" t="inlineStr">
         <is>
           <t>492 permit tcp 10.6.63.55/32 10.6.24.64/29 eq 4000</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="2" t="inlineStr">
+      <c r="A223" s="3" t="inlineStr">
         <is>
           <t>494 permit tcp 10.6.63.44/32 10.6.27.155/32 eq 7080</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="inlineStr">
+      <c r="A224" s="3" t="inlineStr">
         <is>
           <t>500 permit tcp 10.6.63.44/32 10.6.11.151/32 eq 3000</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="inlineStr">
+      <c r="A225" s="3" t="inlineStr">
         <is>
           <t>502 permit tcp 10.6.63.44/32 10.6.11.151/32 eq 2379</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="2" t="inlineStr">
+      <c r="A226" s="3" t="inlineStr">
         <is>
           <t>504 permit tcp 10.6.63.44/32 10.6.25.206/32 eq 5601</t>
         </is>
@@ -6664,7 +6670,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="2" t="inlineStr">
+      <c r="A228" s="3" t="inlineStr">
         <is>
           <t>526 permit tcp 10.6.63.63/32 10.6.16.25/32 eq 13080</t>
         </is>
@@ -6678,259 +6684,259 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="2" t="inlineStr">
+      <c r="A230" s="3" t="inlineStr">
         <is>
           <t>536 permit tcp 10.6.63.44/32 10.6.27.70/32 range 9090 9093</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="2" t="inlineStr">
+      <c r="A231" s="3" t="inlineStr">
         <is>
           <t>548 permit tcp 10.6.63.44/32 10.6.27.144/32 eq 5601</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="2" t="inlineStr">
+      <c r="A232" s="3" t="inlineStr">
         <is>
           <t>552 permit tcp 10.6.63.44/32 10.6.11.80/32 eq 3000</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="inlineStr">
+      <c r="A233" s="3" t="inlineStr">
         <is>
           <t>578 permit tcp 10.6.63.44/32 10.6.11.80/32 eq 2379</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="inlineStr">
+      <c r="A234" s="3" t="inlineStr">
         <is>
           <t>584 permit tcp 10.6.63.55/32 10.6.13.112/29 eq 2379</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="inlineStr">
+      <c r="A235" s="3" t="inlineStr">
         <is>
           <t>586 permit tcp 10.6.63.55/32 10.6.13.112/29 eq 3000</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="inlineStr">
+      <c r="A236" s="3" t="inlineStr">
         <is>
           <t>588 permit tcp 10.6.63.55/32 10.6.13.160/28 eq 7180</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="inlineStr">
+      <c r="A237" s="3" t="inlineStr">
         <is>
           <t>590 permit tcp 10.6.63.55/32 10.6.13.160/28 eq 8001</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="2" t="inlineStr">
+      <c r="A238" s="3" t="inlineStr">
         <is>
           <t>592 permit tcp 10.6.63.55/32 10.6.13.160/28 range 8020 8048</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="2" t="inlineStr">
+      <c r="A239" s="3" t="inlineStr">
         <is>
           <t>594 permit tcp 10.6.63.55/32 10.6.13.160/28 range 8080 8088</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="2" t="inlineStr">
+      <c r="A240" s="3" t="inlineStr">
         <is>
           <t>596 permit tcp 10.6.63.55/32 10.6.13.160/28 eq 8888</t>
         </is>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="2" t="inlineStr">
+      <c r="A241" s="3" t="inlineStr">
         <is>
           <t>600 permit tcp 10.6.63.55/32 10.6.13.160/28 eq 9870</t>
         </is>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="2" t="inlineStr">
+      <c r="A242" s="3" t="inlineStr">
         <is>
           <t>602 permit tcp 10.6.63.55/32 10.6.13.160/28 eq 10000</t>
         </is>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="2" t="inlineStr">
+      <c r="A243" s="3" t="inlineStr">
         <is>
           <t>604 permit tcp 10.6.63.55/32 10.6.13.160/28 eq 20000</t>
         </is>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="2" t="inlineStr">
+      <c r="A244" s="3" t="inlineStr">
         <is>
           <t>606 permit tcp 10.6.63.55/32 10.6.13.160/28 range 19888 19890</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="2" t="inlineStr">
+      <c r="A245" s="3" t="inlineStr">
         <is>
           <t>608 permit tcp 10.6.63.55/32 10.6.13.176/30 eq 7180</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="2" t="inlineStr">
+      <c r="A246" s="3" t="inlineStr">
         <is>
           <t>610 permit tcp 10.6.63.55/32 10.6.13.176/30 eq 8001</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="2" t="inlineStr">
+      <c r="A247" s="3" t="inlineStr">
         <is>
           <t>612 permit tcp 10.6.63.55/32 10.6.13.176/30 range 8020 8048</t>
         </is>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="2" t="inlineStr">
+      <c r="A248" s="3" t="inlineStr">
         <is>
           <t>614 permit tcp 10.6.63.55/32 10.6.13.176/30 range 8080 8088</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="2" t="inlineStr">
+      <c r="A249" s="3" t="inlineStr">
         <is>
           <t>616 permit tcp 10.6.63.55/32 10.6.13.176/30 eq 8888</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="2" t="inlineStr">
+      <c r="A250" s="3" t="inlineStr">
         <is>
           <t>620 permit tcp 10.6.63.55/32 10.6.13.176/30 eq 9870</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="2" t="inlineStr">
+      <c r="A251" s="3" t="inlineStr">
         <is>
           <t>622 permit tcp 10.6.63.55/32 10.6.13.176/30 eq 10000</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="2" t="inlineStr">
+      <c r="A252" s="3" t="inlineStr">
         <is>
           <t>624 permit tcp 10.6.63.55/32 10.6.13.176/30 eq 20000</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="2" t="inlineStr">
+      <c r="A253" s="3" t="inlineStr">
         <is>
           <t>626 permit tcp 10.6.63.55/32 10.6.13.176/30 range 19888 19890</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="2" t="inlineStr">
+      <c r="A254" s="3" t="inlineStr">
         <is>
           <t>628 permit tcp 10.6.63.55/32 10.6.13.176/30 eq 9010</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="2" t="inlineStr">
+      <c r="A255" s="3" t="inlineStr">
         <is>
           <t>630 permit tcp 10.6.63.55/32 10.6.13.160/28 eq 9010</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="2" t="inlineStr">
+      <c r="A256" s="3" t="inlineStr">
         <is>
           <t>632 permit tcp 10.6.63.55/32 10.6.13.160/28 range 9020 9030</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="2" t="inlineStr">
+      <c r="A257" s="3" t="inlineStr">
         <is>
           <t>634 permit tcp 10.6.63.55/32 10.6.13.176/30 range 9020 9030</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="2" t="inlineStr">
+      <c r="A258" s="3" t="inlineStr">
         <is>
           <t>636 permit tcp 10.6.63.44/32 10.6.11.151/32 range 9090 9093</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="2" t="inlineStr">
+      <c r="A259" s="3" t="inlineStr">
         <is>
           <t>638 permit tcp 10.6.63.44/32 10.6.11.80/32 range 9090 9093</t>
         </is>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="2" t="inlineStr">
+      <c r="A260" s="3" t="inlineStr">
         <is>
           <t>640 permit tcp 10.6.63.44/32 10.6.13.113/32 range 9090 9093</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="2" t="inlineStr">
+      <c r="A261" s="3" t="inlineStr">
         <is>
           <t>642 permit tcp 10.6.63.44/32 10.6.27.70/32 eq 8004</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="2" t="inlineStr">
+      <c r="A262" s="3" t="inlineStr">
         <is>
           <t>644 permit tcp 10.6.63.44/32 10.6.13.112/29 eq 3000</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="2" t="inlineStr">
+      <c r="A263" s="3" t="inlineStr">
         <is>
           <t>646 permit tcp 10.6.63.44/32 10.6.13.112/29 eq 2379</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="2" t="inlineStr">
+      <c r="A264" s="3" t="inlineStr">
         <is>
           <t>648 permit tcp 10.6.63.44/32 10.6.11.121/32 eq 5601</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="2" t="inlineStr">
+      <c r="A265" s="3" t="inlineStr">
         <is>
           <t>650 permit tcp 10.6.63.44/32 10.6.11.91/32 eq 5601</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="2" t="inlineStr">
+      <c r="A266" s="3" t="inlineStr">
         <is>
           <t>652 permit tcp 10.6.63.44/32 10.6.27.34/32 eq 25601</t>
         </is>
@@ -6951,21 +6957,21 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="2" t="inlineStr">
+      <c r="A270" s="3" t="inlineStr">
         <is>
           <t>74 permit ip 10.6.8.43/32 10.6.24.0/24</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="2" t="inlineStr">
+      <c r="A271" s="3" t="inlineStr">
         <is>
           <t>75 permit tcp 10.6.8.43/32 eq 28800 10.6.24.23/32</t>
         </is>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="2" t="inlineStr">
+      <c r="A272" s="3" t="inlineStr">
         <is>
           <t>210 permit tcp 10.6.8.43/32 10.6.25.0/24 eq 55888</t>
         </is>
@@ -6986,35 +6992,35 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="2" t="inlineStr">
+      <c r="A275" s="3" t="inlineStr">
         <is>
           <t>213 permit tcp 10.6.8.43/32 10.6.24.0/24 eq 55888</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="2" t="inlineStr">
+      <c r="A276" s="3" t="inlineStr">
         <is>
           <t>215 permit tcp 10.6.8.43/32 10.6.21.0/24 eq 55888</t>
         </is>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="2" t="inlineStr">
+      <c r="A277" s="3" t="inlineStr">
         <is>
           <t>216 permit tcp 10.6.8.43/32 10.6.20.0/24 eq 55888</t>
         </is>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="2" t="inlineStr">
+      <c r="A278" s="3" t="inlineStr">
         <is>
           <t>217 permit tcp 10.6.8.43/32 10.6.22.0/24 eq 55888</t>
         </is>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="2" t="inlineStr">
+      <c r="A279" s="3" t="inlineStr">
         <is>
           <t>256 permit ip 10.6.8.43/32 10.6.24.0/24</t>
         </is>
@@ -7035,7 +7041,7 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="2" t="inlineStr">
+      <c r="A282" s="3" t="inlineStr">
         <is>
           <t>386 permit tcp 10.6.8.0/24 10.6.200.60/32 eq 1000</t>
         </is>
@@ -7094,7 +7100,7 @@
           <t>52 permit tcp 10.12.108.0/24 10.12.62.11/32 eq 16000 log</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>permit tcp host 10.12.150.244 eq 22 host 10.12.108.60</t>
         </is>
@@ -7106,19 +7112,19 @@
           <t>60 permit tcp 10.12.108.0/24 10.12.62.66/32 eq www log</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>permit tcp host 10.12.150.244 eq 443 host 10.12.62.32</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>90 permit tcp 10.12.108.0/24 eq 55888 10.12.200.88/32 log</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>permit udp 10.12.15.0 0.0.0.255 eq snmp 10.12.62.8 0.0.0.7</t>
         </is>
@@ -7130,31 +7136,31 @@
           <t>280 permit tcp 10.12.108.60/32 10.12.19.0/24 eq 443</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>permit udp 10.12.150.0 0.0.0.255 eq snmp 10.12.62.8 0.0.0.7</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>282 permit tcp 10.12.108.60/32 10.12.12.0/24 eq 443</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>permit tcp 10.12.15.0 0.0.0.255 eq 443 5900 10.12.62.32 0.0.0.1</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>284 permit tcp 10.12.108.60/32 10.12.100.0/24 eq 443</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>permit tcp 10.12.150.0 0.0.0.255 eq 443 5900 10.12.62.32 0.0.0.1</t>
         </is>
@@ -7178,19 +7184,19 @@
           <t>288 permit icmp 10.12.108.60/32 10.12.0.0/16</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>permit tcp host 10.12.15.243 eq 22 host 10.12.108.60</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>290 permit tcp 10.12.108.60/32 10.12.76.0/24 eq 443</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>permit tcp host 10.12.15.244 eq 22 host 10.12.108.60</t>
         </is>
@@ -7337,7 +7343,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
+      <c r="A29" s="3" t="inlineStr">
         <is>
           <t>95 permit ip 10.12.169.0/30 10.12.11.6/32</t>
         </is>
@@ -7414,35 +7420,35 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="inlineStr">
+      <c r="A40" s="3" t="inlineStr">
         <is>
           <t>350 permit tcp 10.12.169.1/32 eq 6788 10.12.21.16/28 log</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
+      <c r="A41" s="3" t="inlineStr">
         <is>
           <t>358 permit tcp 10.12.169.1/30 eq 6788 10.12.12.34/32</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="inlineStr">
+      <c r="A42" s="3" t="inlineStr">
         <is>
           <t>360 permit tcp 10.12.169.1/30 eq 9104 10.12.12.34/32</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
+      <c r="A43" s="3" t="inlineStr">
         <is>
           <t>362 permit tcp 10.12.169.1/30 eq 9100 10.12.12.34/32</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>364 permit tcp 10.12.169.1/32 range 9100 9121 10.12.12.34/32</t>
         </is>
@@ -7470,7 +7476,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
+      <c r="A49" s="3" t="inlineStr">
         <is>
           <t>86 permit tcp 10.12.17.0/28 eq 3389 10.12.200.88/32</t>
         </is>
@@ -7491,77 +7497,77 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr">
+      <c r="A52" s="3" t="inlineStr">
         <is>
           <t>258 permit tcp 10.12.17.63/32 10.12.22.206/32 eq 17998</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="inlineStr">
+      <c r="A53" s="3" t="inlineStr">
         <is>
           <t>260 permit tcp 10.12.17.63/32 10.12.22.206/32 eq 20000</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="inlineStr">
+      <c r="A54" s="3" t="inlineStr">
         <is>
           <t>262 permit tcp 10.12.17.63/32 10.12.22.206/32 eq 20020</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="inlineStr">
+      <c r="A55" s="3" t="inlineStr">
         <is>
           <t>264 permit tcp 10.12.17.64/28 10.12.22.206/32 eq 17998</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
+      <c r="A56" s="3" t="inlineStr">
         <is>
           <t>268 permit tcp 10.12.17.64/28 10.12.22.206/32 eq 20000</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
+      <c r="A57" s="3" t="inlineStr">
         <is>
           <t>270 permit tcp 10.12.17.64/28 10.12.22.206/32 eq 20020</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="inlineStr">
+      <c r="A58" s="3" t="inlineStr">
         <is>
           <t>272 permit tcp 10.12.17.63/32 10.12.22.208/32 eq 17998</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="inlineStr">
+      <c r="A59" s="3" t="inlineStr">
         <is>
           <t>274 permit tcp 10.12.17.63/32 10.12.22.208/32 eq 20000</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="inlineStr">
+      <c r="A60" s="3" t="inlineStr">
         <is>
           <t>278 permit tcp 10.12.17.64/28 10.12.22.208/32 eq 17998</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="inlineStr">
+      <c r="A61" s="3" t="inlineStr">
         <is>
           <t>280 permit tcp 10.12.17.64/28 10.12.22.208/32 eq 20000</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="inlineStr">
+      <c r="A62" s="3" t="inlineStr">
         <is>
           <t>282 permit tcp 10.12.17.64/28 10.12.22.208/32 eq 20020</t>
         </is>
@@ -7596,7 +7602,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="inlineStr">
+      <c r="A67" s="3" t="inlineStr">
         <is>
           <t>424 permit udp 10.12.17.86/30 10.12.11.1/30 eq domain</t>
         </is>
@@ -7610,28 +7616,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="inlineStr">
+      <c r="A69" s="3" t="inlineStr">
         <is>
           <t>544 permit tcp 10.12.17.241/32 10.12.11.171/32 eq 6633</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="inlineStr">
+      <c r="A70" s="3" t="inlineStr">
         <is>
           <t>546 permit tcp 10.12.17.241/32 10.12.11.171/32 range 3366 3369</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="inlineStr">
+      <c r="A71" s="3" t="inlineStr">
         <is>
           <t>548 permit tcp 10.12.17.241/32 10.12.11.172/32 eq 6633</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="inlineStr">
+      <c r="A72" s="3" t="inlineStr">
         <is>
           <t>550 permit tcp 10.12.17.241/32 10.12.11.172/32 range 3366 3369</t>
         </is>
@@ -7687,91 +7693,91 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="inlineStr">
+      <c r="A82" s="3" t="inlineStr">
         <is>
           <t>204 permit ip 10.12.38.6/32 10.12.16.0/24</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="inlineStr">
+      <c r="A83" s="3" t="inlineStr">
         <is>
           <t>206 permit tcp 10.12.38.0/29 eq 8080 10.12.17.95/32</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="inlineStr">
+      <c r="A84" s="3" t="inlineStr">
         <is>
           <t>208 permit tcp 10.12.38.6/32 eq www 10.12.17.95/32</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="inlineStr">
+      <c r="A85" s="3" t="inlineStr">
         <is>
           <t>210 permit tcp 10.12.38.6/32 eq 443 10.12.17.95/32</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="inlineStr">
+      <c r="A86" s="3" t="inlineStr">
         <is>
           <t>278 permit tcp 10.12.38.0/29 10.12.11.35/32 eq 3000</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="inlineStr">
+      <c r="A87" s="3" t="inlineStr">
         <is>
           <t>280 permit tcp 10.12.38.0/29 10.12.11.34/32 eq 8004</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="inlineStr">
+      <c r="A88" s="3" t="inlineStr">
         <is>
           <t>282 permit tcp 10.12.38.0/29 10.12.11.151/32 eq 3000</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="inlineStr">
+      <c r="A89" s="3" t="inlineStr">
         <is>
           <t>284 permit tcp 10.12.38.0/29 10.12.17.83/32 eq www</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="inlineStr">
+      <c r="A90" s="3" t="inlineStr">
         <is>
           <t>286 permit tcp 10.12.38.0/29 10.12.17.83/32 eq 443</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="inlineStr">
+      <c r="A91" s="3" t="inlineStr">
         <is>
           <t>288 permit tcp 10.12.38.0/29 10.12.17.177/32 eq www</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="inlineStr">
+      <c r="A92" s="3" t="inlineStr">
         <is>
           <t>290 permit tcp 10.12.38.0/29 10.12.17.177/32 eq 443</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="inlineStr">
+      <c r="A93" s="3" t="inlineStr">
         <is>
           <t>292 permit tcp 10.12.38.0/29 10.12.18.206/32 eq 5601</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="inlineStr">
+      <c r="A94" s="3" t="inlineStr">
         <is>
           <t>294 permit tcp 10.12.38.0/29 10.12.18.41/32 eq 28800</t>
         </is>
@@ -7806,49 +7812,49 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="inlineStr">
+      <c r="A99" s="3" t="inlineStr">
         <is>
           <t>326 permit tcp 10.12.38.0/29 10.12.17.95/32 eq www</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="inlineStr">
+      <c r="A100" s="3" t="inlineStr">
         <is>
           <t>328 permit tcp 10.12.38.0/29 10.12.17.95/32 eq 443</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="inlineStr">
+      <c r="A101" s="3" t="inlineStr">
         <is>
           <t>334 permit tcp 10.12.38.0/29 10.12.12.34/32 eq 8004</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="inlineStr">
+      <c r="A102" s="3" t="inlineStr">
         <is>
           <t>348 permit tcp 10.12.38.0/29 eq 3306 10.12.16.1/30</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="inlineStr">
+      <c r="A103" s="3" t="inlineStr">
         <is>
           <t>358 permit tcp 10.12.38.0/29 10.12.12.205/32 eq 5601</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="inlineStr">
+      <c r="A104" s="3" t="inlineStr">
         <is>
           <t>384 permit tcp 10.12.38.0/29 10.12.12.34/32 eq 5601</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="inlineStr">
+      <c r="A105" s="3" t="inlineStr">
         <is>
           <t>400 permit tcp 10.12.38.0/29 10.12.12.34/32 eq 3000</t>
         </is>
@@ -7904,21 +7910,21 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="inlineStr">
+      <c r="A114" s="3" t="inlineStr">
         <is>
           <t>162 permit tcp 10.12.62.32/31 10.12.12.0/24 eq 443</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="inlineStr">
+      <c r="A115" s="3" t="inlineStr">
         <is>
           <t>300 permit tcp 10.12.62.33/32 eq 3389 10.12.200.88/32</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="inlineStr">
+      <c r="A116" s="3" t="inlineStr">
         <is>
           <t>308 permit tcp 10.12.62.33/32 10.12.12.20/32 eq 443</t>
         </is>
@@ -7932,7 +7938,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="inlineStr">
+      <c r="A118" s="3" t="inlineStr">
         <is>
           <t>320 permit tcp 10.12.62.32/32 eq 5900 10.12.200.88/32</t>
         </is>
@@ -7967,21 +7973,21 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="inlineStr">
+      <c r="A123" s="3" t="inlineStr">
         <is>
           <t>610 permit tcp 10.12.62.8/29 10.12.16.42/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
+      <c r="A124" s="2" t="inlineStr">
         <is>
           <t>630 permit udp 10.12.62.8/29 10.12.15.0/24 eq snmp</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="A125" s="2" t="inlineStr">
         <is>
           <t>640 permit udp 10.12.62.8/29 10.12.150.0/24 eq snmp</t>
         </is>
@@ -8002,49 +8008,49 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="inlineStr">
+      <c r="A128" s="3" t="inlineStr">
         <is>
           <t>656 permit tcp 10.12.62.32/31 10.12.12.20/32 eq 5480</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="inlineStr">
+      <c r="A129" s="3" t="inlineStr">
         <is>
           <t>658 permit tcp 10.12.62.32/32 eq 3389 10.12.200.88/32</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="A130" s="2" t="inlineStr">
         <is>
           <t>660 permit tcp 10.12.62.32/31 10.12.15.0/24 eq 443</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="A131" s="2" t="inlineStr">
         <is>
           <t>662 permit tcp 10.12.62.32/31 10.12.15.0/24 eq 5900</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="A132" s="2" t="inlineStr">
         <is>
           <t>664 permit tcp 10.12.62.32/31 10.12.150.0/24 eq 443</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="A133" s="2" t="inlineStr">
         <is>
           <t>666 permit tcp 10.12.62.32/31 10.12.150.0/24 eq 5900</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="inlineStr">
+      <c r="A134" s="3" t="inlineStr">
         <is>
           <t>668 permit tcp 10.12.62.32/32 10.12.16.1/32 eq 443</t>
         </is>
@@ -8072,14 +8078,14 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="inlineStr">
+      <c r="A138" s="3" t="inlineStr">
         <is>
           <t>678 permit tcp 10.12.62.32/31 10.12.76.0/24 eq 5480</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="inlineStr">
+      <c r="A139" s="3" t="inlineStr">
         <is>
           <t>680 permit tcp 10.12.62.32/31 10.12.76.0/24 eq 443</t>
         </is>
@@ -8114,7 +8120,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="inlineStr">
+      <c r="A144" s="3" t="inlineStr">
         <is>
           <t>754 permit ip 10.12.62.33/32 10.12.17.122/32</t>
         </is>
@@ -8149,35 +8155,35 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="inlineStr">
+      <c r="A149" s="3" t="inlineStr">
         <is>
           <t>780 permit tcp 10.12.62.32/31 10.12.100.1/29 eq 443</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="inlineStr">
+      <c r="A150" s="3" t="inlineStr">
         <is>
           <t>784 permit tcp 10.12.62.32/31 10.12.12.0/24 eq 443</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="inlineStr">
+      <c r="A151" s="3" t="inlineStr">
         <is>
           <t>788 permit tcp 10.12.62.32/31 10.12.100.120/32 eq 5480</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="inlineStr">
+      <c r="A152" s="3" t="inlineStr">
         <is>
           <t>790 permit tcp 10.12.62.32/31 10.12.100.120/32 eq www</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="inlineStr">
+      <c r="A153" s="3" t="inlineStr">
         <is>
           <t>792 permit tcp 10.12.62.32/31 10.12.100.120/32 eq 443</t>
         </is>
@@ -8191,14 +8197,14 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="inlineStr">
+      <c r="A156" s="3" t="inlineStr">
         <is>
           <t>10 permit tcp 10.12.63.44/32 10.12.18.206/32 eq 5601</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="2" t="inlineStr">
+      <c r="A157" s="3" t="inlineStr">
         <is>
           <t>40 permit tcp 10.12.63.44/32 10.12.11.0/24 eq 2379</t>
         </is>
@@ -8212,7 +8218,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="inlineStr">
+      <c r="A159" s="3" t="inlineStr">
         <is>
           <t>68 permit tcp 10.12.63.0/24 eq 55888 10.12.200.88/32</t>
         </is>
@@ -8226,21 +8232,21 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="inlineStr">
+      <c r="A161" s="3" t="inlineStr">
         <is>
           <t>260 permit tcp 10.12.63.44/32 eq 3389 10.12.200.88/32</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="inlineStr">
+      <c r="A162" s="3" t="inlineStr">
         <is>
           <t>262 permit tcp 10.12.63.55/32 eq 3389 10.12.200.88/32</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="inlineStr">
+      <c r="A163" s="3" t="inlineStr">
         <is>
           <t>264 permit tcp 10.12.63.44/32 10.12.11.130/32 eq 56010</t>
         </is>
@@ -8254,63 +8260,63 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2" t="inlineStr">
+      <c r="A165" s="3" t="inlineStr">
         <is>
           <t>346 permit tcp 10.12.63.44/32 10.12.12.151/32 eq 8111</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="inlineStr">
+      <c r="A166" s="3" t="inlineStr">
         <is>
           <t>348 permit tcp 10.12.63.44/32 10.12.12.152/32 eq 8111</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="2" t="inlineStr">
+      <c r="A167" s="3" t="inlineStr">
         <is>
           <t>360 permit tcp 10.12.63.44/32 10.12.12.54/32 eq 56010</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="2" t="inlineStr">
+      <c r="A168" s="3" t="inlineStr">
         <is>
           <t>362 permit tcp 10.12.63.44/32 10.12.12.64/32 eq 56020</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="2" t="inlineStr">
+      <c r="A169" s="3" t="inlineStr">
         <is>
           <t>364 permit tcp 10.12.63.44/32 10.12.18.209/32 eq 8111</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="2" t="inlineStr">
+      <c r="A170" s="3" t="inlineStr">
         <is>
           <t>366 permit tcp 10.12.63.44/32 10.12.18.210/32 eq 8111</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="inlineStr">
+      <c r="A171" s="3" t="inlineStr">
         <is>
           <t>380 permit tcp 10.12.63.44/32 10.12.11.91/32 eq 5601</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="inlineStr">
+      <c r="A172" s="3" t="inlineStr">
         <is>
           <t>394 permit tcp 10.12.63.44/32 10.12.12.155/32 eq 7080</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="2" t="inlineStr">
+      <c r="A173" s="3" t="inlineStr">
         <is>
           <t>398 permit tcp 10.12.63.44/32 10.12.11.151/32 eq 3000</t>
         </is>
@@ -8324,56 +8330,56 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="inlineStr">
+      <c r="A175" s="3" t="inlineStr">
         <is>
           <t>404 permit tcp 10.12.63.63/32 10.12.16.42/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="inlineStr">
+      <c r="A176" s="3" t="inlineStr">
         <is>
           <t>406 permit tcp 10.12.63.44/32 10.12.12.34/32 range 9090 9093</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="inlineStr">
+      <c r="A177" s="3" t="inlineStr">
         <is>
           <t>408 permit tcp 10.12.63.44/32 10.12.12.34/32 eq 3000</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="inlineStr">
+      <c r="A178" s="3" t="inlineStr">
         <is>
           <t>414 permit tcp 10.12.63.44/32 10.12.11.35/32 eq 3000</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="inlineStr">
+      <c r="A179" s="3" t="inlineStr">
         <is>
           <t>454 permit tcp 10.12.63.44/32 10.12.12.205/32 eq 5601</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="inlineStr">
+      <c r="A180" s="3" t="inlineStr">
         <is>
           <t>456 permit tcp 10.12.63.44/32 10.12.11.151/32 range 9090 9093</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="inlineStr">
+      <c r="A181" s="3" t="inlineStr">
         <is>
           <t>458 permit tcp 10.12.63.44/32 10.12.11.35/32 range 9090 9093</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="inlineStr">
+      <c r="A182" s="3" t="inlineStr">
         <is>
           <t>460 permit tcp 10.12.63.44/32 10.12.12.34/32 eq 8004</t>
         </is>
@@ -8387,21 +8393,21 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="inlineStr">
+      <c r="A185" s="3" t="inlineStr">
         <is>
           <t>4 deny tcp 10.12.8.43/32 10.12.11.0/24 eq 55888</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="inlineStr">
+      <c r="A186" s="3" t="inlineStr">
         <is>
           <t>5 deny tcp 10.12.8.43/32 10.12.12.0/23 eq 55888</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="2" t="inlineStr">
+      <c r="A187" s="3" t="inlineStr">
         <is>
           <t>6 deny tcp 10.12.8.43/32 10.12.14.0/24 eq 55888</t>
         </is>
@@ -8422,7 +8428,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="inlineStr">
+      <c r="A190" s="3" t="inlineStr">
         <is>
           <t>94 permit tcp 10.12.8.43/32 eq 28800 10.12.17.80 0.0.0.7</t>
         </is>
@@ -8488,7 +8494,7 @@
           <t>46 permit tcp 10.13.108.0/24 10.13.62.11/32 eq 16000 log</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>permit udp 10.13.15.0 0.0.0.255 eq snmp 10.13.62.8 0.0.0.7</t>
         </is>
@@ -8500,31 +8506,31 @@
           <t>60 permit tcp 10.13.108.0/24 10.13.62.66/32 eq www log</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>permit udp 10.13.150.0 0.0.0.255 eq snmp 10.13.62.8 0.0.0.7</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>280 permit tcp 10.13.108.60/32 10.13.19.0/24 eq 443</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>permit tcp 10.13.15.0 0.0.0.255 eq 443 5900 10.13.62.32 0.0.0.1</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>282 permit tcp 10.13.108.60/32 10.13.12.0/24 eq 443</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>permit tcp 10.13.150.0 0.0.0.255 eq 443 5900 10.13.62.32 0.0.0.1</t>
         </is>
@@ -8536,19 +8542,19 @@
           <t>284 permit tcp 10.13.108.60/32 10.13.0.0/16 eq 22</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>permit tcp host 10.13.15.243 eq 22 443 host 10.13.108.60</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>286 permit icmp 10.13.108.60/32 10.13.0.0/16</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>permit tcp host 10.13.15.244 eq 22 host 10.13.108.60</t>
         </is>
@@ -8660,7 +8666,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>95 permit ip 10.13.169.0/30 10.13.11.38/32</t>
         </is>
@@ -8737,42 +8743,42 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
+      <c r="A37" s="3" t="inlineStr">
         <is>
           <t>242 permit tcp 10.13.169.0/29 eq 9121 10.13.12.91/32 log</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="inlineStr">
+      <c r="A38" s="3" t="inlineStr">
         <is>
           <t>310 permit tcp 10.13.169.2/32 eq 6788 10.13.21.16/28</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
+      <c r="A39" s="3" t="inlineStr">
         <is>
           <t>348 permit tcp 10.13.169.1/30 eq 6788 10.13.12.91/32</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="inlineStr">
+      <c r="A40" s="3" t="inlineStr">
         <is>
           <t>350 permit tcp 10.13.169.1/29 eq 9100 10.13.12.91/32</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
+      <c r="A41" s="3" t="inlineStr">
         <is>
           <t>352 permit tcp 10.13.169.1/29 eq 9104 10.13.12.91/32</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="inlineStr">
+      <c r="A42" s="3" t="inlineStr">
         <is>
           <t>354 permit tcp 10.13.169.1/29 eq 9200 10.13.12.91/32</t>
         </is>
@@ -8793,42 +8799,42 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
+      <c r="A46" s="3" t="inlineStr">
         <is>
           <t>258 permit tcp 10.13.17.63/32 10.13.22.214/31 eq 17998</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr">
+      <c r="A47" s="3" t="inlineStr">
         <is>
           <t>260 permit tcp 10.13.17.63/32 10.13.22.214/31 eq 20000</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
+      <c r="A48" s="3" t="inlineStr">
         <is>
           <t>262 permit tcp 10.13.17.63/32 10.13.22.214/31 eq 20020</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
+      <c r="A49" s="3" t="inlineStr">
         <is>
           <t>264 permit tcp 10.13.17.64/28 10.13.22.214/31 eq 17998</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
+      <c r="A50" s="3" t="inlineStr">
         <is>
           <t>268 permit tcp 10.13.17.64/28 10.13.22.214/31 eq 20000</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="inlineStr">
+      <c r="A51" s="3" t="inlineStr">
         <is>
           <t>270 permit tcp 10.13.17.64/28 10.13.22.214/31 eq 20020</t>
         </is>
@@ -8849,28 +8855,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="inlineStr">
+      <c r="A54" s="3" t="inlineStr">
         <is>
           <t>396 permit udp 10.13.17.86/30 10.13.11.33/29 eq domain</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="inlineStr">
+      <c r="A55" s="3" t="inlineStr">
         <is>
           <t>402 permit tcp 10.13.17.241/32 10.13.11.24/30 eq 6633</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
+      <c r="A56" s="3" t="inlineStr">
         <is>
           <t>404 permit tcp 10.13.17.241/32 10.13.11.24/30 range 3366 3369</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
+      <c r="A57" s="3" t="inlineStr">
         <is>
           <t>496 permit tcp 10.13.17.241/32 eq 13080 10.13.12.131/32</t>
         </is>
@@ -8905,7 +8911,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
+      <c r="A63" s="3" t="inlineStr">
         <is>
           <t>70 permit tcp 10.13.62.12/32 eq 17000 10.13.0.0/16</t>
         </is>
@@ -8926,84 +8932,84 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="inlineStr">
+      <c r="A66" s="3" t="inlineStr">
         <is>
           <t>580 permit tcp 10.13.62.8/29 10.13.16.42/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="2" t="inlineStr">
         <is>
           <t>590 permit udp 10.13.62.8/29 10.13.15.0/24 eq snmp</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="2" t="inlineStr">
         <is>
           <t>600 permit udp 10.13.62.8/29 10.13.150.0/24 eq snmp</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="inlineStr">
+      <c r="A69" s="3" t="inlineStr">
         <is>
           <t>612 permit tcp 10.13.62.32/31 10.13.19.0/24 eq 443</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="inlineStr">
+      <c r="A70" s="3" t="inlineStr">
         <is>
           <t>614 permit tcp 10.13.62.32/31 10.13.19.30/32 eq 5480</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="inlineStr">
+      <c r="A71" s="3" t="inlineStr">
         <is>
           <t>616 permit tcp 10.13.62.32/31 10.13.12.20/32 eq 443</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="inlineStr">
+      <c r="A72" s="3" t="inlineStr">
         <is>
           <t>618 permit tcp 10.13.62.32/31 10.13.12.20/32 eq 5480</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" s="2" t="inlineStr">
         <is>
           <t>620 permit tcp 10.13.62.32/31 10.13.15.0/24 eq 443</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" s="2" t="inlineStr">
         <is>
           <t>622 permit tcp 10.13.62.32/31 10.13.15.0/24 eq 5900</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" s="2" t="inlineStr">
         <is>
           <t>624 permit tcp 10.13.62.32/31 10.13.150.0/24 eq 443</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" s="2" t="inlineStr">
         <is>
           <t>626 permit tcp 10.13.62.32/31 10.13.150.0/24 eq 5900</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="inlineStr">
+      <c r="A77" s="3" t="inlineStr">
         <is>
           <t>628 permit tcp 10.13.62.32/32 10.13.16.1/32 eq 443</t>
         </is>
@@ -9066,91 +9072,91 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="inlineStr">
+      <c r="A87" s="3" t="inlineStr">
         <is>
           <t>62 permit tcp 10.13.63.0/24 10.13.200.60/32 eq 1000</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="inlineStr">
+      <c r="A88" s="3" t="inlineStr">
         <is>
           <t>264 permit tcp 10.13.63.44/32 10.13.11.111/32 eq 56010</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="inlineStr">
+      <c r="A89" s="3" t="inlineStr">
         <is>
           <t>344 permit tcp 10.13.63.44/32 10.13.12.91/32 eq 3000</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="inlineStr">
+      <c r="A90" s="3" t="inlineStr">
         <is>
           <t>348 permit tcp 10.13.63.44/32 10.13.12.151/32 eq 8111</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="inlineStr">
+      <c r="A91" s="3" t="inlineStr">
         <is>
           <t>350 permit tcp 10.13.63.44/32 10.13.12.152/32 eq 8111</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="inlineStr">
+      <c r="A92" s="3" t="inlineStr">
         <is>
           <t>354 permit tcp 10.13.63.44/32 10.13.12.59/32 eq 56010</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="inlineStr">
+      <c r="A93" s="3" t="inlineStr">
         <is>
           <t>356 permit tcp 10.13.63.44/32 10.13.12.74/32 eq 56010</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="inlineStr">
+      <c r="A94" s="3" t="inlineStr">
         <is>
           <t>360 permit tcp 10.13.63.44/32 10.13.18.209/32 eq 8111</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="inlineStr">
+      <c r="A95" s="3" t="inlineStr">
         <is>
           <t>362 permit tcp 10.13.63.44/32 10.13.18.210/32 eq 8111</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="inlineStr">
+      <c r="A96" s="3" t="inlineStr">
         <is>
           <t>384 permit tcp 10.13.63.44/32 10.13.11.86/32 eq 5601</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="inlineStr">
+      <c r="A97" s="3" t="inlineStr">
         <is>
           <t>406 permit tcp 10.13.63.44/32 10.13.12.155/32 eq 7080</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="inlineStr">
+      <c r="A98" s="3" t="inlineStr">
         <is>
           <t>410 permit tcp 10.13.63.44/32 10.13.11.131/32 eq 3000</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="inlineStr">
+      <c r="A99" s="3" t="inlineStr">
         <is>
           <t>412 permit tcp 10.13.63.44/32 10.13.11.0/24 eq 2379</t>
         </is>
@@ -9164,56 +9170,56 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="inlineStr">
+      <c r="A101" s="3" t="inlineStr">
         <is>
           <t>416 permit tcp 10.13.63.63/32 10.13.16.42/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="inlineStr">
+      <c r="A102" s="3" t="inlineStr">
         <is>
           <t>418 permit tcp 10.13.63.44/32 10.13.12.91/32 range 9090 9093</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="inlineStr">
+      <c r="A103" s="3" t="inlineStr">
         <is>
           <t>428 permit tcp 10.13.63.44/32 10.13.11.56/32 eq 3000</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="inlineStr">
+      <c r="A104" s="3" t="inlineStr">
         <is>
           <t>464 permit tcp 10.13.63.44/32 10.13.18.206/32 eq 5601</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="inlineStr">
+      <c r="A105" s="3" t="inlineStr">
         <is>
           <t>466 permit tcp 10.13.63.44/32 10.13.12.205/32 eq 5601</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="inlineStr">
+      <c r="A106" s="3" t="inlineStr">
         <is>
           <t>468 permit tcp 10.13.63.44/32 10.13.11.131/32 range 9090 9093</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="inlineStr">
+      <c r="A107" s="3" t="inlineStr">
         <is>
           <t>470 permit tcp 10.13.63.44/32 10.13.11.56/32 range 9090 9093</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="inlineStr">
+      <c r="A108" s="3" t="inlineStr">
         <is>
           <t>472 permit tcp 10.13.63.44/32 10.13.12.91/32 eq 8004</t>
         </is>
@@ -9241,7 +9247,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="inlineStr">
+      <c r="A114" s="3" t="inlineStr">
         <is>
           <t>4 deny tcp 10.13.8.43/32 10.13.11.0/24 eq 55888</t>
         </is>
@@ -9321,7 +9327,7 @@
           <t>64 permit tcp 10.62.100.0/24 10.62.62.14/32 eq 16000</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>40 permit udp 10.62.150.0 0.0.0.255 eq snmp 10.62.62.8 0.0.0.7 log</t>
         </is>
@@ -9357,7 +9363,7 @@
           <t>248 permit tcp 10.62.100.0/24 10.62.110.0/24 eq 3399</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>70 permit tcp host 10.62.150.193 eq 22 host 10.62.108.60 log</t>
         </is>
@@ -9369,21 +9375,21 @@
           <t>260 permit tcp 10.62.100.0/24 eq 55888 10.62.108.63/32</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>80 permit tcp host 10.62.150.194 eq 22 host 10.62.108.60 log</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>270 permit tcp 10.62.100.0/24 10.62.16.55/32 range 19001 19002</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>272 permit tcp 10.62.100.96/28 range 19001 19002 10.62.16.0/30</t>
         </is>
@@ -9395,7 +9401,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>273 permit tcp 10.62.100.170/31 range 19001 19002 10.62.16.0/30</t>
         </is>
@@ -9493,7 +9499,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>300 permit tcp 10.62.100.0/24 10.62.16.41/32 eq 8080</t>
         </is>
@@ -9780,7 +9786,7 @@
           <t>422 permit tcp 10.62.100.96/29 eq 17998 10.62.106.16/30</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>720 permit tcp 10.60.150.0 0.0.0.255 eq www 443 10.62.62.32 0.0.0.7</t>
         </is>
@@ -9816,7 +9822,7 @@
           <t>430 permit tcp 10.62.100.64/26 eq 17060 10.62.106.16/31</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>750 permit udp 10.60.150.0 0.0.0.255 eq snmp 10.62.62.8 0.0.0.7 log</t>
         </is>
@@ -9967,7 +9973,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="inlineStr">
+      <c r="A66" s="3" t="inlineStr">
         <is>
           <t>601 permit tcp 10.62.100.128/27 range 19001 19002 10.62.16.0/30</t>
         </is>
@@ -10310,14 +10316,14 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="inlineStr">
+      <c r="A116" s="3" t="inlineStr">
         <is>
           <t>280 permit tcp 10.62.106.0/24 10.62.16.55/32 range 19001 19002</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="inlineStr">
+      <c r="A117" s="3" t="inlineStr">
         <is>
           <t>290 permit tcp 10.62.106.16/31 eq www 10.62.16.0/28</t>
         </is>
@@ -10380,14 +10386,14 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="inlineStr">
+      <c r="A126" s="3" t="inlineStr">
         <is>
           <t>314 permit tcp 10.62.106.16/28 eq 10000 10.62.16.0/30</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="inlineStr">
+      <c r="A127" s="3" t="inlineStr">
         <is>
           <t>316 permit tcp 10.62.106.16/28 eq 10000 10.62.16.106/32</t>
         </is>
@@ -10765,14 +10771,14 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
+      <c r="A182" s="2" t="inlineStr">
         <is>
           <t>276 permit tcp 10.62.108.60/32 10.62.150.193/32 eq 22</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
+      <c r="A183" s="2" t="inlineStr">
         <is>
           <t>278 permit tcp 10.62.108.60/32 10.62.150.194/32 eq 22</t>
         </is>
@@ -11220,7 +11226,7 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="2" t="inlineStr">
+      <c r="A248" s="3" t="inlineStr">
         <is>
           <t>730 permit tcp 10.62.110.250/32 10.62.16.12/32 eq 13080</t>
         </is>
@@ -11577,7 +11583,7 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="2" t="inlineStr">
+      <c r="A300" s="3" t="inlineStr">
         <is>
           <t>612 permit tcp 10.62.120.10/32 10.62.16.12/32 eq 13080</t>
         </is>
@@ -11591,7 +11597,7 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="2" t="inlineStr">
+      <c r="A302" s="3" t="inlineStr">
         <is>
           <t>634 permit tcp 10.62.120.100/32 10.62.16.12/32 eq 13080</t>
         </is>
@@ -12319,35 +12325,35 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="2" t="inlineStr">
+      <c r="A408" s="3" t="inlineStr">
         <is>
           <t>334 permit tcp 10.62.140.5/32 10.62.16.32/32 eq 4000</t>
         </is>
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="2" t="inlineStr">
+      <c r="A409" s="3" t="inlineStr">
         <is>
           <t>354 permit tcp 10.62.140.13/30 10.62.16.32/32 eq 4000</t>
         </is>
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="2" t="inlineStr">
+      <c r="A410" s="3" t="inlineStr">
         <is>
           <t>362 permit tcp 10.62.140.16/30 10.62.16.32/32 eq 4000</t>
         </is>
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="2" t="inlineStr">
+      <c r="A411" s="3" t="inlineStr">
         <is>
           <t>376 permit tcp 10.62.140.10/32 10.62.16.32/32 eq 4000</t>
         </is>
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="2" t="inlineStr">
+      <c r="A412" s="3" t="inlineStr">
         <is>
           <t>386 permit tcp 10.62.140.19/32 10.62.16.32/32 eq 4000</t>
         </is>
@@ -12403,7 +12409,7 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="2" t="inlineStr">
+      <c r="A421" s="3" t="inlineStr">
         <is>
           <t>186 permit tcp 10.62.170.2/32 10.62.16.32/32 eq 4000</t>
         </is>
@@ -12802,14 +12808,14 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" s="2" t="inlineStr">
+      <c r="A479" s="3" t="inlineStr">
         <is>
           <t>910 permit udp 10.62.171.0/24 10.62.16.53/32 eq domain</t>
         </is>
       </c>
     </row>
     <row r="480">
-      <c r="A480" s="2" t="inlineStr">
+      <c r="A480" s="3" t="inlineStr">
         <is>
           <t>911 permit tcp 10.62.171.0/24 10.62.16.53/32 eq domain</t>
         </is>
@@ -12858,7 +12864,7 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" s="2" t="inlineStr">
+      <c r="A488" s="3" t="inlineStr">
         <is>
           <t>52 permit tcp 10.62.200.88/32 10.62.0.0/16 eq 55888</t>
         </is>
@@ -13005,7 +13011,7 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" t="inlineStr">
+      <c r="A511" s="2" t="inlineStr">
         <is>
           <t>270 permit udp 10.62.62.8/29 10.62.150.0/24 eq snmp</t>
         </is>
@@ -13040,21 +13046,21 @@
       </c>
     </row>
     <row r="516">
-      <c r="A516" s="2" t="inlineStr">
+      <c r="A516" s="3" t="inlineStr">
         <is>
           <t>370 permit tcp 10.62.62.88/31 range www 443 10.62.16.0/30</t>
         </is>
       </c>
     </row>
     <row r="517">
-      <c r="A517" s="2" t="inlineStr">
+      <c r="A517" s="3" t="inlineStr">
         <is>
           <t>372 permit tcp 10.62.62.88/31 range www 443 10.62.16.110/32</t>
         </is>
       </c>
     </row>
     <row r="518">
-      <c r="A518" s="2" t="inlineStr">
+      <c r="A518" s="3" t="inlineStr">
         <is>
           <t>374 permit tcp 10.62.62.88/31 10.62.16.10/32 range www 443</t>
         </is>
@@ -13103,7 +13109,7 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" t="inlineStr">
+      <c r="A525" s="2" t="inlineStr">
         <is>
           <t>404 permit tcp 10.62.62.32/31 10.60.150.0/24 eq 443</t>
         </is>
@@ -13117,7 +13123,7 @@
       </c>
     </row>
     <row r="527">
-      <c r="A527" s="2" t="inlineStr">
+      <c r="A527" s="3" t="inlineStr">
         <is>
           <t>440 permit tcp 10.62.62.8/29 10.62.16.12/32 eq 13080</t>
         </is>
@@ -13131,7 +13137,7 @@
       </c>
     </row>
     <row r="529">
-      <c r="A529" t="inlineStr">
+      <c r="A529" s="2" t="inlineStr">
         <is>
           <t>444 permit udp 10.62.62.8/29 10.62.150.244/32 eq snmp</t>
         </is>
@@ -13180,7 +13186,7 @@
       </c>
     </row>
     <row r="536">
-      <c r="A536" t="inlineStr">
+      <c r="A536" s="2" t="inlineStr">
         <is>
           <t>482 permit udp 10.62.62.8/29 10.60.150.0/24 eq snmp</t>
         </is>
@@ -13250,14 +13256,14 @@
       </c>
     </row>
     <row r="546">
-      <c r="A546" s="2" t="inlineStr">
+      <c r="A546" s="3" t="inlineStr">
         <is>
           <t>910 permit udp 10.62.62.0/24 10.62.16.53/32 eq domain</t>
         </is>
       </c>
     </row>
     <row r="547">
-      <c r="A547" s="2" t="inlineStr">
+      <c r="A547" s="3" t="inlineStr">
         <is>
           <t>911 permit tcp 10.62.62.0/24 10.62.16.53/32 eq domain</t>
         </is>
@@ -14055,7 +14061,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>268 permit tcp 10.65.100.0/24 10.65.16.53/32 eq domain</t>
         </is>
@@ -14067,7 +14073,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>270 permit udp 10.65.100.0/24 10.65.16.53/32 eq domain</t>
         </is>
@@ -14184,7 +14190,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>302 permit tcp 10.65.100.128/28 10.65.16.30/32 range 4000 4001</t>
         </is>
@@ -14208,7 +14214,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>318 permit tcp 10.65.100.0/24 10.65.16.19/32 eq 17080</t>
         </is>
@@ -14607,7 +14613,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="inlineStr">
+      <c r="A83" s="3" t="inlineStr">
         <is>
           <t>284 permit tcp 10.65.108.63/32 10.65.16.91/32 eq 6443</t>
         </is>
@@ -14628,7 +14634,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="inlineStr">
+      <c r="A86" s="3" t="inlineStr">
         <is>
           <t>290 permit tcp 10.65.108.63/32 10.65.16.93/32 eq 6443</t>
         </is>
@@ -14656,7 +14662,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="inlineStr">
+      <c r="A90" s="3" t="inlineStr">
         <is>
           <t>302 permit tcp 10.65.108.63/32 10.65.16.31/32 eq 6443</t>
         </is>
@@ -14887,7 +14893,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="inlineStr">
+      <c r="A124" s="3" t="inlineStr">
         <is>
           <t>390 permit tcp 10.65.110.240/30 10.65.16.12/32 eq 13080</t>
         </is>
@@ -15132,7 +15138,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="inlineStr">
+      <c r="A160" s="3" t="inlineStr">
         <is>
           <t>162 permit tcp 10.65.120.110/32 10.65.16.12/32 eq 13080</t>
         </is>
@@ -15216,7 +15222,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="inlineStr">
+      <c r="A172" s="3" t="inlineStr">
         <is>
           <t>272 permit tcp 10.65.120.11/32 10.65.16.12/32 eq 13080</t>
         </is>
@@ -15622,7 +15628,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="2" t="inlineStr">
+      <c r="A230" s="3" t="inlineStr">
         <is>
           <t>432 permit tcp 10.65.120.91/32 10.65.16.12/32</t>
         </is>
@@ -16994,35 +17000,35 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" s="2" t="inlineStr">
+      <c r="A431" s="3" t="inlineStr">
         <is>
           <t>166 permit tcp 10.65.231.0/28 10.65.16.12/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="432">
-      <c r="A432" s="2" t="inlineStr">
+      <c r="A432" s="3" t="inlineStr">
         <is>
           <t>168 permit tcp 10.65.231.0/28 10.65.16.41/32 eq 8080</t>
         </is>
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="2" t="inlineStr">
+      <c r="A433" s="3" t="inlineStr">
         <is>
           <t>174 permit tcp 10.65.231.0/24 10.65.16.31/32 eq 6443</t>
         </is>
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="2" t="inlineStr">
+      <c r="A434" s="3" t="inlineStr">
         <is>
           <t>178 permit tcp 10.65.231.0/30 eq 6443 10.65.16.0/24</t>
         </is>
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="2" t="inlineStr">
+      <c r="A435" s="3" t="inlineStr">
         <is>
           <t>180 permit tcp 10.65.231.4/31 eq www 10.65.16.0/24</t>
         </is>
@@ -17379,7 +17385,7 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" s="2" t="inlineStr">
+      <c r="A486" s="3" t="inlineStr">
         <is>
           <t>310 permit tcp 10.65.231.0/28 10.65.16.17/32 eq 9980</t>
         </is>
@@ -17407,14 +17413,14 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="2" t="inlineStr">
+      <c r="A490" s="3" t="inlineStr">
         <is>
           <t>332 permit tcp 10.65.231.1/28 10.65.16.11/32 eq www</t>
         </is>
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="2" t="inlineStr">
+      <c r="A491" s="3" t="inlineStr">
         <is>
           <t>340 permit tcp 10.65.231.0/28 10.65.16.32/32 eq www</t>
         </is>
@@ -17470,7 +17476,7 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" s="2" t="inlineStr">
+      <c r="A501" s="3" t="inlineStr">
         <is>
           <t>70 permit tcp 10.65.62.12/32 eq 17000 10.65.0.0/16</t>
         </is>
@@ -17638,7 +17644,7 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" s="2" t="inlineStr">
+      <c r="A525" s="3" t="inlineStr">
         <is>
           <t>909 deny udp 10.65.62.32/31 10.65.16.53/32 eq domain</t>
         </is>
@@ -18051,7 +18057,7 @@
       </c>
     </row>
     <row r="585">
-      <c r="A585" s="2" t="inlineStr">
+      <c r="A585" s="3" t="inlineStr">
         <is>
           <t>909 deny tcp 10.65.63.55/32 10.65.16.53/32 eq domain</t>
         </is>
@@ -18145,7 +18151,7 @@
           <t>10 permit tcp 10.66.100.200/27 10.66.106.21/32 eq 10000</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>40 permit udp 10.66.150.0 0.0.0.255 eq snmp 10.66.62.8 0.0.0.7 log</t>
         </is>
@@ -18157,7 +18163,7 @@
           <t>48 permit tcp 10.66.100.0/24 eq 22 10.66.108.60/32</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>50 permit tcp 10.66.150.0 0.0.0.255 eq 443 5900 10.66.62.32 0.0.0.1 log</t>
         </is>
@@ -18188,7 +18194,7 @@
           <t>124 permit tcp 10.66.100.0/24 10.66.62.11/32 eq 16000</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>40 permit udp 10.66.151.0 0.0.0.255 eq snmp 10.66.62.8 0.0.0.7 log</t>
         </is>
@@ -18200,7 +18206,7 @@
           <t>162 permit ip 10.66.100.0/24 10.66.108.63/32</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>50 permit tcp 10.66.151.0 0.0.0.255 eq 443 5900 10.66.62.32 0.0.0.1 log</t>
         </is>
@@ -18214,7 +18220,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>166 permit ip 10.66.100.0/24 10.66.16.0/24</t>
         </is>
@@ -18231,7 +18237,7 @@
           <t>168 permit tcp 10.66.100.215/32 eq www 10.66.62.88/31</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>40 permit udp 10.66.152.0 0.0.0.255 eq snmp 10.66.62.8 0.0.0.7 log</t>
         </is>
@@ -18243,7 +18249,7 @@
           <t>170 permit tcp 10.66.100.215/32 eq 443 10.66.62.88/31</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>50 permit tcp 10.66.152.0 0.0.0.255 eq 443 5900 10.66.62.32 0.0.0.1 log</t>
         </is>
@@ -18274,7 +18280,7 @@
           <t>176 permit tcp 10.66.100.215/32 eq www 10.66.62.89/32</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>40 permit udp 10.66.153.0 0.0.0.255 eq snmp 10.66.62.8 0.0.0.7 log</t>
         </is>
@@ -18286,7 +18292,7 @@
           <t>178 permit tcp 10.66.100.215/32 eq 443 10.66.62.89/32</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>50 permit tcp 10.66.153.0 0.0.0.255 eq 443 5900 10.66.62.32 0.0.0.1 log</t>
         </is>
@@ -18317,7 +18323,7 @@
           <t>184 permit tcp 10.66.100.220/30 10.66.62.96/28 eq 9092</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>40 permit udp 10.66.155.0 0.0.0.255 eq snmp 10.66.62.8 0.0.0.7 log</t>
         </is>
@@ -18329,7 +18335,7 @@
           <t>186 permit tcp 10.66.100.224/32 10.66.62.96/28 eq 9092</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>50 permit tcp 10.66.155.0 0.0.0.255 eq 443 10.66.62.32 0.0.0.1 log</t>
         </is>
@@ -18355,7 +18361,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>200 permit tcp 10.66.100.192/27 10.66.16.41/32 eq 8080</t>
         </is>
@@ -18367,7 +18373,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>202 permit tcp 10.66.100.224/32 10.66.16.41/32 eq 8080</t>
         </is>
@@ -18384,7 +18390,7 @@
           <t>228 permit tcp 10.66.100.192/27 10.66.120.0/24 eq 9201</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>50 permit tcp 10.66.156.0 0.0.0.255 eq 443 5900 10.66.62.32 0.0.0.1 log</t>
         </is>
@@ -18439,7 +18445,7 @@
           <t>238 permit tcp 10.66.100.192/27 10.66.110.0/24 range 7001 7004</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>50 permit tcp 10.66.157.0 0.0.0.255 eq 443 5900 10.66.62.32 0.0.0.1 log</t>
         </is>
@@ -18494,7 +18500,7 @@
           <t>248 permit tcp 10.66.100.224/32 10.66.110.0/24 eq 4000</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>50 permit tcp 10.66.158.0 0.0.0.255 eq 443 5900 10.66.62.32 0.0.0.1 log</t>
         </is>
@@ -18549,7 +18555,7 @@
           <t>258 permit tcp 10.66.100.192/27 10.66.120.0/24 range 7001 7004</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>50 permit tcp 10.66.159.0 0.0.0.255 eq 443 5900 10.66.62.32 0.0.0.1 log</t>
         </is>
@@ -18592,7 +18598,7 @@
           <t>266 permit tcp 10.66.100.192/27 10.66.120.0/24 eq 4000</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>120 permit ip host 10.66.88.211 host 10.66.62.33 log</t>
         </is>
@@ -18604,7 +18610,7 @@
           <t>268 permit tcp 10.66.100.224/32 10.66.120.0/24 eq 4000</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>130 permit ip host 10.66.88.212 host 10.66.62.33 log</t>
         </is>
@@ -19052,84 +19058,84 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="inlineStr">
+      <c r="A110" s="3" t="inlineStr">
         <is>
           <t>54 permit tcp 10.66.106.0/29 eq 13080 10.66.16.0/29</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="inlineStr">
+      <c r="A111" s="3" t="inlineStr">
         <is>
           <t>56 permit tcp 10.66.106.0/29 eq 13080 10.66.16.112/32</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="inlineStr">
+      <c r="A112" s="3" t="inlineStr">
         <is>
           <t>58 permit tcp 10.66.106.0/29 eq 33080 10.66.16.0/29</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="inlineStr">
+      <c r="A113" s="3" t="inlineStr">
         <is>
           <t>60 permit tcp 10.66.106.0/29 eq 33080 10.66.16.112/32</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="inlineStr">
+      <c r="A114" s="3" t="inlineStr">
         <is>
           <t>70 permit tcp 10.66.106.0/28 10.66.16.0/30</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="inlineStr">
+      <c r="A115" s="3" t="inlineStr">
         <is>
           <t>72 permit tcp 10.66.106.0/28 10.66.16.111/32</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="inlineStr">
+      <c r="A116" s="3" t="inlineStr">
         <is>
           <t>74 permit tcp 10.66.106.0/28 10.66.16.112/30</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="inlineStr">
+      <c r="A117" s="3" t="inlineStr">
         <is>
           <t>76 permit tcp 10.66.106.48/28 10.66.16.0/30</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="inlineStr">
+      <c r="A118" s="3" t="inlineStr">
         <is>
           <t>78 permit tcp 10.66.106.48/28 10.66.16.111/32</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="inlineStr">
+      <c r="A119" s="3" t="inlineStr">
         <is>
           <t>80 permit tcp 10.66.106.48/28 10.66.16.112/30</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="inlineStr">
+      <c r="A120" s="3" t="inlineStr">
         <is>
           <t>82 permit tcp 10.66.106.0/28 eq www 10.66.16.0/24</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="inlineStr">
+      <c r="A121" s="3" t="inlineStr">
         <is>
           <t>84 permit tcp 10.66.106.48/28 eq www 10.66.16.0/24</t>
         </is>
@@ -19178,7 +19184,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="inlineStr">
+      <c r="A128" s="3" t="inlineStr">
         <is>
           <t>182 permit ip 10.66.106.32/30 10.66.16.0/24</t>
         </is>
@@ -19220,7 +19226,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="inlineStr">
+      <c r="A134" s="3" t="inlineStr">
         <is>
           <t>280 permit ip 10.66.106.21/28 10.66.16.0/24</t>
         </is>
@@ -19325,7 +19331,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="inlineStr">
+      <c r="A149" s="3" t="inlineStr">
         <is>
           <t>332 permit tcp 10.66.106.12/31 10.66.16.92/32 eq www</t>
         </is>
@@ -19465,7 +19471,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="2" t="inlineStr">
+      <c r="A170" s="3" t="inlineStr">
         <is>
           <t>60 permit tcp 10.66.108.60/32 10.66.7.0/24 eq 443</t>
         </is>
@@ -19479,7 +19485,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="inlineStr">
+      <c r="A172" s="3" t="inlineStr">
         <is>
           <t>74 permit tcp 10.66.108.62/32 10.66.16.53/32 eq domain</t>
         </is>
@@ -19549,7 +19555,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="inlineStr">
+      <c r="A182" s="3" t="inlineStr">
         <is>
           <t>164 permit ip 10.66.108.63/32 10.66.16.0/24</t>
         </is>
@@ -19738,14 +19744,14 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="2" t="inlineStr">
+      <c r="A209" s="3" t="inlineStr">
         <is>
           <t>232 permit tcp 10.66.108.61/32 10.66.16.103/32 eq 6443</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="inlineStr">
+      <c r="A210" s="3" t="inlineStr">
         <is>
           <t>234 permit tcp 10.66.108.61/32 10.66.16.104/32 eq 6443</t>
         </is>
@@ -21145,21 +21151,21 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="2" t="inlineStr">
+      <c r="A412" s="3" t="inlineStr">
         <is>
           <t>338 permit tcp 10.66.120.81/32 10.66.16.12/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="2" t="inlineStr">
+      <c r="A413" s="3" t="inlineStr">
         <is>
           <t>352 permit tcp 10.66.120.80/32 10.66.16.12/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="2" t="inlineStr">
+      <c r="A414" s="3" t="inlineStr">
         <is>
           <t>356 permit tcp 10.66.120.6/32 10.66.16.12/32 eq 13080</t>
         </is>
@@ -21369,7 +21375,7 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" s="2" t="inlineStr">
+      <c r="A444" s="3" t="inlineStr">
         <is>
           <t>448 permit tcp 10.66.120.50/31 10.66.16.12/32</t>
         </is>
@@ -21698,14 +21704,14 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="2" t="inlineStr">
+      <c r="A493" s="3" t="inlineStr">
         <is>
           <t>228 permit tcp 10.66.170.0/30 10.66.16.12/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="2" t="inlineStr">
+      <c r="A494" s="3" t="inlineStr">
         <is>
           <t>230 permit tcp 10.66.170.0/30 10.66.16.17/32 eq 8880</t>
         </is>
@@ -21726,7 +21732,7 @@
       </c>
     </row>
     <row r="497">
-      <c r="A497" s="2" t="inlineStr">
+      <c r="A497" s="3" t="inlineStr">
         <is>
           <t>238 permit tcp 10.66.170.0/30 10.66.16.17/32 eq 9980</t>
         </is>
@@ -21971,7 +21977,7 @@
       </c>
     </row>
     <row r="534">
-      <c r="A534" s="2" t="inlineStr">
+      <c r="A534" s="3" t="inlineStr">
         <is>
           <t>60 permit tcp 10.66.201.0/26 10.66.16.53/32 eq domain</t>
         </is>
@@ -22188,7 +22194,7 @@
       </c>
     </row>
     <row r="565">
-      <c r="A565" s="2" t="inlineStr">
+      <c r="A565" s="3" t="inlineStr">
         <is>
           <t>224 permit tcp 10.66.201.0/24 10.66.16.141/32 eq 8080</t>
         </is>
@@ -22251,7 +22257,7 @@
       </c>
     </row>
     <row r="574">
-      <c r="A574" s="2" t="inlineStr">
+      <c r="A574" s="3" t="inlineStr">
         <is>
           <t>242 permit tcp 10.66.201.0/26 10.66.16.92/32 eq www</t>
         </is>
@@ -22272,21 +22278,21 @@
       </c>
     </row>
     <row r="577">
-      <c r="A577" s="2" t="inlineStr">
+      <c r="A577" s="3" t="inlineStr">
         <is>
           <t>248 permit tcp 10.66.201.0/26 10.66.16.12/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="578">
-      <c r="A578" s="2" t="inlineStr">
+      <c r="A578" s="3" t="inlineStr">
         <is>
           <t>250 permit tcp 10.66.201.0/26 10.66.16.12/32 eq 33080</t>
         </is>
       </c>
     </row>
     <row r="579">
-      <c r="A579" s="2" t="inlineStr">
+      <c r="A579" s="3" t="inlineStr">
         <is>
           <t>252 permit tcp 10.66.201.0/26 10.66.16.6/32 eq 10000</t>
         </is>
@@ -22314,14 +22320,14 @@
       </c>
     </row>
     <row r="583">
-      <c r="A583" s="2" t="inlineStr">
+      <c r="A583" s="3" t="inlineStr">
         <is>
           <t>274 permit tcp 10.66.201.0/26 10.66.16.13/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="584">
-      <c r="A584" s="2" t="inlineStr">
+      <c r="A584" s="3" t="inlineStr">
         <is>
           <t>276 permit tcp 10.66.201.0/26 10.66.16.13/32 eq 33080</t>
         </is>
@@ -22363,14 +22369,14 @@
       </c>
     </row>
     <row r="590">
-      <c r="A590" s="2" t="inlineStr">
+      <c r="A590" s="3" t="inlineStr">
         <is>
           <t>302 permit tcp 10.66.201.19/29 eq www 10.66.16.1/30</t>
         </is>
       </c>
     </row>
     <row r="591">
-      <c r="A591" s="2" t="inlineStr">
+      <c r="A591" s="3" t="inlineStr">
         <is>
           <t>304 permit tcp 10.66.201.19/29 eq 443 10.66.16.1/30</t>
         </is>
@@ -22643,7 +22649,7 @@
       </c>
     </row>
     <row r="631">
-      <c r="A631" s="2" t="inlineStr">
+      <c r="A631" s="3" t="inlineStr">
         <is>
           <t>200 permit tcp 10.66.203.5/32 eq www 10.66.16.1/30</t>
         </is>
@@ -22657,21 +22663,21 @@
       </c>
     </row>
     <row r="633">
-      <c r="A633" s="2" t="inlineStr">
+      <c r="A633" s="3" t="inlineStr">
         <is>
           <t>204 permit tcp 10.66.203.1/32 10.66.16.12/31 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="634">
-      <c r="A634" s="2" t="inlineStr">
+      <c r="A634" s="3" t="inlineStr">
         <is>
           <t>206 permit tcp 10.66.203.2/32 10.66.16.12/31 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="635">
-      <c r="A635" s="2" t="inlineStr">
+      <c r="A635" s="3" t="inlineStr">
         <is>
           <t>208 permit tcp 10.66.203.2/30 10.66.16.6/32 eq 10000</t>
         </is>
@@ -22720,21 +22726,21 @@
       </c>
     </row>
     <row r="643">
-      <c r="A643" s="2" t="inlineStr">
+      <c r="A643" s="3" t="inlineStr">
         <is>
           <t>166 permit ip 10.66.204.5/30 10.66.16.0/24</t>
         </is>
       </c>
     </row>
     <row r="644">
-      <c r="A644" s="2" t="inlineStr">
+      <c r="A644" s="3" t="inlineStr">
         <is>
           <t>168 permit tcp 10.66.204.1/30 eq www 10.66.16.1/30</t>
         </is>
       </c>
     </row>
     <row r="645">
-      <c r="A645" s="2" t="inlineStr">
+      <c r="A645" s="3" t="inlineStr">
         <is>
           <t>170 permit tcp 10.66.204.21/28 eq www 10.66.16.1/30</t>
         </is>
@@ -22902,49 +22908,49 @@
       </c>
     </row>
     <row r="670">
-      <c r="A670" s="2" t="inlineStr">
+      <c r="A670" s="3" t="inlineStr">
         <is>
           <t>174 permit tcp 10.66.231.6/31 eq 6443 10.66.16.1/30</t>
         </is>
       </c>
     </row>
     <row r="671">
-      <c r="A671" s="2" t="inlineStr">
+      <c r="A671" s="3" t="inlineStr">
         <is>
           <t>176 permit tcp 10.66.231.8/32 eq 6443 10.66.16.1/30</t>
         </is>
       </c>
     </row>
     <row r="672">
-      <c r="A672" s="2" t="inlineStr">
+      <c r="A672" s="3" t="inlineStr">
         <is>
           <t>178 permit tcp 10.66.231.31/32 eq 6443 10.66.16.1/30</t>
         </is>
       </c>
     </row>
     <row r="673">
-      <c r="A673" s="2" t="inlineStr">
+      <c r="A673" s="3" t="inlineStr">
         <is>
           <t>180 permit tcp 10.66.231.32/31 eq 6443 10.66.16.1/30</t>
         </is>
       </c>
     </row>
     <row r="674">
-      <c r="A674" s="2" t="inlineStr">
+      <c r="A674" s="3" t="inlineStr">
         <is>
           <t>182 permit tcp 10.66.231.19/29 eq 30080 10.66.16.1/30</t>
         </is>
       </c>
     </row>
     <row r="675">
-      <c r="A675" s="2" t="inlineStr">
+      <c r="A675" s="3" t="inlineStr">
         <is>
           <t>184 permit tcp 10.66.231.39/32 eq 30080 10.66.16.1/30</t>
         </is>
       </c>
     </row>
     <row r="676">
-      <c r="A676" s="2" t="inlineStr">
+      <c r="A676" s="3" t="inlineStr">
         <is>
           <t>186 permit tcp 10.66.231.40/32 eq 30080 10.66.16.1/30</t>
         </is>
@@ -23077,14 +23083,14 @@
       </c>
     </row>
     <row r="695">
-      <c r="A695" s="2" t="inlineStr">
+      <c r="A695" s="3" t="inlineStr">
         <is>
           <t>240 permit tcp 10.66.231.6/27 10.66.16.101/32 eq 8080</t>
         </is>
       </c>
     </row>
     <row r="696">
-      <c r="A696" s="2" t="inlineStr">
+      <c r="A696" s="3" t="inlineStr">
         <is>
           <t>242 permit tcp 10.66.231.32/29 10.66.16.101/32 eq 8080</t>
         </is>
@@ -23273,14 +23279,14 @@
       </c>
     </row>
     <row r="723">
-      <c r="A723" s="2" t="inlineStr">
+      <c r="A723" s="3" t="inlineStr">
         <is>
           <t>300 permit tcp 10.66.231.9/27 10.66.16.12/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="724">
-      <c r="A724" s="2" t="inlineStr">
+      <c r="A724" s="3" t="inlineStr">
         <is>
           <t>302 permit tcp 10.66.231.32/29 10.66.16.12/32 eq 13080</t>
         </is>
@@ -23301,7 +23307,7 @@
       </c>
     </row>
     <row r="727">
-      <c r="A727" s="2" t="inlineStr">
+      <c r="A727" s="3" t="inlineStr">
         <is>
           <t>316 permit tcp 10.66.231.0/26 10.66.16.6/32 eq 10000</t>
         </is>
@@ -23315,7 +23321,7 @@
       </c>
     </row>
     <row r="729">
-      <c r="A729" s="2" t="inlineStr">
+      <c r="A729" s="3" t="inlineStr">
         <is>
           <t>322 permit tcp 10.66.231.0/26 10.66.16.92/32 eq www</t>
         </is>
@@ -23364,35 +23370,35 @@
       </c>
     </row>
     <row r="737">
-      <c r="A737" s="2" t="inlineStr">
+      <c r="A737" s="3" t="inlineStr">
         <is>
           <t>166 permit tcp 10.66.234.3/32 eq 8070 10.66.16.1/30</t>
         </is>
       </c>
     </row>
     <row r="738">
-      <c r="A738" s="2" t="inlineStr">
+      <c r="A738" s="3" t="inlineStr">
         <is>
           <t>168 permit tcp 10.66.234.4/31 eq 8070 10.66.16.1/30</t>
         </is>
       </c>
     </row>
     <row r="739">
-      <c r="A739" s="2" t="inlineStr">
+      <c r="A739" s="3" t="inlineStr">
         <is>
           <t>170 permit tcp 10.66.234.16/29 eq www 10.66.16.1/30</t>
         </is>
       </c>
     </row>
     <row r="740">
-      <c r="A740" s="2" t="inlineStr">
+      <c r="A740" s="3" t="inlineStr">
         <is>
           <t>172 permit tcp 10.66.234.24/31 eq www 10.66.16.1/30</t>
         </is>
       </c>
     </row>
     <row r="741">
-      <c r="A741" s="2" t="inlineStr">
+      <c r="A741" s="3" t="inlineStr">
         <is>
           <t>174 permit tcp 10.66.234.0/29 eq 8080 10.66.16.0/30</t>
         </is>
@@ -23462,7 +23468,7 @@
       </c>
     </row>
     <row r="751">
-      <c r="A751" s="2" t="inlineStr">
+      <c r="A751" s="3" t="inlineStr">
         <is>
           <t>276 permit tcp 10.66.234.1/30 eq www 10.66.16.1/30</t>
         </is>
@@ -23532,70 +23538,70 @@
       </c>
     </row>
     <row r="763">
-      <c r="A763" t="inlineStr">
+      <c r="A763" s="2" t="inlineStr">
         <is>
           <t>32 permit udp 10.66.62.8/29 10.66.150.0/24 eq snmp</t>
         </is>
       </c>
     </row>
     <row r="764">
-      <c r="A764" t="inlineStr">
+      <c r="A764" s="2" t="inlineStr">
         <is>
           <t>34 permit udp 10.66.62.8/29 10.66.151.0/24 eq snmp</t>
         </is>
       </c>
     </row>
     <row r="765">
-      <c r="A765" t="inlineStr">
+      <c r="A765" s="2" t="inlineStr">
         <is>
           <t>36 permit udp 10.66.62.8/29 10.66.152.0/24 eq snmp</t>
         </is>
       </c>
     </row>
     <row r="766">
-      <c r="A766" t="inlineStr">
+      <c r="A766" s="2" t="inlineStr">
         <is>
           <t>38 permit udp 10.66.62.8/29 10.66.153.0/24 eq snmp</t>
         </is>
       </c>
     </row>
     <row r="767">
-      <c r="A767" t="inlineStr">
+      <c r="A767" s="2" t="inlineStr">
         <is>
           <t>42 permit udp 10.66.62.8/29 10.66.155.0/24 eq snmp</t>
         </is>
       </c>
     </row>
     <row r="768">
-      <c r="A768" t="inlineStr">
+      <c r="A768" s="2" t="inlineStr">
         <is>
           <t>44 permit tcp 10.66.62.32/31 10.66.150.0/24 eq 443</t>
         </is>
       </c>
     </row>
     <row r="769">
-      <c r="A769" t="inlineStr">
+      <c r="A769" s="2" t="inlineStr">
         <is>
           <t>46 permit tcp 10.66.62.32/31 10.66.151.0/24 eq 443</t>
         </is>
       </c>
     </row>
     <row r="770">
-      <c r="A770" t="inlineStr">
+      <c r="A770" s="2" t="inlineStr">
         <is>
           <t>48 permit tcp 10.66.62.32/31 10.66.152.0/24 eq 443</t>
         </is>
       </c>
     </row>
     <row r="771">
-      <c r="A771" t="inlineStr">
+      <c r="A771" s="2" t="inlineStr">
         <is>
           <t>50 permit tcp 10.66.62.32/31 10.66.153.0/24 eq 443</t>
         </is>
       </c>
     </row>
     <row r="772">
-      <c r="A772" t="inlineStr">
+      <c r="A772" s="2" t="inlineStr">
         <is>
           <t>54 permit tcp 10.66.62.32/31 10.66.155.0/24 eq 443</t>
         </is>
@@ -23609,7 +23615,7 @@
       </c>
     </row>
     <row r="774">
-      <c r="A774" s="2" t="inlineStr">
+      <c r="A774" s="3" t="inlineStr">
         <is>
           <t>58 permit tcp 10.66.62.32/31 10.66.7.0/24 eq 443</t>
         </is>
@@ -23644,63 +23650,63 @@
       </c>
     </row>
     <row r="779">
-      <c r="A779" s="2" t="inlineStr">
+      <c r="A779" s="3" t="inlineStr">
         <is>
           <t>90 permit tcp 10.66.62.12/32 eq 17000 10.66.0.0/16</t>
         </is>
       </c>
     </row>
     <row r="780">
-      <c r="A780" t="inlineStr">
+      <c r="A780" s="2" t="inlineStr">
         <is>
           <t>94 permit tcp 10.66.62.32/31 10.66.156.0/24 eq 443</t>
         </is>
       </c>
     </row>
     <row r="781">
-      <c r="A781" t="inlineStr">
+      <c r="A781" s="2" t="inlineStr">
         <is>
           <t>96 permit tcp 10.66.62.32/31 10.66.157.0/24 eq 443</t>
         </is>
       </c>
     </row>
     <row r="782">
-      <c r="A782" t="inlineStr">
+      <c r="A782" s="2" t="inlineStr">
         <is>
           <t>98 permit tcp 10.66.62.32/31 10.66.158.0/24 eq 443</t>
         </is>
       </c>
     </row>
     <row r="783">
-      <c r="A783" t="inlineStr">
+      <c r="A783" s="2" t="inlineStr">
         <is>
           <t>100 permit tcp 10.66.62.32/31 10.66.159.0/24 eq 443</t>
         </is>
       </c>
     </row>
     <row r="784">
-      <c r="A784" s="2" t="inlineStr">
+      <c r="A784" s="3" t="inlineStr">
         <is>
           <t>102 permit tcp 10.66.62.32/31 10.66.214.0/24 eq 443</t>
         </is>
       </c>
     </row>
     <row r="785">
-      <c r="A785" t="inlineStr">
+      <c r="A785" s="2" t="inlineStr">
         <is>
           <t>106 permit tcp 10.66.62.33/32 10.66.157.11/29 eq 443</t>
         </is>
       </c>
     </row>
     <row r="786">
-      <c r="A786" s="2" t="inlineStr">
+      <c r="A786" s="3" t="inlineStr">
         <is>
           <t>114 permit tcp 10.66.62.32/31 10.66.244.0/24 eq www</t>
         </is>
       </c>
     </row>
     <row r="787">
-      <c r="A787" s="2" t="inlineStr">
+      <c r="A787" s="3" t="inlineStr">
         <is>
           <t>116 permit tcp 10.66.62.32/31 10.66.244.0/24 eq 443</t>
         </is>
@@ -23714,7 +23720,7 @@
       </c>
     </row>
     <row r="789">
-      <c r="A789" s="2" t="inlineStr">
+      <c r="A789" s="3" t="inlineStr">
         <is>
           <t>120 permit tcp 10.66.62.32/31 10.66.7.200/32 eq 5480</t>
         </is>
@@ -23735,21 +23741,21 @@
       </c>
     </row>
     <row r="792">
-      <c r="A792" s="2" t="inlineStr">
+      <c r="A792" s="3" t="inlineStr">
         <is>
           <t>166 permit tcp 10.66.62.10/32 10.66.16.12/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="793">
-      <c r="A793" s="2" t="inlineStr">
+      <c r="A793" s="3" t="inlineStr">
         <is>
           <t>168 permit tcp 10.66.62.10/32 10.66.16.12/32 eq 33080</t>
         </is>
       </c>
     </row>
     <row r="794">
-      <c r="A794" s="2" t="inlineStr">
+      <c r="A794" s="3" t="inlineStr">
         <is>
           <t>176 permit tcp 10.66.62.12/32 10.66.16.12/32 eq 13080</t>
         </is>
@@ -23763,7 +23769,7 @@
       </c>
     </row>
     <row r="796">
-      <c r="A796" s="2" t="inlineStr">
+      <c r="A796" s="3" t="inlineStr">
         <is>
           <t>182 permit ip 10.66.62.33/32 10.66.16.0/24</t>
         </is>
@@ -23791,35 +23797,35 @@
       </c>
     </row>
     <row r="800">
-      <c r="A800" s="2" t="inlineStr">
+      <c r="A800" s="3" t="inlineStr">
         <is>
           <t>190 permit ip 10.66.62.88/31 10.66.16.10/32</t>
         </is>
       </c>
     </row>
     <row r="801">
-      <c r="A801" s="2" t="inlineStr">
+      <c r="A801" s="3" t="inlineStr">
         <is>
           <t>192 permit tcp 10.66.62.88/31 eq www 10.66.16.0/24</t>
         </is>
       </c>
     </row>
     <row r="802">
-      <c r="A802" s="2" t="inlineStr">
+      <c r="A802" s="3" t="inlineStr">
         <is>
           <t>196 permit tcp 10.66.62.88/31 10.66.16.0/30</t>
         </is>
       </c>
     </row>
     <row r="803">
-      <c r="A803" s="2" t="inlineStr">
+      <c r="A803" s="3" t="inlineStr">
         <is>
           <t>198 permit tcp 10.66.62.88/31 10.66.16.111/32</t>
         </is>
       </c>
     </row>
     <row r="804">
-      <c r="A804" s="2" t="inlineStr">
+      <c r="A804" s="3" t="inlineStr">
         <is>
           <t>200 permit tcp 10.66.62.88/31 10.66.16.112/30</t>
         </is>
@@ -23931,21 +23937,21 @@
       </c>
     </row>
     <row r="820">
-      <c r="A820" s="2" t="inlineStr">
+      <c r="A820" s="3" t="inlineStr">
         <is>
           <t>242 permit tcp 10.66.62.32/31 10.66.16.92/32 eq www</t>
         </is>
       </c>
     </row>
     <row r="821">
-      <c r="A821" s="2" t="inlineStr">
+      <c r="A821" s="3" t="inlineStr">
         <is>
           <t>244 permit tcp 10.66.62.32/31 10.66.16.92/32 eq 443</t>
         </is>
       </c>
     </row>
     <row r="822">
-      <c r="A822" s="2" t="inlineStr">
+      <c r="A822" s="3" t="inlineStr">
         <is>
           <t>246 permit tcp 10.66.62.32/31 10.66.16.92/32 range 8001 8002</t>
         </is>
@@ -24015,14 +24021,14 @@
       </c>
     </row>
     <row r="832">
-      <c r="A832" s="2" t="inlineStr">
+      <c r="A832" s="3" t="inlineStr">
         <is>
           <t>266 permit tcp 10.66.62.32/31 10.66.16.92/32 eq 8001</t>
         </is>
       </c>
     </row>
     <row r="833">
-      <c r="A833" s="2" t="inlineStr">
+      <c r="A833" s="3" t="inlineStr">
         <is>
           <t>268 permit tcp 10.66.62.32/31 10.66.16.92/32 eq 8002</t>
         </is>
@@ -24071,14 +24077,14 @@
       </c>
     </row>
     <row r="840">
-      <c r="A840" s="2" t="inlineStr">
+      <c r="A840" s="3" t="inlineStr">
         <is>
           <t>304 permit tcp 10.66.62.101/32 10.66.16.12/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="841">
-      <c r="A841" s="2" t="inlineStr">
+      <c r="A841" s="3" t="inlineStr">
         <is>
           <t>306 permit tcp 10.66.62.101/32 10.66.16.12/32 eq 33080</t>
         </is>
@@ -24274,7 +24280,7 @@
       </c>
     </row>
     <row r="869">
-      <c r="A869" s="2" t="inlineStr">
+      <c r="A869" s="3" t="inlineStr">
         <is>
           <t>372 permit tcp 10.66.62.201/32 10.66.16.12/32 eq 13080</t>
         </is>
@@ -24498,42 +24504,42 @@
       </c>
     </row>
     <row r="901">
-      <c r="A901" s="2" t="inlineStr">
+      <c r="A901" s="3" t="inlineStr">
         <is>
           <t>912 permit udp 10.66.62.24/30 eq domain 10.66.16.0/24</t>
         </is>
       </c>
     </row>
     <row r="902">
-      <c r="A902" s="2" t="inlineStr">
+      <c r="A902" s="3" t="inlineStr">
         <is>
           <t>914 permit tcp 10.66.62.24/30 eq domain 10.66.16.0/24</t>
         </is>
       </c>
     </row>
     <row r="903">
-      <c r="A903" s="2" t="inlineStr">
+      <c r="A903" s="3" t="inlineStr">
         <is>
           <t>916 permit udp 10.66.62.24/30 eq domain 10.66.16.1/30</t>
         </is>
       </c>
     </row>
     <row r="904">
-      <c r="A904" s="2" t="inlineStr">
+      <c r="A904" s="3" t="inlineStr">
         <is>
           <t>918 permit udp 10.66.62.24/30 eq ntp 10.66.16.1/30</t>
         </is>
       </c>
     </row>
     <row r="905">
-      <c r="A905" s="2" t="inlineStr">
+      <c r="A905" s="3" t="inlineStr">
         <is>
           <t>920 permit udp 10.66.62.24/30 eq domain 10.66.16.153/32</t>
         </is>
       </c>
     </row>
     <row r="906">
-      <c r="A906" s="2" t="inlineStr">
+      <c r="A906" s="3" t="inlineStr">
         <is>
           <t>922 permit udp 10.66.62.24/30 eq ntp 10.66.16.153/32</t>
         </is>
@@ -24568,7 +24574,7 @@
       </c>
     </row>
     <row r="912">
-      <c r="A912" s="2" t="inlineStr">
+      <c r="A912" s="3" t="inlineStr">
         <is>
           <t>82 permit tcp 10.66.63.63/32 10.66.16.12/32 eq 13080</t>
         </is>
@@ -24764,7 +24770,7 @@
       </c>
     </row>
     <row r="941">
-      <c r="A941" s="2" t="inlineStr">
+      <c r="A941" s="3" t="inlineStr">
         <is>
           <t>54 permit ip 10.66.7.200/32 10.66.214.0/24</t>
         </is>
@@ -24876,14 +24882,14 @@
       </c>
     </row>
     <row r="958">
-      <c r="A958" s="2" t="inlineStr">
+      <c r="A958" s="3" t="inlineStr">
         <is>
           <t>960 permit udp 10.66.92.0/24 10.66.16.53/32 eq ntp</t>
         </is>
       </c>
     </row>
     <row r="959">
-      <c r="A959" s="2" t="inlineStr">
+      <c r="A959" s="3" t="inlineStr">
         <is>
           <t>970 permit udp 10.66.92.0/24 10.66.16.53/32 eq domain</t>
         </is>
@@ -24911,7 +24917,7 @@
       </c>
     </row>
     <row r="965">
-      <c r="A965" s="2" t="inlineStr">
+      <c r="A965" s="3" t="inlineStr">
         <is>
           <t>72 deny ip 10.66.130.0/24 10.66.16.17/32</t>
         </is>
@@ -24925,7 +24931,7 @@
       </c>
     </row>
     <row r="967">
-      <c r="A967" s="2" t="inlineStr">
+      <c r="A967" s="3" t="inlineStr">
         <is>
           <t>198 permit tcp 10.66.130.0/24 10.66.16.0/24</t>
         </is>
@@ -25695,7 +25701,7 @@
       </c>
     </row>
     <row r="1078">
-      <c r="A1078" s="2" t="inlineStr">
+      <c r="A1078" s="3" t="inlineStr">
         <is>
           <t>468 permit tcp 10.66.211.61/32 10.66.16.12/32 eq 13080</t>
         </is>
@@ -26703,14 +26709,14 @@
       </c>
     </row>
     <row r="1223">
-      <c r="A1223" s="2" t="inlineStr">
+      <c r="A1223" s="3" t="inlineStr">
         <is>
           <t>422 permit tcp 10.66.212.59/32 10.66.16.12/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="1224">
-      <c r="A1224" s="2" t="inlineStr">
+      <c r="A1224" s="3" t="inlineStr">
         <is>
           <t>424 permit tcp 10.66.212.60/32 10.66.16.12/32 eq 13080</t>
         </is>
@@ -26738,7 +26744,7 @@
       </c>
     </row>
     <row r="1228">
-      <c r="A1228" s="2" t="inlineStr">
+      <c r="A1228" s="3" t="inlineStr">
         <is>
           <t>432 permit tcp 10.66.212.84/32 10.66.16.12/32 eq 13080</t>
         </is>
@@ -26759,7 +26765,7 @@
       </c>
     </row>
     <row r="1231">
-      <c r="A1231" s="2" t="inlineStr">
+      <c r="A1231" s="3" t="inlineStr">
         <is>
           <t>438 permit tcp 10.66.212.6/32 10.66.16.12/32 eq 13080</t>
         </is>
@@ -26808,7 +26814,7 @@
       </c>
     </row>
     <row r="1238">
-      <c r="A1238" s="2" t="inlineStr">
+      <c r="A1238" s="3" t="inlineStr">
         <is>
           <t>460 permit tcp 10.66.212.83/32 10.66.16.12/32 eq 13080</t>
         </is>
@@ -26871,7 +26877,7 @@
       </c>
     </row>
     <row r="1247">
-      <c r="A1247" s="2" t="inlineStr">
+      <c r="A1247" s="3" t="inlineStr">
         <is>
           <t>490 permit tcp 10.66.212.123/32 10.66.16.12/32 eq 13080</t>
         </is>
@@ -27340,7 +27346,7 @@
       </c>
     </row>
     <row r="1316">
-      <c r="A1316" s="2" t="inlineStr">
+      <c r="A1316" s="3" t="inlineStr">
         <is>
           <t>172 permit tcp 10.66.221.0/29 10.66.16.32/32 eq 4000</t>
         </is>
@@ -27354,7 +27360,7 @@
       </c>
     </row>
     <row r="1319">
-      <c r="A1319" s="2" t="inlineStr">
+      <c r="A1319" s="3" t="inlineStr">
         <is>
           <t>5 permit ip 10.66.223.0/24 10.66.16.0/24</t>
         </is>
@@ -27753,7 +27759,7 @@
       </c>
     </row>
     <row r="1378">
-      <c r="A1378" s="2" t="inlineStr">
+      <c r="A1378" s="3" t="inlineStr">
         <is>
           <t>168 permit tcp 10.66.242.140/30 10.66.16.12/32 eq 13080</t>
         </is>
@@ -27963,7 +27969,7 @@
       </c>
     </row>
     <row r="1408">
-      <c r="A1408" s="2" t="inlineStr">
+      <c r="A1408" s="3" t="inlineStr">
         <is>
           <t>270 permit tcp 10.66.242.141/32 10.66.16.12/32 eq 13080</t>
         </is>
@@ -28117,14 +28123,14 @@
       </c>
     </row>
     <row r="1430">
-      <c r="A1430" s="2" t="inlineStr">
+      <c r="A1430" s="3" t="inlineStr">
         <is>
           <t>354 permit tcp 10.66.242.132/32 10.66.16.12/32 eq 13080</t>
         </is>
       </c>
     </row>
     <row r="1431">
-      <c r="A1431" s="2" t="inlineStr">
+      <c r="A1431" s="3" t="inlineStr">
         <is>
           <t>356 permit tcp 10.66.242.11/32 10.66.16.12/32 eq 13080</t>
         </is>
@@ -28194,7 +28200,7 @@
       </c>
     </row>
     <row r="1441">
-      <c r="A1441" s="2" t="inlineStr">
+      <c r="A1441" s="3" t="inlineStr">
         <is>
           <t>384 permit tcp 10.66.242.140/30 10.66.16.12/32 eq 13080</t>
         </is>
@@ -28329,7 +28335,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>164 permit tcp 10.70.130.32/30 eq 4000 10.70.16.1/30</t>
         </is>
